--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>BKEAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,90 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3296800</v>
+        <v>3677400</v>
       </c>
       <c r="E8" s="3">
-        <v>2785600</v>
+        <v>3301900</v>
       </c>
       <c r="F8" s="3">
-        <v>2622600</v>
+        <v>2789900</v>
       </c>
       <c r="G8" s="3">
-        <v>3037000</v>
+        <v>2626600</v>
       </c>
       <c r="H8" s="3">
-        <v>3278600</v>
+        <v>3041700</v>
       </c>
       <c r="I8" s="3">
-        <v>3230600</v>
+        <v>3283700</v>
       </c>
       <c r="J8" s="3">
+        <v>3235600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2915200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2671100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,9 +776,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,9 +809,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,8 +827,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -844,9 +857,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,9 +890,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -904,39 +923,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-62700</v>
+        <v>-121400</v>
       </c>
       <c r="E15" s="3">
-        <v>-64100</v>
+        <v>-62800</v>
       </c>
       <c r="F15" s="3">
-        <v>-64400</v>
+        <v>-64200</v>
       </c>
       <c r="G15" s="3">
-        <v>-67900</v>
+        <v>-64500</v>
       </c>
       <c r="H15" s="3">
-        <v>-89600</v>
+        <v>-68000</v>
       </c>
       <c r="I15" s="3">
-        <v>-90400</v>
+        <v>-89800</v>
       </c>
       <c r="J15" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-88900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-85600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,68 +971,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1777000</v>
+        <v>2742200</v>
       </c>
       <c r="E17" s="3">
-        <v>1486100</v>
+        <v>1779800</v>
       </c>
       <c r="F17" s="3">
-        <v>1639100</v>
+        <v>1488400</v>
       </c>
       <c r="G17" s="3">
-        <v>1762200</v>
+        <v>1641700</v>
       </c>
       <c r="H17" s="3">
-        <v>1773700</v>
+        <v>1765000</v>
       </c>
       <c r="I17" s="3">
-        <v>1722600</v>
+        <v>1776500</v>
       </c>
       <c r="J17" s="3">
+        <v>1725200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1690200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1495000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1519700</v>
+        <v>935200</v>
       </c>
       <c r="E18" s="3">
-        <v>1299500</v>
+        <v>1522100</v>
       </c>
       <c r="F18" s="3">
-        <v>983400</v>
+        <v>1301500</v>
       </c>
       <c r="G18" s="3">
-        <v>1274800</v>
+        <v>985000</v>
       </c>
       <c r="H18" s="3">
-        <v>1504900</v>
+        <v>1276700</v>
       </c>
       <c r="I18" s="3">
-        <v>1508000</v>
+        <v>1507200</v>
       </c>
       <c r="J18" s="3">
+        <v>1510300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1224900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1176100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,68 +1052,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-481700</v>
+        <v>-522700</v>
       </c>
       <c r="E20" s="3">
-        <v>-325200</v>
+        <v>-482400</v>
       </c>
       <c r="F20" s="3">
-        <v>-392000</v>
+        <v>-325700</v>
       </c>
       <c r="G20" s="3">
-        <v>-452400</v>
+        <v>-392600</v>
       </c>
       <c r="H20" s="3">
-        <v>-420000</v>
+        <v>-453100</v>
       </c>
       <c r="I20" s="3">
-        <v>-415100</v>
+        <v>-420600</v>
       </c>
       <c r="J20" s="3">
+        <v>-415700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-250600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-439900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1100800</v>
+        <v>533900</v>
       </c>
       <c r="E21" s="3">
-        <v>1038500</v>
+        <v>1102500</v>
       </c>
       <c r="F21" s="3">
-        <v>659900</v>
+        <v>1040000</v>
       </c>
       <c r="G21" s="3">
-        <v>893800</v>
+        <v>660900</v>
       </c>
       <c r="H21" s="3">
-        <v>1174600</v>
+        <v>895200</v>
       </c>
       <c r="I21" s="3">
-        <v>1183400</v>
+        <v>1176400</v>
       </c>
       <c r="J21" s="3">
+        <v>1185100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1063200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>821800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1109,69 +1148,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1038000</v>
+        <v>412500</v>
       </c>
       <c r="E23" s="3">
+        <v>1039700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>975800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>592300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>823600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1086600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1094600</v>
+      </c>
+      <c r="K23" s="3">
         <v>974300</v>
       </c>
-      <c r="F23" s="3">
-        <v>591400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>822300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1084900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1092900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>974300</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>736100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>194000</v>
+        <v>-17800</v>
       </c>
       <c r="E24" s="3">
-        <v>153900</v>
+        <v>194300</v>
       </c>
       <c r="F24" s="3">
-        <v>137400</v>
+        <v>154100</v>
       </c>
       <c r="G24" s="3">
-        <v>135100</v>
+        <v>137600</v>
       </c>
       <c r="H24" s="3">
-        <v>212500</v>
+        <v>135300</v>
       </c>
       <c r="I24" s="3">
-        <v>229100</v>
+        <v>212800</v>
       </c>
       <c r="J24" s="3">
+        <v>229500</v>
+      </c>
+      <c r="K24" s="3">
         <v>181700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>166400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,69 +1247,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>844100</v>
+        <v>430300</v>
       </c>
       <c r="E26" s="3">
-        <v>820400</v>
+        <v>845400</v>
       </c>
       <c r="F26" s="3">
-        <v>454000</v>
+        <v>821700</v>
       </c>
       <c r="G26" s="3">
-        <v>687200</v>
+        <v>454700</v>
       </c>
       <c r="H26" s="3">
-        <v>872400</v>
+        <v>688300</v>
       </c>
       <c r="I26" s="3">
-        <v>863800</v>
+        <v>873800</v>
       </c>
       <c r="J26" s="3">
+        <v>865100</v>
+      </c>
+      <c r="K26" s="3">
         <v>792600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>569700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>746500</v>
+        <v>332800</v>
       </c>
       <c r="E27" s="3">
-        <v>592700</v>
+        <v>747600</v>
       </c>
       <c r="F27" s="3">
-        <v>376600</v>
+        <v>593600</v>
       </c>
       <c r="G27" s="3">
-        <v>603900</v>
+        <v>377200</v>
       </c>
       <c r="H27" s="3">
-        <v>815400</v>
+        <v>604800</v>
       </c>
       <c r="I27" s="3">
-        <v>809200</v>
+        <v>816600</v>
       </c>
       <c r="J27" s="3">
+        <v>810400</v>
+      </c>
+      <c r="K27" s="3">
         <v>737300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>515800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,26 +1346,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>533800</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>534700</v>
+      </c>
+      <c r="G29" s="3">
         <v>39200</v>
       </c>
-      <c r="G29" s="3">
-        <v>38900</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3">
+        <v>39000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1319,9 +1379,12 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,69 +1445,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>481700</v>
+        <v>522700</v>
       </c>
       <c r="E32" s="3">
-        <v>325200</v>
+        <v>482400</v>
       </c>
       <c r="F32" s="3">
-        <v>392000</v>
+        <v>325700</v>
       </c>
       <c r="G32" s="3">
-        <v>452400</v>
+        <v>392600</v>
       </c>
       <c r="H32" s="3">
-        <v>420000</v>
+        <v>453100</v>
       </c>
       <c r="I32" s="3">
-        <v>415100</v>
+        <v>420600</v>
       </c>
       <c r="J32" s="3">
+        <v>415700</v>
+      </c>
+      <c r="K32" s="3">
         <v>250600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>439900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>746500</v>
+        <v>332800</v>
       </c>
       <c r="E33" s="3">
-        <v>1126500</v>
+        <v>747600</v>
       </c>
       <c r="F33" s="3">
-        <v>415700</v>
+        <v>1128300</v>
       </c>
       <c r="G33" s="3">
-        <v>642800</v>
+        <v>416400</v>
       </c>
       <c r="H33" s="3">
-        <v>815400</v>
+        <v>643800</v>
       </c>
       <c r="I33" s="3">
-        <v>809200</v>
+        <v>816600</v>
       </c>
       <c r="J33" s="3">
+        <v>810400</v>
+      </c>
+      <c r="K33" s="3">
         <v>737300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>515800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1544,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>746500</v>
+        <v>332800</v>
       </c>
       <c r="E35" s="3">
-        <v>1126500</v>
+        <v>747600</v>
       </c>
       <c r="F35" s="3">
-        <v>415700</v>
+        <v>1128300</v>
       </c>
       <c r="G35" s="3">
-        <v>642800</v>
+        <v>416400</v>
       </c>
       <c r="H35" s="3">
-        <v>815400</v>
+        <v>643800</v>
       </c>
       <c r="I35" s="3">
-        <v>809200</v>
+        <v>816600</v>
       </c>
       <c r="J35" s="3">
+        <v>810400</v>
+      </c>
+      <c r="K35" s="3">
         <v>737300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>515800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,68 +1648,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6195600</v>
+        <v>6647800</v>
       </c>
       <c r="E41" s="3">
-        <v>7813700</v>
+        <v>6206600</v>
       </c>
       <c r="F41" s="3">
-        <v>8453000</v>
+        <v>7827600</v>
       </c>
       <c r="G41" s="3">
-        <v>8906100</v>
+        <v>8468100</v>
       </c>
       <c r="H41" s="3">
-        <v>9068400</v>
+        <v>8922000</v>
       </c>
       <c r="I41" s="3">
-        <v>8858200</v>
+        <v>9084600</v>
       </c>
       <c r="J41" s="3">
+        <v>8874000</v>
+      </c>
+      <c r="K41" s="3">
         <v>11013100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9185400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30065000</v>
+        <v>31589400</v>
       </c>
       <c r="E42" s="3">
-        <v>11605400</v>
+        <v>30118700</v>
       </c>
       <c r="F42" s="3">
-        <v>9387100</v>
+        <v>11626100</v>
       </c>
       <c r="G42" s="3">
-        <v>14970000</v>
+        <v>9403900</v>
       </c>
       <c r="H42" s="3">
-        <v>16302100</v>
+        <v>14996800</v>
       </c>
       <c r="I42" s="3">
-        <v>17755800</v>
+        <v>16331200</v>
       </c>
       <c r="J42" s="3">
+        <v>17787500</v>
+      </c>
+      <c r="K42" s="3">
         <v>14642900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14219400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1652,9 +1744,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1682,9 +1777,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1712,9 +1810,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1742,99 +1843,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1175700</v>
+        <v>1286300</v>
       </c>
       <c r="E47" s="3">
-        <v>1214400</v>
+        <v>1177800</v>
       </c>
       <c r="F47" s="3">
-        <v>774200</v>
+        <v>1216500</v>
       </c>
       <c r="G47" s="3">
-        <v>742200</v>
+        <v>775500</v>
       </c>
       <c r="H47" s="3">
-        <v>783400</v>
+        <v>743500</v>
       </c>
       <c r="I47" s="3">
-        <v>615500</v>
+        <v>784800</v>
       </c>
       <c r="J47" s="3">
+        <v>616600</v>
+      </c>
+      <c r="K47" s="3">
         <v>602400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>489000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1695500</v>
+        <v>1848600</v>
       </c>
       <c r="E48" s="3">
-        <v>1642100</v>
+        <v>1698500</v>
       </c>
       <c r="F48" s="3">
-        <v>1544200</v>
+        <v>1645000</v>
       </c>
       <c r="G48" s="3">
-        <v>1712500</v>
+        <v>1546900</v>
       </c>
       <c r="H48" s="3">
-        <v>1689300</v>
+        <v>1715600</v>
       </c>
       <c r="I48" s="3">
-        <v>1742500</v>
+        <v>1692400</v>
       </c>
       <c r="J48" s="3">
+        <v>1745600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1616600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1617800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>249900</v>
+        <v>248500</v>
       </c>
       <c r="E49" s="3">
-        <v>252300</v>
+        <v>250300</v>
       </c>
       <c r="F49" s="3">
-        <v>339900</v>
+        <v>252800</v>
       </c>
       <c r="G49" s="3">
-        <v>500100</v>
+        <v>340500</v>
       </c>
       <c r="H49" s="3">
-        <v>509400</v>
+        <v>501000</v>
       </c>
       <c r="I49" s="3">
-        <v>513900</v>
+        <v>510300</v>
       </c>
       <c r="J49" s="3">
+        <v>514800</v>
+      </c>
+      <c r="K49" s="3">
         <v>520400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>539500</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,39 +2008,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>150600</v>
+        <v>206700</v>
       </c>
       <c r="E52" s="3">
-        <v>137500</v>
+        <v>150800</v>
       </c>
       <c r="F52" s="3">
-        <v>746600</v>
+        <v>137800</v>
       </c>
       <c r="G52" s="3">
-        <v>23300</v>
+        <v>747900</v>
       </c>
       <c r="H52" s="3">
+        <v>23400</v>
+      </c>
+      <c r="I52" s="3">
         <v>12400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>18400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>48300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2074,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>108113000</v>
+        <v>111628000</v>
       </c>
       <c r="E54" s="3">
-        <v>104184000</v>
+        <v>108306000</v>
       </c>
       <c r="F54" s="3">
-        <v>98615300</v>
+        <v>104370000</v>
       </c>
       <c r="G54" s="3">
-        <v>100632000</v>
+        <v>98791400</v>
       </c>
       <c r="H54" s="3">
-        <v>102503000</v>
+        <v>100812000</v>
       </c>
       <c r="I54" s="3">
-        <v>97101700</v>
+        <v>102686000</v>
       </c>
       <c r="J54" s="3">
+        <v>97275100</v>
+      </c>
+      <c r="K54" s="3">
         <v>89137400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78259500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,98 +2140,108 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>422300</v>
+        <v>462500</v>
       </c>
       <c r="E57" s="3">
-        <v>410500</v>
+        <v>423100</v>
       </c>
       <c r="F57" s="3">
-        <v>490900</v>
+        <v>411200</v>
       </c>
       <c r="G57" s="3">
-        <v>549800</v>
+        <v>491800</v>
       </c>
       <c r="H57" s="3">
-        <v>625000</v>
+        <v>550800</v>
       </c>
       <c r="I57" s="3">
-        <v>532000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
+        <v>626100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>533000</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>52400</v>
+        <v>671500</v>
       </c>
       <c r="E58" s="3">
-        <v>70600</v>
+        <v>52500</v>
       </c>
       <c r="F58" s="3">
-        <v>1750300</v>
+        <v>70700</v>
       </c>
       <c r="G58" s="3">
-        <v>999900</v>
+        <v>1753400</v>
       </c>
       <c r="H58" s="3">
-        <v>1767000</v>
+        <v>1001700</v>
       </c>
       <c r="I58" s="3">
-        <v>444100</v>
+        <v>1770200</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>444900</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>437600</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>185100</v>
+        <v>271300</v>
       </c>
       <c r="E59" s="3">
-        <v>149400</v>
+        <v>185400</v>
       </c>
       <c r="F59" s="3">
-        <v>206700</v>
+        <v>149700</v>
       </c>
       <c r="G59" s="3">
-        <v>170600</v>
+        <v>207100</v>
       </c>
       <c r="H59" s="3">
-        <v>150900</v>
+        <v>171000</v>
       </c>
       <c r="I59" s="3">
-        <v>174300</v>
+        <v>151200</v>
       </c>
       <c r="J59" s="3">
+        <v>174600</v>
+      </c>
+      <c r="K59" s="3">
         <v>127200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>60500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2130,69 +2269,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1611800</v>
+        <v>1202600</v>
       </c>
       <c r="E61" s="3">
-        <v>1657800</v>
+        <v>1614700</v>
       </c>
       <c r="F61" s="3">
-        <v>1825200</v>
+        <v>1660700</v>
       </c>
       <c r="G61" s="3">
-        <v>2940100</v>
+        <v>1828500</v>
       </c>
       <c r="H61" s="3">
-        <v>3353600</v>
+        <v>2945400</v>
       </c>
       <c r="I61" s="3">
-        <v>1920500</v>
+        <v>3359600</v>
       </c>
       <c r="J61" s="3">
+        <v>1923900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2951900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2554400</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>62200</v>
+        <v>75300</v>
       </c>
       <c r="E62" s="3">
-        <v>71000</v>
+        <v>62300</v>
       </c>
       <c r="F62" s="3">
-        <v>59500</v>
+        <v>71100</v>
       </c>
       <c r="G62" s="3">
-        <v>68800</v>
+        <v>59600</v>
       </c>
       <c r="H62" s="3">
-        <v>88300</v>
+        <v>68900</v>
       </c>
       <c r="I62" s="3">
-        <v>83300</v>
+        <v>88500</v>
       </c>
       <c r="J62" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K62" s="3">
         <v>80600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>59000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2434,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>95141200</v>
+        <v>97529800</v>
       </c>
       <c r="E66" s="3">
-        <v>91513800</v>
+        <v>95311100</v>
       </c>
       <c r="F66" s="3">
-        <v>87868100</v>
+        <v>91677200</v>
       </c>
       <c r="G66" s="3">
-        <v>90015800</v>
+        <v>88025100</v>
       </c>
       <c r="H66" s="3">
-        <v>93631700</v>
+        <v>90176600</v>
       </c>
       <c r="I66" s="3">
-        <v>88900100</v>
+        <v>93799000</v>
       </c>
       <c r="J66" s="3">
+        <v>89058900</v>
+      </c>
+      <c r="K66" s="3">
         <v>81776600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72164600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2548,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2614,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6554900</v>
+        <v>6628700</v>
       </c>
       <c r="E72" s="3">
-        <v>6213600</v>
+        <v>6566600</v>
       </c>
       <c r="F72" s="3">
-        <v>5425800</v>
+        <v>6224700</v>
       </c>
       <c r="G72" s="3">
-        <v>5246600</v>
+        <v>5435500</v>
       </c>
       <c r="H72" s="3">
-        <v>4944400</v>
+        <v>5256000</v>
       </c>
       <c r="I72" s="3">
-        <v>6756800</v>
+        <v>4953200</v>
       </c>
       <c r="J72" s="3">
+        <v>6768900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6013600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4971100</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2746,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12971700</v>
+        <v>14098000</v>
       </c>
       <c r="E76" s="3">
-        <v>12669800</v>
+        <v>12994900</v>
       </c>
       <c r="F76" s="3">
-        <v>10747100</v>
+        <v>12692500</v>
       </c>
       <c r="G76" s="3">
-        <v>10616000</v>
+        <v>10766300</v>
       </c>
       <c r="H76" s="3">
-        <v>8871100</v>
+        <v>10635000</v>
       </c>
       <c r="I76" s="3">
-        <v>8201600</v>
+        <v>8886900</v>
       </c>
       <c r="J76" s="3">
+        <v>8216300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7360700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6094800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2812,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>746500</v>
+        <v>332800</v>
       </c>
       <c r="E81" s="3">
-        <v>1126500</v>
+        <v>747600</v>
       </c>
       <c r="F81" s="3">
-        <v>415700</v>
+        <v>1128300</v>
       </c>
       <c r="G81" s="3">
-        <v>642800</v>
+        <v>416400</v>
       </c>
       <c r="H81" s="3">
-        <v>815400</v>
+        <v>643800</v>
       </c>
       <c r="I81" s="3">
-        <v>809200</v>
+        <v>816600</v>
       </c>
       <c r="J81" s="3">
+        <v>810400</v>
+      </c>
+      <c r="K81" s="3">
         <v>737300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>515800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,38 +2901,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62700</v>
+        <v>121400</v>
       </c>
       <c r="E83" s="3">
-        <v>64100</v>
+        <v>62800</v>
       </c>
       <c r="F83" s="3">
-        <v>68500</v>
+        <v>64200</v>
       </c>
       <c r="G83" s="3">
-        <v>71500</v>
+        <v>68600</v>
       </c>
       <c r="H83" s="3">
-        <v>89600</v>
+        <v>71600</v>
       </c>
       <c r="I83" s="3">
-        <v>90400</v>
+        <v>89800</v>
       </c>
       <c r="J83" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K83" s="3">
         <v>88900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>85600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,39 +3096,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2398100</v>
+        <v>976600</v>
       </c>
       <c r="E89" s="3">
-        <v>1631100</v>
+        <v>339900</v>
       </c>
       <c r="F89" s="3">
-        <v>-2413900</v>
+        <v>1633700</v>
       </c>
       <c r="G89" s="3">
-        <v>6614300</v>
+        <v>-2417700</v>
       </c>
       <c r="H89" s="3">
-        <v>-4739200</v>
+        <v>6624500</v>
       </c>
       <c r="I89" s="3">
-        <v>-2347800</v>
+        <v>-4746600</v>
       </c>
       <c r="J89" s="3">
+        <v>-2351500</v>
+      </c>
+      <c r="K89" s="3">
         <v>532200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1907700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,38 +3147,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-84600</v>
+        <v>-130300</v>
       </c>
       <c r="E91" s="3">
-        <v>-52700</v>
+        <v>-84700</v>
       </c>
       <c r="F91" s="3">
-        <v>-57700</v>
+        <v>-52800</v>
       </c>
       <c r="G91" s="3">
-        <v>-57400</v>
+        <v>-57800</v>
       </c>
       <c r="H91" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-39300</v>
       </c>
-      <c r="I91" s="3">
-        <v>-96600</v>
-      </c>
       <c r="J91" s="3">
+        <v>-96700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-56200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-73900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,39 +3243,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-81500</v>
+        <v>161000</v>
       </c>
       <c r="E94" s="3">
-        <v>537700</v>
+        <v>-81700</v>
       </c>
       <c r="F94" s="3">
-        <v>232700</v>
+        <v>538500</v>
       </c>
       <c r="G94" s="3">
-        <v>-69200</v>
+        <v>233100</v>
       </c>
       <c r="H94" s="3">
-        <v>-178500</v>
+        <v>-69300</v>
       </c>
       <c r="I94" s="3">
+        <v>-178800</v>
+      </c>
+      <c r="J94" s="3">
         <v>5900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>84400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>72300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,38 +3294,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-107200</v>
+        <v>-106200</v>
       </c>
       <c r="E96" s="3">
-        <v>-271200</v>
+        <v>-107300</v>
       </c>
       <c r="F96" s="3">
-        <v>-60300</v>
+        <v>-271700</v>
       </c>
       <c r="G96" s="3">
-        <v>-105200</v>
+        <v>-60400</v>
       </c>
       <c r="H96" s="3">
-        <v>-127600</v>
+        <v>-105400</v>
       </c>
       <c r="I96" s="3">
-        <v>-96200</v>
+        <v>-127800</v>
       </c>
       <c r="J96" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-120000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-148100</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,56 +3423,62 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2408200</v>
+        <v>52100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1067400</v>
+        <v>-329700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1702100</v>
+        <v>-1069100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1044200</v>
+        <v>-1704700</v>
       </c>
       <c r="H100" s="3">
-        <v>2596800</v>
+        <v>-1045900</v>
       </c>
       <c r="I100" s="3">
-        <v>1088700</v>
+        <v>2600800</v>
       </c>
       <c r="J100" s="3">
+        <v>1090400</v>
+      </c>
+      <c r="K100" s="3">
         <v>2031000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1043700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-438700</v>
+        <v>-78000</v>
       </c>
       <c r="E101" s="3">
-        <v>719500</v>
+        <v>-439300</v>
       </c>
       <c r="F101" s="3">
-        <v>-640500</v>
+        <v>720700</v>
       </c>
       <c r="G101" s="3">
-        <v>-480600</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
+        <v>-641500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-481400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
@@ -3241,37 +3489,43 @@
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-510000</v>
+        <v>1111600</v>
       </c>
       <c r="E102" s="3">
-        <v>1821000</v>
+        <v>-510800</v>
       </c>
       <c r="F102" s="3">
-        <v>-4523700</v>
+        <v>1823800</v>
       </c>
       <c r="G102" s="3">
-        <v>5020200</v>
+        <v>-4530800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2320900</v>
+        <v>5028000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1253300</v>
+        <v>-2324500</v>
       </c>
       <c r="J102" s="3">
+        <v>-1255200</v>
+      </c>
+      <c r="K102" s="3">
         <v>2647500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-791700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3677400</v>
+        <v>3678500</v>
       </c>
       <c r="E8" s="3">
-        <v>3301900</v>
+        <v>3302900</v>
       </c>
       <c r="F8" s="3">
-        <v>2789900</v>
+        <v>2790800</v>
       </c>
       <c r="G8" s="3">
-        <v>2626600</v>
+        <v>2627400</v>
       </c>
       <c r="H8" s="3">
-        <v>3041700</v>
+        <v>3042700</v>
       </c>
       <c r="I8" s="3">
-        <v>3283700</v>
+        <v>3284700</v>
       </c>
       <c r="J8" s="3">
-        <v>3235600</v>
+        <v>3236600</v>
       </c>
       <c r="K8" s="3">
         <v>2915200</v>
@@ -939,7 +939,7 @@
         <v>-62800</v>
       </c>
       <c r="F15" s="3">
-        <v>-64200</v>
+        <v>-64300</v>
       </c>
       <c r="G15" s="3">
         <v>-64500</v>
@@ -978,25 +978,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2742200</v>
+        <v>2743000</v>
       </c>
       <c r="E17" s="3">
-        <v>1779800</v>
+        <v>1780400</v>
       </c>
       <c r="F17" s="3">
-        <v>1488400</v>
+        <v>1488900</v>
       </c>
       <c r="G17" s="3">
-        <v>1641700</v>
+        <v>1642200</v>
       </c>
       <c r="H17" s="3">
-        <v>1765000</v>
+        <v>1765500</v>
       </c>
       <c r="I17" s="3">
-        <v>1776500</v>
+        <v>1777000</v>
       </c>
       <c r="J17" s="3">
-        <v>1725200</v>
+        <v>1725800</v>
       </c>
       <c r="K17" s="3">
         <v>1690200</v>
@@ -1011,25 +1011,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>935200</v>
+        <v>935500</v>
       </c>
       <c r="E18" s="3">
-        <v>1522100</v>
+        <v>1522600</v>
       </c>
       <c r="F18" s="3">
-        <v>1301500</v>
+        <v>1301900</v>
       </c>
       <c r="G18" s="3">
-        <v>985000</v>
+        <v>985300</v>
       </c>
       <c r="H18" s="3">
-        <v>1276700</v>
+        <v>1277100</v>
       </c>
       <c r="I18" s="3">
-        <v>1507200</v>
+        <v>1507700</v>
       </c>
       <c r="J18" s="3">
-        <v>1510300</v>
+        <v>1510800</v>
       </c>
       <c r="K18" s="3">
         <v>1224900</v>
@@ -1059,25 +1059,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-522700</v>
+        <v>-522800</v>
       </c>
       <c r="E20" s="3">
-        <v>-482400</v>
+        <v>-482600</v>
       </c>
       <c r="F20" s="3">
-        <v>-325700</v>
+        <v>-325800</v>
       </c>
       <c r="G20" s="3">
-        <v>-392600</v>
+        <v>-392800</v>
       </c>
       <c r="H20" s="3">
-        <v>-453100</v>
+        <v>-453300</v>
       </c>
       <c r="I20" s="3">
-        <v>-420600</v>
+        <v>-420800</v>
       </c>
       <c r="J20" s="3">
-        <v>-415700</v>
+        <v>-415900</v>
       </c>
       <c r="K20" s="3">
         <v>-250600</v>
@@ -1092,25 +1092,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>533900</v>
+        <v>534100</v>
       </c>
       <c r="E21" s="3">
-        <v>1102500</v>
+        <v>1102800</v>
       </c>
       <c r="F21" s="3">
-        <v>1040000</v>
+        <v>1040400</v>
       </c>
       <c r="G21" s="3">
-        <v>660900</v>
+        <v>661100</v>
       </c>
       <c r="H21" s="3">
-        <v>895200</v>
+        <v>895500</v>
       </c>
       <c r="I21" s="3">
-        <v>1176400</v>
+        <v>1176800</v>
       </c>
       <c r="J21" s="3">
-        <v>1185100</v>
+        <v>1185500</v>
       </c>
       <c r="K21" s="3">
         <v>1063200</v>
@@ -1158,25 +1158,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>412500</v>
+        <v>412600</v>
       </c>
       <c r="E23" s="3">
-        <v>1039700</v>
+        <v>1040000</v>
       </c>
       <c r="F23" s="3">
-        <v>975800</v>
+        <v>976100</v>
       </c>
       <c r="G23" s="3">
-        <v>592300</v>
+        <v>592500</v>
       </c>
       <c r="H23" s="3">
-        <v>823600</v>
+        <v>823900</v>
       </c>
       <c r="I23" s="3">
-        <v>1086600</v>
+        <v>1086900</v>
       </c>
       <c r="J23" s="3">
-        <v>1094600</v>
+        <v>1094900</v>
       </c>
       <c r="K23" s="3">
         <v>974300</v>
@@ -1197,16 +1197,16 @@
         <v>194300</v>
       </c>
       <c r="F24" s="3">
-        <v>154100</v>
+        <v>154200</v>
       </c>
       <c r="G24" s="3">
-        <v>137600</v>
+        <v>137700</v>
       </c>
       <c r="H24" s="3">
-        <v>135300</v>
+        <v>135400</v>
       </c>
       <c r="I24" s="3">
-        <v>212800</v>
+        <v>212900</v>
       </c>
       <c r="J24" s="3">
         <v>229500</v>
@@ -1257,25 +1257,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>430300</v>
+        <v>430400</v>
       </c>
       <c r="E26" s="3">
-        <v>845400</v>
+        <v>845700</v>
       </c>
       <c r="F26" s="3">
-        <v>821700</v>
+        <v>821900</v>
       </c>
       <c r="G26" s="3">
-        <v>454700</v>
+        <v>454800</v>
       </c>
       <c r="H26" s="3">
-        <v>688300</v>
+        <v>688500</v>
       </c>
       <c r="I26" s="3">
-        <v>873800</v>
+        <v>874000</v>
       </c>
       <c r="J26" s="3">
-        <v>865100</v>
+        <v>865400</v>
       </c>
       <c r="K26" s="3">
         <v>792600</v>
@@ -1290,25 +1290,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>332800</v>
+        <v>332900</v>
       </c>
       <c r="E27" s="3">
-        <v>747600</v>
+        <v>747900</v>
       </c>
       <c r="F27" s="3">
-        <v>593600</v>
+        <v>593800</v>
       </c>
       <c r="G27" s="3">
-        <v>377200</v>
+        <v>377300</v>
       </c>
       <c r="H27" s="3">
-        <v>604800</v>
+        <v>605000</v>
       </c>
       <c r="I27" s="3">
-        <v>816600</v>
+        <v>816900</v>
       </c>
       <c r="J27" s="3">
-        <v>810400</v>
+        <v>810700</v>
       </c>
       <c r="K27" s="3">
         <v>737300</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>534700</v>
+        <v>534800</v>
       </c>
       <c r="G29" s="3">
         <v>39200</v>
@@ -1455,25 +1455,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>522700</v>
+        <v>522800</v>
       </c>
       <c r="E32" s="3">
-        <v>482400</v>
+        <v>482600</v>
       </c>
       <c r="F32" s="3">
-        <v>325700</v>
+        <v>325800</v>
       </c>
       <c r="G32" s="3">
-        <v>392600</v>
+        <v>392800</v>
       </c>
       <c r="H32" s="3">
-        <v>453100</v>
+        <v>453300</v>
       </c>
       <c r="I32" s="3">
-        <v>420600</v>
+        <v>420800</v>
       </c>
       <c r="J32" s="3">
-        <v>415700</v>
+        <v>415900</v>
       </c>
       <c r="K32" s="3">
         <v>250600</v>
@@ -1488,25 +1488,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>332800</v>
+        <v>332900</v>
       </c>
       <c r="E33" s="3">
-        <v>747600</v>
+        <v>747900</v>
       </c>
       <c r="F33" s="3">
-        <v>1128300</v>
+        <v>1128600</v>
       </c>
       <c r="G33" s="3">
-        <v>416400</v>
+        <v>416500</v>
       </c>
       <c r="H33" s="3">
-        <v>643800</v>
+        <v>644000</v>
       </c>
       <c r="I33" s="3">
-        <v>816600</v>
+        <v>816900</v>
       </c>
       <c r="J33" s="3">
-        <v>810400</v>
+        <v>810700</v>
       </c>
       <c r="K33" s="3">
         <v>737300</v>
@@ -1554,25 +1554,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>332800</v>
+        <v>332900</v>
       </c>
       <c r="E35" s="3">
-        <v>747600</v>
+        <v>747900</v>
       </c>
       <c r="F35" s="3">
-        <v>1128300</v>
+        <v>1128600</v>
       </c>
       <c r="G35" s="3">
-        <v>416400</v>
+        <v>416500</v>
       </c>
       <c r="H35" s="3">
-        <v>643800</v>
+        <v>644000</v>
       </c>
       <c r="I35" s="3">
-        <v>816600</v>
+        <v>816900</v>
       </c>
       <c r="J35" s="3">
-        <v>810400</v>
+        <v>810700</v>
       </c>
       <c r="K35" s="3">
         <v>737300</v>
@@ -1655,25 +1655,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6647800</v>
+        <v>6648300</v>
       </c>
       <c r="E41" s="3">
-        <v>6206600</v>
+        <v>6207100</v>
       </c>
       <c r="F41" s="3">
-        <v>7827600</v>
+        <v>7828300</v>
       </c>
       <c r="G41" s="3">
-        <v>8468100</v>
+        <v>8468800</v>
       </c>
       <c r="H41" s="3">
-        <v>8922000</v>
+        <v>8922700</v>
       </c>
       <c r="I41" s="3">
-        <v>9084600</v>
+        <v>9085300</v>
       </c>
       <c r="J41" s="3">
-        <v>8874000</v>
+        <v>8874700</v>
       </c>
       <c r="K41" s="3">
         <v>11013100</v>
@@ -1688,25 +1688,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31589400</v>
+        <v>31591800</v>
       </c>
       <c r="E42" s="3">
-        <v>30118700</v>
+        <v>30121000</v>
       </c>
       <c r="F42" s="3">
-        <v>11626100</v>
+        <v>11627000</v>
       </c>
       <c r="G42" s="3">
-        <v>9403900</v>
+        <v>9404600</v>
       </c>
       <c r="H42" s="3">
-        <v>14996800</v>
+        <v>14997900</v>
       </c>
       <c r="I42" s="3">
-        <v>16331200</v>
+        <v>16332500</v>
       </c>
       <c r="J42" s="3">
-        <v>17787500</v>
+        <v>17788800</v>
       </c>
       <c r="K42" s="3">
         <v>14642900</v>
@@ -1853,22 +1853,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1286300</v>
+        <v>1286400</v>
       </c>
       <c r="E47" s="3">
-        <v>1177800</v>
+        <v>1177900</v>
       </c>
       <c r="F47" s="3">
-        <v>1216500</v>
+        <v>1216600</v>
       </c>
       <c r="G47" s="3">
-        <v>775500</v>
+        <v>775600</v>
       </c>
       <c r="H47" s="3">
-        <v>743500</v>
+        <v>743600</v>
       </c>
       <c r="I47" s="3">
-        <v>784800</v>
+        <v>784900</v>
       </c>
       <c r="J47" s="3">
         <v>616600</v>
@@ -1886,25 +1886,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1848600</v>
+        <v>1848700</v>
       </c>
       <c r="E48" s="3">
-        <v>1698500</v>
+        <v>1698700</v>
       </c>
       <c r="F48" s="3">
-        <v>1645000</v>
+        <v>1645100</v>
       </c>
       <c r="G48" s="3">
-        <v>1546900</v>
+        <v>1547100</v>
       </c>
       <c r="H48" s="3">
-        <v>1715600</v>
+        <v>1715700</v>
       </c>
       <c r="I48" s="3">
-        <v>1692400</v>
+        <v>1692500</v>
       </c>
       <c r="J48" s="3">
-        <v>1745600</v>
+        <v>1745800</v>
       </c>
       <c r="K48" s="3">
         <v>1616600</v>
@@ -2027,7 +2027,7 @@
         <v>137800</v>
       </c>
       <c r="G52" s="3">
-        <v>747900</v>
+        <v>748000</v>
       </c>
       <c r="H52" s="3">
         <v>23400</v>
@@ -2084,25 +2084,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>111628000</v>
+        <v>111637000</v>
       </c>
       <c r="E54" s="3">
-        <v>108306000</v>
+        <v>108314000</v>
       </c>
       <c r="F54" s="3">
-        <v>104370000</v>
+        <v>104378000</v>
       </c>
       <c r="G54" s="3">
-        <v>98791400</v>
+        <v>98799000</v>
       </c>
       <c r="H54" s="3">
-        <v>100812000</v>
+        <v>100819000</v>
       </c>
       <c r="I54" s="3">
-        <v>102686000</v>
+        <v>102694000</v>
       </c>
       <c r="J54" s="3">
-        <v>97275100</v>
+        <v>97282700</v>
       </c>
       <c r="K54" s="3">
         <v>89137400</v>
@@ -2147,7 +2147,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>462500</v>
+        <v>462600</v>
       </c>
       <c r="E57" s="3">
         <v>423100</v>
@@ -2156,13 +2156,13 @@
         <v>411200</v>
       </c>
       <c r="G57" s="3">
-        <v>491800</v>
+        <v>491900</v>
       </c>
       <c r="H57" s="3">
         <v>550800</v>
       </c>
       <c r="I57" s="3">
-        <v>626100</v>
+        <v>626200</v>
       </c>
       <c r="J57" s="3">
         <v>533000</v>
@@ -2180,7 +2180,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>671500</v>
+        <v>671600</v>
       </c>
       <c r="E58" s="3">
         <v>52500</v>
@@ -2189,13 +2189,13 @@
         <v>70700</v>
       </c>
       <c r="G58" s="3">
-        <v>1753400</v>
+        <v>1753500</v>
       </c>
       <c r="H58" s="3">
-        <v>1001700</v>
+        <v>1001800</v>
       </c>
       <c r="I58" s="3">
-        <v>1770200</v>
+        <v>1770300</v>
       </c>
       <c r="J58" s="3">
         <v>444900</v>
@@ -2213,7 +2213,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>271300</v>
+        <v>271400</v>
       </c>
       <c r="E59" s="3">
         <v>185400</v>
@@ -2279,25 +2279,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1202600</v>
+        <v>1202700</v>
       </c>
       <c r="E61" s="3">
-        <v>1614700</v>
+        <v>1614800</v>
       </c>
       <c r="F61" s="3">
-        <v>1660700</v>
+        <v>1660900</v>
       </c>
       <c r="G61" s="3">
-        <v>1828500</v>
+        <v>1828600</v>
       </c>
       <c r="H61" s="3">
-        <v>2945400</v>
+        <v>2945600</v>
       </c>
       <c r="I61" s="3">
-        <v>3359600</v>
+        <v>3359800</v>
       </c>
       <c r="J61" s="3">
-        <v>1923900</v>
+        <v>1924100</v>
       </c>
       <c r="K61" s="3">
         <v>2951900</v>
@@ -2312,7 +2312,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>75300</v>
+        <v>75400</v>
       </c>
       <c r="E62" s="3">
         <v>62300</v>
@@ -2444,25 +2444,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97529800</v>
+        <v>97537400</v>
       </c>
       <c r="E66" s="3">
-        <v>95311100</v>
+        <v>95318500</v>
       </c>
       <c r="F66" s="3">
-        <v>91677200</v>
+        <v>91684300</v>
       </c>
       <c r="G66" s="3">
-        <v>88025100</v>
+        <v>88031900</v>
       </c>
       <c r="H66" s="3">
-        <v>90176600</v>
+        <v>90183600</v>
       </c>
       <c r="I66" s="3">
-        <v>93799000</v>
+        <v>93806200</v>
       </c>
       <c r="J66" s="3">
-        <v>89058900</v>
+        <v>89065800</v>
       </c>
       <c r="K66" s="3">
         <v>81776600</v>
@@ -2624,25 +2624,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6628700</v>
+        <v>6629200</v>
       </c>
       <c r="E72" s="3">
-        <v>6566600</v>
+        <v>6567100</v>
       </c>
       <c r="F72" s="3">
-        <v>6224700</v>
+        <v>6225200</v>
       </c>
       <c r="G72" s="3">
-        <v>5435500</v>
+        <v>5435900</v>
       </c>
       <c r="H72" s="3">
-        <v>5256000</v>
+        <v>5256400</v>
       </c>
       <c r="I72" s="3">
-        <v>4953200</v>
+        <v>4953600</v>
       </c>
       <c r="J72" s="3">
-        <v>6768900</v>
+        <v>6769400</v>
       </c>
       <c r="K72" s="3">
         <v>6013600</v>
@@ -2756,25 +2756,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14098000</v>
+        <v>14099100</v>
       </c>
       <c r="E76" s="3">
-        <v>12994900</v>
+        <v>12995900</v>
       </c>
       <c r="F76" s="3">
-        <v>12692500</v>
+        <v>12693500</v>
       </c>
       <c r="G76" s="3">
-        <v>10766300</v>
+        <v>10767200</v>
       </c>
       <c r="H76" s="3">
-        <v>10635000</v>
+        <v>10635800</v>
       </c>
       <c r="I76" s="3">
-        <v>8886900</v>
+        <v>8887600</v>
       </c>
       <c r="J76" s="3">
-        <v>8216300</v>
+        <v>8216900</v>
       </c>
       <c r="K76" s="3">
         <v>7360700</v>
@@ -2860,25 +2860,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>332800</v>
+        <v>332900</v>
       </c>
       <c r="E81" s="3">
-        <v>747600</v>
+        <v>747900</v>
       </c>
       <c r="F81" s="3">
-        <v>1128300</v>
+        <v>1128600</v>
       </c>
       <c r="G81" s="3">
-        <v>416400</v>
+        <v>416500</v>
       </c>
       <c r="H81" s="3">
-        <v>643800</v>
+        <v>644000</v>
       </c>
       <c r="I81" s="3">
-        <v>816600</v>
+        <v>816900</v>
       </c>
       <c r="J81" s="3">
-        <v>810400</v>
+        <v>810700</v>
       </c>
       <c r="K81" s="3">
         <v>737300</v>
@@ -2914,7 +2914,7 @@
         <v>62800</v>
       </c>
       <c r="F83" s="3">
-        <v>64200</v>
+        <v>64300</v>
       </c>
       <c r="G83" s="3">
         <v>68600</v>
@@ -3106,25 +3106,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>976600</v>
+        <v>976900</v>
       </c>
       <c r="E89" s="3">
-        <v>339900</v>
+        <v>340000</v>
       </c>
       <c r="F89" s="3">
-        <v>1633700</v>
+        <v>1634200</v>
       </c>
       <c r="G89" s="3">
-        <v>-2417700</v>
+        <v>-2418400</v>
       </c>
       <c r="H89" s="3">
-        <v>6624500</v>
+        <v>6626600</v>
       </c>
       <c r="I89" s="3">
-        <v>-4746600</v>
+        <v>-4748000</v>
       </c>
       <c r="J89" s="3">
-        <v>-2351500</v>
+        <v>-2352200</v>
       </c>
       <c r="K89" s="3">
         <v>532200</v>
@@ -3157,7 +3157,7 @@
         <v>-130300</v>
       </c>
       <c r="E91" s="3">
-        <v>-84700</v>
+        <v>-84800</v>
       </c>
       <c r="F91" s="3">
         <v>-52800</v>
@@ -3169,10 +3169,10 @@
         <v>-57500</v>
       </c>
       <c r="I91" s="3">
-        <v>-39300</v>
+        <v>-39400</v>
       </c>
       <c r="J91" s="3">
-        <v>-96700</v>
+        <v>-96800</v>
       </c>
       <c r="K91" s="3">
         <v>-56200</v>
@@ -3259,10 +3259,10 @@
         <v>-81700</v>
       </c>
       <c r="F94" s="3">
-        <v>538500</v>
+        <v>538700</v>
       </c>
       <c r="G94" s="3">
-        <v>233100</v>
+        <v>233200</v>
       </c>
       <c r="H94" s="3">
         <v>-69300</v>
@@ -3304,7 +3304,7 @@
         <v>-106200</v>
       </c>
       <c r="E96" s="3">
-        <v>-107300</v>
+        <v>-107400</v>
       </c>
       <c r="F96" s="3">
         <v>-271700</v>
@@ -3316,7 +3316,7 @@
         <v>-105400</v>
       </c>
       <c r="I96" s="3">
-        <v>-127800</v>
+        <v>-127900</v>
       </c>
       <c r="J96" s="3">
         <v>-96400</v>
@@ -3436,22 +3436,22 @@
         <v>52100</v>
       </c>
       <c r="E100" s="3">
-        <v>-329700</v>
+        <v>-329800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1069100</v>
+        <v>-1069400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1704700</v>
+        <v>-1705300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1045900</v>
+        <v>-1046200</v>
       </c>
       <c r="I100" s="3">
-        <v>2600800</v>
+        <v>2601600</v>
       </c>
       <c r="J100" s="3">
-        <v>1090400</v>
+        <v>1090700</v>
       </c>
       <c r="K100" s="3">
         <v>2031000</v>
@@ -3466,19 +3466,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-78000</v>
+        <v>-78100</v>
       </c>
       <c r="E101" s="3">
-        <v>-439300</v>
+        <v>-439500</v>
       </c>
       <c r="F101" s="3">
-        <v>720700</v>
+        <v>720900</v>
       </c>
       <c r="G101" s="3">
-        <v>-641500</v>
+        <v>-641700</v>
       </c>
       <c r="H101" s="3">
-        <v>-481400</v>
+        <v>-481500</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
@@ -3499,25 +3499,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1111600</v>
+        <v>1112000</v>
       </c>
       <c r="E102" s="3">
-        <v>-510800</v>
+        <v>-511000</v>
       </c>
       <c r="F102" s="3">
-        <v>1823800</v>
+        <v>1824400</v>
       </c>
       <c r="G102" s="3">
-        <v>-4530800</v>
+        <v>-4532200</v>
       </c>
       <c r="H102" s="3">
-        <v>5028000</v>
+        <v>5029600</v>
       </c>
       <c r="I102" s="3">
-        <v>-2324500</v>
+        <v>-2325200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1255200</v>
+        <v>-1255600</v>
       </c>
       <c r="K102" s="3">
         <v>2647500</v>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3678500</v>
+        <v>3678200</v>
       </c>
       <c r="E8" s="3">
-        <v>3302900</v>
+        <v>3302700</v>
       </c>
       <c r="F8" s="3">
-        <v>2790800</v>
+        <v>2790600</v>
       </c>
       <c r="G8" s="3">
-        <v>2627400</v>
+        <v>2627200</v>
       </c>
       <c r="H8" s="3">
-        <v>3042700</v>
+        <v>3042400</v>
       </c>
       <c r="I8" s="3">
-        <v>3284700</v>
+        <v>3284500</v>
       </c>
       <c r="J8" s="3">
-        <v>3236600</v>
+        <v>3236300</v>
       </c>
       <c r="K8" s="3">
         <v>2915200</v>
@@ -978,25 +978,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2743000</v>
+        <v>2742800</v>
       </c>
       <c r="E17" s="3">
-        <v>1780400</v>
+        <v>1780200</v>
       </c>
       <c r="F17" s="3">
-        <v>1488900</v>
+        <v>1488800</v>
       </c>
       <c r="G17" s="3">
-        <v>1642200</v>
+        <v>1642000</v>
       </c>
       <c r="H17" s="3">
-        <v>1765500</v>
+        <v>1765400</v>
       </c>
       <c r="I17" s="3">
-        <v>1777000</v>
+        <v>1776900</v>
       </c>
       <c r="J17" s="3">
-        <v>1725800</v>
+        <v>1725600</v>
       </c>
       <c r="K17" s="3">
         <v>1690200</v>
@@ -1011,25 +1011,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>935500</v>
+        <v>935400</v>
       </c>
       <c r="E18" s="3">
-        <v>1522600</v>
+        <v>1522400</v>
       </c>
       <c r="F18" s="3">
-        <v>1301900</v>
+        <v>1301800</v>
       </c>
       <c r="G18" s="3">
-        <v>985300</v>
+        <v>985200</v>
       </c>
       <c r="H18" s="3">
-        <v>1277100</v>
+        <v>1277000</v>
       </c>
       <c r="I18" s="3">
-        <v>1507700</v>
+        <v>1507600</v>
       </c>
       <c r="J18" s="3">
-        <v>1510800</v>
+        <v>1510700</v>
       </c>
       <c r="K18" s="3">
         <v>1224900</v>
@@ -1062,22 +1062,22 @@
         <v>-522800</v>
       </c>
       <c r="E20" s="3">
-        <v>-482600</v>
+        <v>-482500</v>
       </c>
       <c r="F20" s="3">
         <v>-325800</v>
       </c>
       <c r="G20" s="3">
-        <v>-392800</v>
+        <v>-392700</v>
       </c>
       <c r="H20" s="3">
-        <v>-453300</v>
+        <v>-453200</v>
       </c>
       <c r="I20" s="3">
-        <v>-420800</v>
+        <v>-420700</v>
       </c>
       <c r="J20" s="3">
-        <v>-415900</v>
+        <v>-415800</v>
       </c>
       <c r="K20" s="3">
         <v>-250600</v>
@@ -1092,25 +1092,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>534100</v>
+        <v>534000</v>
       </c>
       <c r="E21" s="3">
-        <v>1102800</v>
+        <v>1102700</v>
       </c>
       <c r="F21" s="3">
-        <v>1040400</v>
+        <v>1040300</v>
       </c>
       <c r="G21" s="3">
         <v>661100</v>
       </c>
       <c r="H21" s="3">
-        <v>895500</v>
+        <v>895400</v>
       </c>
       <c r="I21" s="3">
-        <v>1176800</v>
+        <v>1176700</v>
       </c>
       <c r="J21" s="3">
-        <v>1185500</v>
+        <v>1185400</v>
       </c>
       <c r="K21" s="3">
         <v>1063200</v>
@@ -1161,16 +1161,16 @@
         <v>412600</v>
       </c>
       <c r="E23" s="3">
-        <v>1040000</v>
+        <v>1039900</v>
       </c>
       <c r="F23" s="3">
-        <v>976100</v>
+        <v>976000</v>
       </c>
       <c r="G23" s="3">
         <v>592500</v>
       </c>
       <c r="H23" s="3">
-        <v>823900</v>
+        <v>823800</v>
       </c>
       <c r="I23" s="3">
         <v>1086900</v>
@@ -1203,7 +1203,7 @@
         <v>137700</v>
       </c>
       <c r="H24" s="3">
-        <v>135400</v>
+        <v>135300</v>
       </c>
       <c r="I24" s="3">
         <v>212900</v>
@@ -1260,7 +1260,7 @@
         <v>430400</v>
       </c>
       <c r="E26" s="3">
-        <v>845700</v>
+        <v>845600</v>
       </c>
       <c r="F26" s="3">
         <v>821900</v>
@@ -1275,7 +1275,7 @@
         <v>874000</v>
       </c>
       <c r="J26" s="3">
-        <v>865400</v>
+        <v>865300</v>
       </c>
       <c r="K26" s="3">
         <v>792600</v>
@@ -1293,7 +1293,7 @@
         <v>332900</v>
       </c>
       <c r="E27" s="3">
-        <v>747900</v>
+        <v>747800</v>
       </c>
       <c r="F27" s="3">
         <v>593800</v>
@@ -1305,10 +1305,10 @@
         <v>605000</v>
       </c>
       <c r="I27" s="3">
-        <v>816900</v>
+        <v>816800</v>
       </c>
       <c r="J27" s="3">
-        <v>810700</v>
+        <v>810600</v>
       </c>
       <c r="K27" s="3">
         <v>737300</v>
@@ -1458,22 +1458,22 @@
         <v>522800</v>
       </c>
       <c r="E32" s="3">
-        <v>482600</v>
+        <v>482500</v>
       </c>
       <c r="F32" s="3">
         <v>325800</v>
       </c>
       <c r="G32" s="3">
-        <v>392800</v>
+        <v>392700</v>
       </c>
       <c r="H32" s="3">
-        <v>453300</v>
+        <v>453200</v>
       </c>
       <c r="I32" s="3">
-        <v>420800</v>
+        <v>420700</v>
       </c>
       <c r="J32" s="3">
-        <v>415900</v>
+        <v>415800</v>
       </c>
       <c r="K32" s="3">
         <v>250600</v>
@@ -1491,22 +1491,22 @@
         <v>332900</v>
       </c>
       <c r="E33" s="3">
-        <v>747900</v>
+        <v>747800</v>
       </c>
       <c r="F33" s="3">
-        <v>1128600</v>
+        <v>1128500</v>
       </c>
       <c r="G33" s="3">
         <v>416500</v>
       </c>
       <c r="H33" s="3">
-        <v>644000</v>
+        <v>643900</v>
       </c>
       <c r="I33" s="3">
-        <v>816900</v>
+        <v>816800</v>
       </c>
       <c r="J33" s="3">
-        <v>810700</v>
+        <v>810600</v>
       </c>
       <c r="K33" s="3">
         <v>737300</v>
@@ -1557,22 +1557,22 @@
         <v>332900</v>
       </c>
       <c r="E35" s="3">
-        <v>747900</v>
+        <v>747800</v>
       </c>
       <c r="F35" s="3">
-        <v>1128600</v>
+        <v>1128500</v>
       </c>
       <c r="G35" s="3">
         <v>416500</v>
       </c>
       <c r="H35" s="3">
-        <v>644000</v>
+        <v>643900</v>
       </c>
       <c r="I35" s="3">
-        <v>816900</v>
+        <v>816800</v>
       </c>
       <c r="J35" s="3">
-        <v>810700</v>
+        <v>810600</v>
       </c>
       <c r="K35" s="3">
         <v>737300</v>
@@ -1655,25 +1655,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6648300</v>
+        <v>6647800</v>
       </c>
       <c r="E41" s="3">
-        <v>6207100</v>
+        <v>6206600</v>
       </c>
       <c r="F41" s="3">
-        <v>7828300</v>
+        <v>7827600</v>
       </c>
       <c r="G41" s="3">
-        <v>8468800</v>
+        <v>8468100</v>
       </c>
       <c r="H41" s="3">
-        <v>8922700</v>
+        <v>8922000</v>
       </c>
       <c r="I41" s="3">
-        <v>9085300</v>
+        <v>9084600</v>
       </c>
       <c r="J41" s="3">
-        <v>8874700</v>
+        <v>8874000</v>
       </c>
       <c r="K41" s="3">
         <v>11013100</v>
@@ -1688,25 +1688,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31591800</v>
+        <v>31589400</v>
       </c>
       <c r="E42" s="3">
-        <v>30121000</v>
+        <v>30118700</v>
       </c>
       <c r="F42" s="3">
-        <v>11627000</v>
+        <v>11626100</v>
       </c>
       <c r="G42" s="3">
-        <v>9404600</v>
+        <v>9403900</v>
       </c>
       <c r="H42" s="3">
-        <v>14997900</v>
+        <v>14996800</v>
       </c>
       <c r="I42" s="3">
-        <v>16332500</v>
+        <v>16331200</v>
       </c>
       <c r="J42" s="3">
-        <v>17788800</v>
+        <v>17787500</v>
       </c>
       <c r="K42" s="3">
         <v>14642900</v>
@@ -1853,22 +1853,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1286400</v>
+        <v>1286300</v>
       </c>
       <c r="E47" s="3">
-        <v>1177900</v>
+        <v>1177800</v>
       </c>
       <c r="F47" s="3">
-        <v>1216600</v>
+        <v>1216500</v>
       </c>
       <c r="G47" s="3">
-        <v>775600</v>
+        <v>775500</v>
       </c>
       <c r="H47" s="3">
-        <v>743600</v>
+        <v>743500</v>
       </c>
       <c r="I47" s="3">
-        <v>784900</v>
+        <v>784800</v>
       </c>
       <c r="J47" s="3">
         <v>616600</v>
@@ -1886,25 +1886,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1848700</v>
+        <v>1848600</v>
       </c>
       <c r="E48" s="3">
-        <v>1698700</v>
+        <v>1698500</v>
       </c>
       <c r="F48" s="3">
-        <v>1645100</v>
+        <v>1645000</v>
       </c>
       <c r="G48" s="3">
-        <v>1547100</v>
+        <v>1546900</v>
       </c>
       <c r="H48" s="3">
-        <v>1715700</v>
+        <v>1715600</v>
       </c>
       <c r="I48" s="3">
-        <v>1692500</v>
+        <v>1692400</v>
       </c>
       <c r="J48" s="3">
-        <v>1745800</v>
+        <v>1745600</v>
       </c>
       <c r="K48" s="3">
         <v>1616600</v>
@@ -2027,7 +2027,7 @@
         <v>137800</v>
       </c>
       <c r="G52" s="3">
-        <v>748000</v>
+        <v>747900</v>
       </c>
       <c r="H52" s="3">
         <v>23400</v>
@@ -2084,25 +2084,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>111637000</v>
+        <v>111628000</v>
       </c>
       <c r="E54" s="3">
-        <v>108314000</v>
+        <v>108306000</v>
       </c>
       <c r="F54" s="3">
-        <v>104378000</v>
+        <v>104370000</v>
       </c>
       <c r="G54" s="3">
-        <v>98799000</v>
+        <v>98791400</v>
       </c>
       <c r="H54" s="3">
-        <v>100819000</v>
+        <v>100812000</v>
       </c>
       <c r="I54" s="3">
-        <v>102694000</v>
+        <v>102686000</v>
       </c>
       <c r="J54" s="3">
-        <v>97282700</v>
+        <v>97275100</v>
       </c>
       <c r="K54" s="3">
         <v>89137400</v>
@@ -2147,7 +2147,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>462600</v>
+        <v>462500</v>
       </c>
       <c r="E57" s="3">
         <v>423100</v>
@@ -2156,13 +2156,13 @@
         <v>411200</v>
       </c>
       <c r="G57" s="3">
-        <v>491900</v>
+        <v>491800</v>
       </c>
       <c r="H57" s="3">
         <v>550800</v>
       </c>
       <c r="I57" s="3">
-        <v>626200</v>
+        <v>626100</v>
       </c>
       <c r="J57" s="3">
         <v>533000</v>
@@ -2180,7 +2180,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>671600</v>
+        <v>671500</v>
       </c>
       <c r="E58" s="3">
         <v>52500</v>
@@ -2189,13 +2189,13 @@
         <v>70700</v>
       </c>
       <c r="G58" s="3">
-        <v>1753500</v>
+        <v>1753400</v>
       </c>
       <c r="H58" s="3">
-        <v>1001800</v>
+        <v>1001700</v>
       </c>
       <c r="I58" s="3">
-        <v>1770300</v>
+        <v>1770200</v>
       </c>
       <c r="J58" s="3">
         <v>444900</v>
@@ -2213,7 +2213,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>271400</v>
+        <v>271300</v>
       </c>
       <c r="E59" s="3">
         <v>185400</v>
@@ -2279,25 +2279,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1202700</v>
+        <v>1202600</v>
       </c>
       <c r="E61" s="3">
-        <v>1614800</v>
+        <v>1614700</v>
       </c>
       <c r="F61" s="3">
-        <v>1660900</v>
+        <v>1660700</v>
       </c>
       <c r="G61" s="3">
-        <v>1828600</v>
+        <v>1828500</v>
       </c>
       <c r="H61" s="3">
-        <v>2945600</v>
+        <v>2945400</v>
       </c>
       <c r="I61" s="3">
-        <v>3359800</v>
+        <v>3359600</v>
       </c>
       <c r="J61" s="3">
-        <v>1924100</v>
+        <v>1923900</v>
       </c>
       <c r="K61" s="3">
         <v>2951900</v>
@@ -2312,7 +2312,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>75400</v>
+        <v>75300</v>
       </c>
       <c r="E62" s="3">
         <v>62300</v>
@@ -2444,25 +2444,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97537400</v>
+        <v>97529800</v>
       </c>
       <c r="E66" s="3">
-        <v>95318500</v>
+        <v>95311100</v>
       </c>
       <c r="F66" s="3">
-        <v>91684300</v>
+        <v>91677200</v>
       </c>
       <c r="G66" s="3">
-        <v>88031900</v>
+        <v>88025100</v>
       </c>
       <c r="H66" s="3">
-        <v>90183600</v>
+        <v>90176600</v>
       </c>
       <c r="I66" s="3">
-        <v>93806200</v>
+        <v>93799000</v>
       </c>
       <c r="J66" s="3">
-        <v>89065800</v>
+        <v>89058900</v>
       </c>
       <c r="K66" s="3">
         <v>81776600</v>
@@ -2624,25 +2624,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6629200</v>
+        <v>6628700</v>
       </c>
       <c r="E72" s="3">
-        <v>6567100</v>
+        <v>6566600</v>
       </c>
       <c r="F72" s="3">
-        <v>6225200</v>
+        <v>6224700</v>
       </c>
       <c r="G72" s="3">
-        <v>5435900</v>
+        <v>5435500</v>
       </c>
       <c r="H72" s="3">
-        <v>5256400</v>
+        <v>5256000</v>
       </c>
       <c r="I72" s="3">
-        <v>4953600</v>
+        <v>4953200</v>
       </c>
       <c r="J72" s="3">
-        <v>6769400</v>
+        <v>6768900</v>
       </c>
       <c r="K72" s="3">
         <v>6013600</v>
@@ -2756,25 +2756,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14099100</v>
+        <v>14098000</v>
       </c>
       <c r="E76" s="3">
-        <v>12995900</v>
+        <v>12994900</v>
       </c>
       <c r="F76" s="3">
-        <v>12693500</v>
+        <v>12692500</v>
       </c>
       <c r="G76" s="3">
-        <v>10767200</v>
+        <v>10766300</v>
       </c>
       <c r="H76" s="3">
-        <v>10635800</v>
+        <v>10635000</v>
       </c>
       <c r="I76" s="3">
-        <v>8887600</v>
+        <v>8886900</v>
       </c>
       <c r="J76" s="3">
-        <v>8216900</v>
+        <v>8216300</v>
       </c>
       <c r="K76" s="3">
         <v>7360700</v>
@@ -2863,22 +2863,22 @@
         <v>332900</v>
       </c>
       <c r="E81" s="3">
-        <v>747900</v>
+        <v>747800</v>
       </c>
       <c r="F81" s="3">
-        <v>1128600</v>
+        <v>1128500</v>
       </c>
       <c r="G81" s="3">
         <v>416500</v>
       </c>
       <c r="H81" s="3">
-        <v>644000</v>
+        <v>643900</v>
       </c>
       <c r="I81" s="3">
-        <v>816900</v>
+        <v>816800</v>
       </c>
       <c r="J81" s="3">
-        <v>810700</v>
+        <v>810600</v>
       </c>
       <c r="K81" s="3">
         <v>737300</v>
@@ -3106,25 +3106,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>976900</v>
+        <v>976800</v>
       </c>
       <c r="E89" s="3">
         <v>340000</v>
       </c>
       <c r="F89" s="3">
-        <v>1634200</v>
+        <v>1634000</v>
       </c>
       <c r="G89" s="3">
-        <v>-2418400</v>
+        <v>-2418200</v>
       </c>
       <c r="H89" s="3">
-        <v>6626600</v>
+        <v>6626100</v>
       </c>
       <c r="I89" s="3">
-        <v>-4748000</v>
+        <v>-4747700</v>
       </c>
       <c r="J89" s="3">
-        <v>-2352200</v>
+        <v>-2352000</v>
       </c>
       <c r="K89" s="3">
         <v>532200</v>
@@ -3262,7 +3262,7 @@
         <v>538700</v>
       </c>
       <c r="G94" s="3">
-        <v>233200</v>
+        <v>233100</v>
       </c>
       <c r="H94" s="3">
         <v>-69300</v>
@@ -3304,7 +3304,7 @@
         <v>-106200</v>
       </c>
       <c r="E96" s="3">
-        <v>-107400</v>
+        <v>-107300</v>
       </c>
       <c r="F96" s="3">
         <v>-271700</v>
@@ -3439,19 +3439,19 @@
         <v>-329800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1069400</v>
+        <v>-1069300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1705300</v>
+        <v>-1705100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1046200</v>
+        <v>-1046100</v>
       </c>
       <c r="I100" s="3">
-        <v>2601600</v>
+        <v>2601400</v>
       </c>
       <c r="J100" s="3">
-        <v>1090700</v>
+        <v>1090600</v>
       </c>
       <c r="K100" s="3">
         <v>2031000</v>
@@ -3469,13 +3469,13 @@
         <v>-78100</v>
       </c>
       <c r="E101" s="3">
-        <v>-439500</v>
+        <v>-439400</v>
       </c>
       <c r="F101" s="3">
-        <v>720900</v>
+        <v>720800</v>
       </c>
       <c r="G101" s="3">
-        <v>-641700</v>
+        <v>-641600</v>
       </c>
       <c r="H101" s="3">
         <v>-481500</v>
@@ -3499,25 +3499,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1112000</v>
+        <v>1111900</v>
       </c>
       <c r="E102" s="3">
-        <v>-511000</v>
+        <v>-510900</v>
       </c>
       <c r="F102" s="3">
-        <v>1824400</v>
+        <v>1824200</v>
       </c>
       <c r="G102" s="3">
-        <v>-4532200</v>
+        <v>-4531800</v>
       </c>
       <c r="H102" s="3">
-        <v>5029600</v>
+        <v>5029200</v>
       </c>
       <c r="I102" s="3">
-        <v>-2325200</v>
+        <v>-2325100</v>
       </c>
       <c r="J102" s="3">
-        <v>-1255600</v>
+        <v>-1255500</v>
       </c>
       <c r="K102" s="3">
         <v>2647500</v>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>BKEAY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3678200</v>
+        <v>3670000</v>
       </c>
       <c r="E8" s="3">
-        <v>3302700</v>
+        <v>3295200</v>
       </c>
       <c r="F8" s="3">
-        <v>2790600</v>
+        <v>2784300</v>
       </c>
       <c r="G8" s="3">
-        <v>2627200</v>
+        <v>2621300</v>
       </c>
       <c r="H8" s="3">
-        <v>3042400</v>
+        <v>3035600</v>
       </c>
       <c r="I8" s="3">
-        <v>3284500</v>
+        <v>3277100</v>
       </c>
       <c r="J8" s="3">
-        <v>3236300</v>
+        <v>3229100</v>
       </c>
       <c r="K8" s="3">
         <v>2915200</v>
@@ -933,25 +933,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-121400</v>
+        <v>-121100</v>
       </c>
       <c r="E15" s="3">
-        <v>-62800</v>
+        <v>-62700</v>
       </c>
       <c r="F15" s="3">
-        <v>-64300</v>
+        <v>-64100</v>
       </c>
       <c r="G15" s="3">
-        <v>-64500</v>
+        <v>-64400</v>
       </c>
       <c r="H15" s="3">
-        <v>-68000</v>
+        <v>-67800</v>
       </c>
       <c r="I15" s="3">
-        <v>-89800</v>
+        <v>-89600</v>
       </c>
       <c r="J15" s="3">
-        <v>-90600</v>
+        <v>-90400</v>
       </c>
       <c r="K15" s="3">
         <v>-88900</v>
@@ -978,25 +978,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2742800</v>
+        <v>2736700</v>
       </c>
       <c r="E17" s="3">
-        <v>1780200</v>
+        <v>1776200</v>
       </c>
       <c r="F17" s="3">
-        <v>1488800</v>
+        <v>1485400</v>
       </c>
       <c r="G17" s="3">
-        <v>1642000</v>
+        <v>1638300</v>
       </c>
       <c r="H17" s="3">
-        <v>1765400</v>
+        <v>1761400</v>
       </c>
       <c r="I17" s="3">
-        <v>1776900</v>
+        <v>1772900</v>
       </c>
       <c r="J17" s="3">
-        <v>1725600</v>
+        <v>1721800</v>
       </c>
       <c r="K17" s="3">
         <v>1690200</v>
@@ -1011,25 +1011,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>935400</v>
+        <v>933300</v>
       </c>
       <c r="E18" s="3">
-        <v>1522400</v>
+        <v>1519000</v>
       </c>
       <c r="F18" s="3">
-        <v>1301800</v>
+        <v>1298900</v>
       </c>
       <c r="G18" s="3">
-        <v>985200</v>
+        <v>983000</v>
       </c>
       <c r="H18" s="3">
-        <v>1277000</v>
+        <v>1274200</v>
       </c>
       <c r="I18" s="3">
-        <v>1507600</v>
+        <v>1504200</v>
       </c>
       <c r="J18" s="3">
-        <v>1510700</v>
+        <v>1507300</v>
       </c>
       <c r="K18" s="3">
         <v>1224900</v>
@@ -1059,25 +1059,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-522800</v>
+        <v>-521600</v>
       </c>
       <c r="E20" s="3">
-        <v>-482500</v>
+        <v>-481500</v>
       </c>
       <c r="F20" s="3">
-        <v>-325800</v>
+        <v>-325000</v>
       </c>
       <c r="G20" s="3">
-        <v>-392700</v>
+        <v>-391900</v>
       </c>
       <c r="H20" s="3">
-        <v>-453200</v>
+        <v>-452200</v>
       </c>
       <c r="I20" s="3">
-        <v>-420700</v>
+        <v>-419800</v>
       </c>
       <c r="J20" s="3">
-        <v>-415800</v>
+        <v>-414900</v>
       </c>
       <c r="K20" s="3">
         <v>-250600</v>
@@ -1092,25 +1092,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>534000</v>
+        <v>532800</v>
       </c>
       <c r="E21" s="3">
-        <v>1102700</v>
+        <v>1100300</v>
       </c>
       <c r="F21" s="3">
-        <v>1040300</v>
+        <v>1037900</v>
       </c>
       <c r="G21" s="3">
-        <v>661100</v>
+        <v>659600</v>
       </c>
       <c r="H21" s="3">
-        <v>895400</v>
+        <v>893400</v>
       </c>
       <c r="I21" s="3">
-        <v>1176700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1185400</v>
+        <v>1174000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3">
         <v>1063200</v>
@@ -1158,25 +1158,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>412600</v>
+        <v>411700</v>
       </c>
       <c r="E23" s="3">
-        <v>1039900</v>
+        <v>1037600</v>
       </c>
       <c r="F23" s="3">
-        <v>976000</v>
+        <v>973800</v>
       </c>
       <c r="G23" s="3">
-        <v>592500</v>
+        <v>591100</v>
       </c>
       <c r="H23" s="3">
-        <v>823800</v>
+        <v>821900</v>
       </c>
       <c r="I23" s="3">
-        <v>1086900</v>
+        <v>1084400</v>
       </c>
       <c r="J23" s="3">
-        <v>1094900</v>
+        <v>1092400</v>
       </c>
       <c r="K23" s="3">
         <v>974300</v>
@@ -1194,22 +1194,22 @@
         <v>-17800</v>
       </c>
       <c r="E24" s="3">
-        <v>194300</v>
+        <v>193900</v>
       </c>
       <c r="F24" s="3">
-        <v>154200</v>
+        <v>153800</v>
       </c>
       <c r="G24" s="3">
-        <v>137700</v>
+        <v>137400</v>
       </c>
       <c r="H24" s="3">
-        <v>135300</v>
+        <v>135000</v>
       </c>
       <c r="I24" s="3">
-        <v>212900</v>
+        <v>212400</v>
       </c>
       <c r="J24" s="3">
-        <v>229500</v>
+        <v>229000</v>
       </c>
       <c r="K24" s="3">
         <v>181700</v>
@@ -1257,25 +1257,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>430400</v>
+        <v>429400</v>
       </c>
       <c r="E26" s="3">
-        <v>845600</v>
+        <v>843700</v>
       </c>
       <c r="F26" s="3">
-        <v>821900</v>
+        <v>820000</v>
       </c>
       <c r="G26" s="3">
-        <v>454800</v>
+        <v>453800</v>
       </c>
       <c r="H26" s="3">
-        <v>688500</v>
+        <v>686900</v>
       </c>
       <c r="I26" s="3">
-        <v>874000</v>
+        <v>872000</v>
       </c>
       <c r="J26" s="3">
-        <v>865300</v>
+        <v>863400</v>
       </c>
       <c r="K26" s="3">
         <v>792600</v>
@@ -1290,25 +1290,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>332900</v>
+        <v>332100</v>
       </c>
       <c r="E27" s="3">
-        <v>747800</v>
+        <v>746100</v>
       </c>
       <c r="F27" s="3">
-        <v>593800</v>
+        <v>592400</v>
       </c>
       <c r="G27" s="3">
-        <v>377300</v>
+        <v>376400</v>
       </c>
       <c r="H27" s="3">
-        <v>605000</v>
+        <v>603600</v>
       </c>
       <c r="I27" s="3">
-        <v>816800</v>
+        <v>815000</v>
       </c>
       <c r="J27" s="3">
-        <v>810600</v>
+        <v>808800</v>
       </c>
       <c r="K27" s="3">
         <v>737300</v>
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>534800</v>
+        <v>533600</v>
       </c>
       <c r="G29" s="3">
-        <v>39200</v>
+        <v>39100</v>
       </c>
       <c r="H29" s="3">
-        <v>39000</v>
+        <v>38900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1455,25 +1455,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>522800</v>
+        <v>521600</v>
       </c>
       <c r="E32" s="3">
-        <v>482500</v>
+        <v>481500</v>
       </c>
       <c r="F32" s="3">
-        <v>325800</v>
+        <v>325000</v>
       </c>
       <c r="G32" s="3">
-        <v>392700</v>
+        <v>391900</v>
       </c>
       <c r="H32" s="3">
-        <v>453200</v>
+        <v>452200</v>
       </c>
       <c r="I32" s="3">
-        <v>420700</v>
+        <v>419800</v>
       </c>
       <c r="J32" s="3">
-        <v>415800</v>
+        <v>414900</v>
       </c>
       <c r="K32" s="3">
         <v>250600</v>
@@ -1488,25 +1488,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>332900</v>
+        <v>332100</v>
       </c>
       <c r="E33" s="3">
-        <v>747800</v>
+        <v>746100</v>
       </c>
       <c r="F33" s="3">
-        <v>1128500</v>
+        <v>1126000</v>
       </c>
       <c r="G33" s="3">
-        <v>416500</v>
+        <v>415500</v>
       </c>
       <c r="H33" s="3">
-        <v>643900</v>
+        <v>642500</v>
       </c>
       <c r="I33" s="3">
-        <v>816800</v>
+        <v>815000</v>
       </c>
       <c r="J33" s="3">
-        <v>810600</v>
+        <v>808800</v>
       </c>
       <c r="K33" s="3">
         <v>737300</v>
@@ -1554,25 +1554,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>332900</v>
+        <v>332100</v>
       </c>
       <c r="E35" s="3">
-        <v>747800</v>
+        <v>746100</v>
       </c>
       <c r="F35" s="3">
-        <v>1128500</v>
+        <v>1126000</v>
       </c>
       <c r="G35" s="3">
-        <v>416500</v>
+        <v>415500</v>
       </c>
       <c r="H35" s="3">
-        <v>643900</v>
+        <v>642500</v>
       </c>
       <c r="I35" s="3">
-        <v>816800</v>
+        <v>815000</v>
       </c>
       <c r="J35" s="3">
-        <v>810600</v>
+        <v>808800</v>
       </c>
       <c r="K35" s="3">
         <v>737300</v>
@@ -1655,25 +1655,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6647800</v>
+        <v>6632800</v>
       </c>
       <c r="E41" s="3">
-        <v>6206600</v>
+        <v>6192700</v>
       </c>
       <c r="F41" s="3">
-        <v>7827600</v>
+        <v>7810000</v>
       </c>
       <c r="G41" s="3">
-        <v>8468100</v>
+        <v>8449100</v>
       </c>
       <c r="H41" s="3">
-        <v>8922000</v>
+        <v>8901900</v>
       </c>
       <c r="I41" s="3">
-        <v>9084600</v>
+        <v>9064100</v>
       </c>
       <c r="J41" s="3">
-        <v>8874000</v>
+        <v>8854000</v>
       </c>
       <c r="K41" s="3">
         <v>11013100</v>
@@ -1688,25 +1688,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31589400</v>
+        <v>31518400</v>
       </c>
       <c r="E42" s="3">
-        <v>30118700</v>
+        <v>30051000</v>
       </c>
       <c r="F42" s="3">
-        <v>11626100</v>
+        <v>11600000</v>
       </c>
       <c r="G42" s="3">
-        <v>9403900</v>
+        <v>9382700</v>
       </c>
       <c r="H42" s="3">
-        <v>14996800</v>
+        <v>14963100</v>
       </c>
       <c r="I42" s="3">
-        <v>16331200</v>
+        <v>16294500</v>
       </c>
       <c r="J42" s="3">
-        <v>17787500</v>
+        <v>17747500</v>
       </c>
       <c r="K42" s="3">
         <v>14642900</v>
@@ -1853,25 +1853,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1286300</v>
+        <v>1283400</v>
       </c>
       <c r="E47" s="3">
-        <v>1177800</v>
+        <v>1175200</v>
       </c>
       <c r="F47" s="3">
-        <v>1216500</v>
+        <v>1213800</v>
       </c>
       <c r="G47" s="3">
-        <v>775500</v>
+        <v>773800</v>
       </c>
       <c r="H47" s="3">
-        <v>743500</v>
+        <v>741900</v>
       </c>
       <c r="I47" s="3">
-        <v>784800</v>
+        <v>783100</v>
       </c>
       <c r="J47" s="3">
-        <v>616600</v>
+        <v>615200</v>
       </c>
       <c r="K47" s="3">
         <v>602400</v>
@@ -1886,25 +1886,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1848600</v>
+        <v>1844400</v>
       </c>
       <c r="E48" s="3">
-        <v>1698500</v>
+        <v>1694700</v>
       </c>
       <c r="F48" s="3">
-        <v>1645000</v>
+        <v>1641300</v>
       </c>
       <c r="G48" s="3">
-        <v>1546900</v>
+        <v>1543500</v>
       </c>
       <c r="H48" s="3">
-        <v>1715600</v>
+        <v>1711700</v>
       </c>
       <c r="I48" s="3">
-        <v>1692400</v>
+        <v>1688600</v>
       </c>
       <c r="J48" s="3">
-        <v>1745600</v>
+        <v>1741700</v>
       </c>
       <c r="K48" s="3">
         <v>1616600</v>
@@ -1919,25 +1919,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>248500</v>
+        <v>247900</v>
       </c>
       <c r="E49" s="3">
-        <v>250300</v>
+        <v>249700</v>
       </c>
       <c r="F49" s="3">
-        <v>252800</v>
+        <v>252200</v>
       </c>
       <c r="G49" s="3">
-        <v>340500</v>
+        <v>339700</v>
       </c>
       <c r="H49" s="3">
-        <v>501000</v>
+        <v>499900</v>
       </c>
       <c r="I49" s="3">
-        <v>510300</v>
+        <v>509100</v>
       </c>
       <c r="J49" s="3">
-        <v>514800</v>
+        <v>513600</v>
       </c>
       <c r="K49" s="3">
         <v>520400</v>
@@ -2018,25 +2018,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>206700</v>
+        <v>206200</v>
       </c>
       <c r="E52" s="3">
-        <v>150800</v>
+        <v>150500</v>
       </c>
       <c r="F52" s="3">
-        <v>137800</v>
+        <v>137500</v>
       </c>
       <c r="G52" s="3">
-        <v>747900</v>
+        <v>746200</v>
       </c>
       <c r="H52" s="3">
-        <v>23400</v>
+        <v>23300</v>
       </c>
       <c r="I52" s="3">
         <v>12400</v>
       </c>
       <c r="J52" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="K52" s="3">
         <v>18400</v>
@@ -2084,25 +2084,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>111628000</v>
+        <v>111377000</v>
       </c>
       <c r="E54" s="3">
-        <v>108306000</v>
+        <v>108063000</v>
       </c>
       <c r="F54" s="3">
-        <v>104370000</v>
+        <v>104135000</v>
       </c>
       <c r="G54" s="3">
-        <v>98791400</v>
+        <v>98569300</v>
       </c>
       <c r="H54" s="3">
-        <v>100812000</v>
+        <v>100585000</v>
       </c>
       <c r="I54" s="3">
-        <v>102686000</v>
+        <v>102455000</v>
       </c>
       <c r="J54" s="3">
-        <v>97275100</v>
+        <v>97056500</v>
       </c>
       <c r="K54" s="3">
         <v>89137400</v>
@@ -2147,25 +2147,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>462500</v>
+        <v>461500</v>
       </c>
       <c r="E57" s="3">
-        <v>423100</v>
+        <v>422100</v>
       </c>
       <c r="F57" s="3">
-        <v>411200</v>
+        <v>410300</v>
       </c>
       <c r="G57" s="3">
-        <v>491800</v>
+        <v>490700</v>
       </c>
       <c r="H57" s="3">
-        <v>550800</v>
+        <v>549500</v>
       </c>
       <c r="I57" s="3">
-        <v>626100</v>
+        <v>624700</v>
       </c>
       <c r="J57" s="3">
-        <v>533000</v>
+        <v>531800</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
@@ -2180,25 +2180,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>671500</v>
+        <v>670000</v>
       </c>
       <c r="E58" s="3">
-        <v>52500</v>
+        <v>52400</v>
       </c>
       <c r="F58" s="3">
-        <v>70700</v>
+        <v>70500</v>
       </c>
       <c r="G58" s="3">
-        <v>1753400</v>
+        <v>1749400</v>
       </c>
       <c r="H58" s="3">
-        <v>1001700</v>
+        <v>999500</v>
       </c>
       <c r="I58" s="3">
-        <v>1770200</v>
+        <v>1766200</v>
       </c>
       <c r="J58" s="3">
-        <v>444900</v>
+        <v>443900</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2213,25 +2213,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>271300</v>
+        <v>270700</v>
       </c>
       <c r="E59" s="3">
-        <v>185400</v>
+        <v>185000</v>
       </c>
       <c r="F59" s="3">
-        <v>149700</v>
+        <v>149300</v>
       </c>
       <c r="G59" s="3">
-        <v>207100</v>
+        <v>206600</v>
       </c>
       <c r="H59" s="3">
-        <v>171000</v>
+        <v>170600</v>
       </c>
       <c r="I59" s="3">
-        <v>151200</v>
+        <v>150900</v>
       </c>
       <c r="J59" s="3">
-        <v>174600</v>
+        <v>174200</v>
       </c>
       <c r="K59" s="3">
         <v>127200</v>
@@ -2279,25 +2279,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1202600</v>
+        <v>1199900</v>
       </c>
       <c r="E61" s="3">
-        <v>1614700</v>
+        <v>1611100</v>
       </c>
       <c r="F61" s="3">
-        <v>1660700</v>
+        <v>1657000</v>
       </c>
       <c r="G61" s="3">
-        <v>1828500</v>
+        <v>1824400</v>
       </c>
       <c r="H61" s="3">
-        <v>2945400</v>
+        <v>2938800</v>
       </c>
       <c r="I61" s="3">
-        <v>3359600</v>
+        <v>3352000</v>
       </c>
       <c r="J61" s="3">
-        <v>1923900</v>
+        <v>1919600</v>
       </c>
       <c r="K61" s="3">
         <v>2951900</v>
@@ -2312,25 +2312,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>75300</v>
+        <v>75200</v>
       </c>
       <c r="E62" s="3">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="F62" s="3">
-        <v>71100</v>
+        <v>70900</v>
       </c>
       <c r="G62" s="3">
-        <v>59600</v>
+        <v>59500</v>
       </c>
       <c r="H62" s="3">
-        <v>68900</v>
+        <v>68700</v>
       </c>
       <c r="I62" s="3">
-        <v>88500</v>
+        <v>88300</v>
       </c>
       <c r="J62" s="3">
-        <v>83500</v>
+        <v>83300</v>
       </c>
       <c r="K62" s="3">
         <v>80600</v>
@@ -2444,25 +2444,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97529800</v>
+        <v>97310600</v>
       </c>
       <c r="E66" s="3">
-        <v>95311100</v>
+        <v>95096800</v>
       </c>
       <c r="F66" s="3">
-        <v>91677200</v>
+        <v>91471200</v>
       </c>
       <c r="G66" s="3">
-        <v>88025100</v>
+        <v>87827200</v>
       </c>
       <c r="H66" s="3">
-        <v>90176600</v>
+        <v>89973900</v>
       </c>
       <c r="I66" s="3">
-        <v>93799000</v>
+        <v>93588100</v>
       </c>
       <c r="J66" s="3">
-        <v>89058900</v>
+        <v>88858700</v>
       </c>
       <c r="K66" s="3">
         <v>81776600</v>
@@ -2624,25 +2624,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6628700</v>
+        <v>6613800</v>
       </c>
       <c r="E72" s="3">
-        <v>6566600</v>
+        <v>6551800</v>
       </c>
       <c r="F72" s="3">
-        <v>6224700</v>
+        <v>6210700</v>
       </c>
       <c r="G72" s="3">
-        <v>5435500</v>
+        <v>5423300</v>
       </c>
       <c r="H72" s="3">
-        <v>5256000</v>
+        <v>5244200</v>
       </c>
       <c r="I72" s="3">
-        <v>4953200</v>
+        <v>4942100</v>
       </c>
       <c r="J72" s="3">
-        <v>6768900</v>
+        <v>6753700</v>
       </c>
       <c r="K72" s="3">
         <v>6013600</v>
@@ -2756,25 +2756,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14098000</v>
+        <v>14066300</v>
       </c>
       <c r="E76" s="3">
-        <v>12994900</v>
+        <v>12965700</v>
       </c>
       <c r="F76" s="3">
-        <v>12692500</v>
+        <v>12663900</v>
       </c>
       <c r="G76" s="3">
-        <v>10766300</v>
+        <v>10742100</v>
       </c>
       <c r="H76" s="3">
-        <v>10635000</v>
+        <v>10611100</v>
       </c>
       <c r="I76" s="3">
-        <v>8886900</v>
+        <v>8866900</v>
       </c>
       <c r="J76" s="3">
-        <v>8216300</v>
+        <v>8197800</v>
       </c>
       <c r="K76" s="3">
         <v>7360700</v>
@@ -2860,25 +2860,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>332900</v>
+        <v>332100</v>
       </c>
       <c r="E81" s="3">
-        <v>747800</v>
+        <v>746100</v>
       </c>
       <c r="F81" s="3">
-        <v>1128500</v>
+        <v>1126000</v>
       </c>
       <c r="G81" s="3">
-        <v>416500</v>
+        <v>415500</v>
       </c>
       <c r="H81" s="3">
-        <v>643900</v>
+        <v>642500</v>
       </c>
       <c r="I81" s="3">
-        <v>816800</v>
+        <v>815000</v>
       </c>
       <c r="J81" s="3">
-        <v>810600</v>
+        <v>808800</v>
       </c>
       <c r="K81" s="3">
         <v>737300</v>
@@ -2908,25 +2908,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>121400</v>
+        <v>121100</v>
       </c>
       <c r="E83" s="3">
-        <v>62800</v>
+        <v>62700</v>
       </c>
       <c r="F83" s="3">
-        <v>64300</v>
+        <v>64100</v>
       </c>
       <c r="G83" s="3">
-        <v>68600</v>
+        <v>68500</v>
       </c>
       <c r="H83" s="3">
-        <v>71600</v>
+        <v>71400</v>
       </c>
       <c r="I83" s="3">
-        <v>89800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>90600</v>
+        <v>89600</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>88900</v>
@@ -3106,25 +3106,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>976800</v>
+        <v>974600</v>
       </c>
       <c r="E89" s="3">
-        <v>340000</v>
+        <v>339200</v>
       </c>
       <c r="F89" s="3">
-        <v>1634000</v>
+        <v>1630400</v>
       </c>
       <c r="G89" s="3">
-        <v>-2418200</v>
+        <v>-2412800</v>
       </c>
       <c r="H89" s="3">
-        <v>6626100</v>
+        <v>6611200</v>
       </c>
       <c r="I89" s="3">
-        <v>-4747700</v>
+        <v>-4737000</v>
       </c>
       <c r="J89" s="3">
-        <v>-2352000</v>
+        <v>-2346700</v>
       </c>
       <c r="K89" s="3">
         <v>532200</v>
@@ -3154,25 +3154,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-130300</v>
+        <v>-130000</v>
       </c>
       <c r="E91" s="3">
-        <v>-84800</v>
+        <v>-84600</v>
       </c>
       <c r="F91" s="3">
-        <v>-52800</v>
+        <v>-52700</v>
       </c>
       <c r="G91" s="3">
-        <v>-57800</v>
+        <v>-57700</v>
       </c>
       <c r="H91" s="3">
-        <v>-57500</v>
+        <v>-57400</v>
       </c>
       <c r="I91" s="3">
-        <v>-39400</v>
+        <v>-39300</v>
       </c>
       <c r="J91" s="3">
-        <v>-96800</v>
+        <v>-96500</v>
       </c>
       <c r="K91" s="3">
         <v>-56200</v>
@@ -3253,25 +3253,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>161000</v>
+        <v>160700</v>
       </c>
       <c r="E94" s="3">
-        <v>-81700</v>
+        <v>-81500</v>
       </c>
       <c r="F94" s="3">
-        <v>538700</v>
+        <v>537400</v>
       </c>
       <c r="G94" s="3">
-        <v>233100</v>
+        <v>232600</v>
       </c>
       <c r="H94" s="3">
-        <v>-69300</v>
+        <v>-69100</v>
       </c>
       <c r="I94" s="3">
-        <v>-178800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>5900</v>
+        <v>-178400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>84400</v>
@@ -3301,25 +3301,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-106200</v>
+        <v>-105900</v>
       </c>
       <c r="E96" s="3">
-        <v>-107300</v>
+        <v>-107100</v>
       </c>
       <c r="F96" s="3">
-        <v>-271700</v>
+        <v>-271100</v>
       </c>
       <c r="G96" s="3">
-        <v>-60400</v>
+        <v>-60200</v>
       </c>
       <c r="H96" s="3">
-        <v>-105400</v>
+        <v>-105200</v>
       </c>
       <c r="I96" s="3">
-        <v>-127900</v>
+        <v>-127600</v>
       </c>
       <c r="J96" s="3">
-        <v>-96400</v>
+        <v>-96200</v>
       </c>
       <c r="K96" s="3">
         <v>-120000</v>
@@ -3433,25 +3433,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>52100</v>
+        <v>52000</v>
       </c>
       <c r="E100" s="3">
-        <v>-329800</v>
+        <v>-329000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1069300</v>
+        <v>-1066900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1705100</v>
+        <v>-1701300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1046100</v>
+        <v>-1043700</v>
       </c>
       <c r="I100" s="3">
-        <v>2601400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>1090600</v>
+        <v>2595600</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>2031000</v>
@@ -3466,19 +3466,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-78100</v>
+        <v>-77900</v>
       </c>
       <c r="E101" s="3">
-        <v>-439400</v>
+        <v>-438500</v>
       </c>
       <c r="F101" s="3">
-        <v>720800</v>
+        <v>719200</v>
       </c>
       <c r="G101" s="3">
-        <v>-641600</v>
+        <v>-640200</v>
       </c>
       <c r="H101" s="3">
-        <v>-481500</v>
+        <v>-480400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
@@ -3499,25 +3499,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1111900</v>
+        <v>1109400</v>
       </c>
       <c r="E102" s="3">
-        <v>-510900</v>
+        <v>-509800</v>
       </c>
       <c r="F102" s="3">
-        <v>1824200</v>
+        <v>1820100</v>
       </c>
       <c r="G102" s="3">
-        <v>-4531800</v>
+        <v>-4521600</v>
       </c>
       <c r="H102" s="3">
-        <v>5029200</v>
+        <v>5017900</v>
       </c>
       <c r="I102" s="3">
-        <v>-2325100</v>
+        <v>-2319800</v>
       </c>
       <c r="J102" s="3">
-        <v>-1255500</v>
+        <v>-1252700</v>
       </c>
       <c r="K102" s="3">
         <v>2647500</v>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>BKEAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,96 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3670000</v>
+        <v>2719200</v>
       </c>
       <c r="E8" s="3">
-        <v>3295200</v>
+        <v>3681300</v>
       </c>
       <c r="F8" s="3">
-        <v>2784300</v>
+        <v>3297800</v>
       </c>
       <c r="G8" s="3">
-        <v>2621300</v>
+        <v>2786500</v>
       </c>
       <c r="H8" s="3">
-        <v>3035600</v>
+        <v>2623400</v>
       </c>
       <c r="I8" s="3">
-        <v>3277100</v>
+        <v>3037900</v>
       </c>
       <c r="J8" s="3">
+        <v>3279600</v>
+      </c>
+      <c r="K8" s="3">
         <v>3229100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2915200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2671100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,9 +785,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,9 +821,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,8 +840,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,9 +873,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,9 +909,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -926,42 +945,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-121100</v>
+        <v>-128200</v>
       </c>
       <c r="E15" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="F15" s="3">
         <v>-62700</v>
       </c>
-      <c r="F15" s="3">
-        <v>-64100</v>
-      </c>
       <c r="G15" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="H15" s="3">
         <v>-64400</v>
       </c>
-      <c r="H15" s="3">
-        <v>-67800</v>
-      </c>
       <c r="I15" s="3">
-        <v>-89600</v>
+        <v>-67900</v>
       </c>
       <c r="J15" s="3">
+        <v>-89700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-90400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-88900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-85600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2736700</v>
+        <v>1841100</v>
       </c>
       <c r="E17" s="3">
-        <v>1776200</v>
+        <v>2738800</v>
       </c>
       <c r="F17" s="3">
-        <v>1485400</v>
+        <v>1777600</v>
       </c>
       <c r="G17" s="3">
-        <v>1638300</v>
+        <v>1486600</v>
       </c>
       <c r="H17" s="3">
-        <v>1761400</v>
+        <v>1639600</v>
       </c>
       <c r="I17" s="3">
-        <v>1772900</v>
+        <v>1762800</v>
       </c>
       <c r="J17" s="3">
+        <v>1774200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1721800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1690200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1495000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>933300</v>
+        <v>878100</v>
       </c>
       <c r="E18" s="3">
-        <v>1519000</v>
+        <v>942500</v>
       </c>
       <c r="F18" s="3">
-        <v>1298900</v>
+        <v>1520200</v>
       </c>
       <c r="G18" s="3">
-        <v>983000</v>
+        <v>1299900</v>
       </c>
       <c r="H18" s="3">
-        <v>1274200</v>
+        <v>983700</v>
       </c>
       <c r="I18" s="3">
-        <v>1504200</v>
+        <v>1275200</v>
       </c>
       <c r="J18" s="3">
+        <v>1505400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1507300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1224900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1176100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,74 +1085,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-521600</v>
+        <v>-413500</v>
       </c>
       <c r="E20" s="3">
-        <v>-481500</v>
+        <v>-530500</v>
       </c>
       <c r="F20" s="3">
-        <v>-325000</v>
+        <v>-481800</v>
       </c>
       <c r="G20" s="3">
-        <v>-391900</v>
+        <v>-325300</v>
       </c>
       <c r="H20" s="3">
-        <v>-452200</v>
+        <v>-392200</v>
       </c>
       <c r="I20" s="3">
-        <v>-419800</v>
+        <v>-452600</v>
       </c>
       <c r="J20" s="3">
+        <v>-420100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-414900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-250600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-439900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>532800</v>
+        <v>592700</v>
       </c>
       <c r="E21" s="3">
-        <v>1100300</v>
+        <v>533200</v>
       </c>
       <c r="F21" s="3">
-        <v>1037900</v>
+        <v>1101100</v>
       </c>
       <c r="G21" s="3">
-        <v>659600</v>
+        <v>1038700</v>
       </c>
       <c r="H21" s="3">
-        <v>893400</v>
+        <v>660100</v>
       </c>
       <c r="I21" s="3">
-        <v>1174000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+        <v>894100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1174900</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>1063200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>821800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1151,75 +1190,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>411700</v>
+        <v>464600</v>
       </c>
       <c r="E23" s="3">
-        <v>1037600</v>
+        <v>412000</v>
       </c>
       <c r="F23" s="3">
-        <v>973800</v>
+        <v>1038400</v>
       </c>
       <c r="G23" s="3">
-        <v>591100</v>
+        <v>974600</v>
       </c>
       <c r="H23" s="3">
-        <v>821900</v>
+        <v>591600</v>
       </c>
       <c r="I23" s="3">
-        <v>1084400</v>
+        <v>822600</v>
       </c>
       <c r="J23" s="3">
+        <v>1085300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1092400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>974300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>736100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-17800</v>
       </c>
-      <c r="E24" s="3">
-        <v>193900</v>
-      </c>
       <c r="F24" s="3">
-        <v>153800</v>
+        <v>194000</v>
       </c>
       <c r="G24" s="3">
-        <v>137400</v>
+        <v>154000</v>
       </c>
       <c r="H24" s="3">
-        <v>135000</v>
+        <v>137500</v>
       </c>
       <c r="I24" s="3">
-        <v>212400</v>
+        <v>135100</v>
       </c>
       <c r="J24" s="3">
+        <v>212600</v>
+      </c>
+      <c r="K24" s="3">
         <v>229000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>181700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>166400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>429400</v>
+        <v>474700</v>
       </c>
       <c r="E26" s="3">
-        <v>843700</v>
+        <v>429800</v>
       </c>
       <c r="F26" s="3">
-        <v>820000</v>
+        <v>844400</v>
       </c>
       <c r="G26" s="3">
-        <v>453800</v>
+        <v>820600</v>
       </c>
       <c r="H26" s="3">
-        <v>686900</v>
+        <v>454100</v>
       </c>
       <c r="I26" s="3">
-        <v>872000</v>
+        <v>687400</v>
       </c>
       <c r="J26" s="3">
+        <v>872700</v>
+      </c>
+      <c r="K26" s="3">
         <v>863400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>792600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>569700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>332100</v>
+        <v>363600</v>
       </c>
       <c r="E27" s="3">
-        <v>746100</v>
+        <v>332400</v>
       </c>
       <c r="F27" s="3">
-        <v>592400</v>
+        <v>746700</v>
       </c>
       <c r="G27" s="3">
-        <v>376400</v>
+        <v>592900</v>
       </c>
       <c r="H27" s="3">
-        <v>603600</v>
+        <v>376700</v>
       </c>
       <c r="I27" s="3">
-        <v>815000</v>
+        <v>604100</v>
       </c>
       <c r="J27" s="3">
+        <v>815600</v>
+      </c>
+      <c r="K27" s="3">
         <v>808800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>737300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>515800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,30 +1406,33 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
-        <v>533600</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>39100</v>
+        <v>534000</v>
       </c>
       <c r="H29" s="3">
+        <v>39200</v>
+      </c>
+      <c r="I29" s="3">
         <v>38900</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1382,9 +1442,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1514,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>521600</v>
+        <v>413500</v>
       </c>
       <c r="E32" s="3">
-        <v>481500</v>
+        <v>530500</v>
       </c>
       <c r="F32" s="3">
-        <v>325000</v>
+        <v>481800</v>
       </c>
       <c r="G32" s="3">
-        <v>391900</v>
+        <v>325300</v>
       </c>
       <c r="H32" s="3">
-        <v>452200</v>
+        <v>392200</v>
       </c>
       <c r="I32" s="3">
-        <v>419800</v>
+        <v>452600</v>
       </c>
       <c r="J32" s="3">
+        <v>420100</v>
+      </c>
+      <c r="K32" s="3">
         <v>414900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>250600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>439900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>332100</v>
+        <v>363600</v>
       </c>
       <c r="E33" s="3">
-        <v>746100</v>
+        <v>332400</v>
       </c>
       <c r="F33" s="3">
-        <v>1126000</v>
+        <v>746700</v>
       </c>
       <c r="G33" s="3">
-        <v>415500</v>
+        <v>1126900</v>
       </c>
       <c r="H33" s="3">
-        <v>642500</v>
+        <v>415900</v>
       </c>
       <c r="I33" s="3">
-        <v>815000</v>
+        <v>643000</v>
       </c>
       <c r="J33" s="3">
+        <v>815600</v>
+      </c>
+      <c r="K33" s="3">
         <v>808800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>737300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>515800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>332100</v>
+        <v>363600</v>
       </c>
       <c r="E35" s="3">
-        <v>746100</v>
+        <v>332400</v>
       </c>
       <c r="F35" s="3">
-        <v>1126000</v>
+        <v>746700</v>
       </c>
       <c r="G35" s="3">
-        <v>415500</v>
+        <v>1126900</v>
       </c>
       <c r="H35" s="3">
-        <v>642500</v>
+        <v>415900</v>
       </c>
       <c r="I35" s="3">
-        <v>815000</v>
+        <v>643000</v>
       </c>
       <c r="J35" s="3">
+        <v>815600</v>
+      </c>
+      <c r="K35" s="3">
         <v>808800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>737300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>515800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,74 +1734,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6632800</v>
+        <v>7263000</v>
       </c>
       <c r="E41" s="3">
-        <v>6192700</v>
+        <v>6638000</v>
       </c>
       <c r="F41" s="3">
-        <v>7810000</v>
+        <v>6197500</v>
       </c>
       <c r="G41" s="3">
-        <v>8449100</v>
+        <v>7816100</v>
       </c>
       <c r="H41" s="3">
-        <v>8901900</v>
+        <v>8455600</v>
       </c>
       <c r="I41" s="3">
-        <v>9064100</v>
+        <v>8908900</v>
       </c>
       <c r="J41" s="3">
+        <v>9071200</v>
+      </c>
+      <c r="K41" s="3">
         <v>8854000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11013100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9185400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31518400</v>
+        <v>29896500</v>
       </c>
       <c r="E42" s="3">
-        <v>30051000</v>
+        <v>31542900</v>
       </c>
       <c r="F42" s="3">
-        <v>11600000</v>
+        <v>30074300</v>
       </c>
       <c r="G42" s="3">
-        <v>9382700</v>
+        <v>11609000</v>
       </c>
       <c r="H42" s="3">
-        <v>14963100</v>
+        <v>9390000</v>
       </c>
       <c r="I42" s="3">
-        <v>16294500</v>
+        <v>14974700</v>
       </c>
       <c r="J42" s="3">
+        <v>16307200</v>
+      </c>
+      <c r="K42" s="3">
         <v>17747500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14642900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14219400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1747,9 +1839,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1780,9 +1875,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1813,9 +1911,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1846,108 +1947,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1283400</v>
+        <v>1182900</v>
       </c>
       <c r="E47" s="3">
-        <v>1175200</v>
+        <v>1284400</v>
       </c>
       <c r="F47" s="3">
-        <v>1213800</v>
+        <v>1176100</v>
       </c>
       <c r="G47" s="3">
-        <v>773800</v>
+        <v>1214700</v>
       </c>
       <c r="H47" s="3">
-        <v>741900</v>
+        <v>774400</v>
       </c>
       <c r="I47" s="3">
-        <v>783100</v>
+        <v>742400</v>
       </c>
       <c r="J47" s="3">
+        <v>783700</v>
+      </c>
+      <c r="K47" s="3">
         <v>615200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>602400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>489000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1844400</v>
+        <v>1812000</v>
       </c>
       <c r="E48" s="3">
-        <v>1694700</v>
+        <v>1845900</v>
       </c>
       <c r="F48" s="3">
-        <v>1641300</v>
+        <v>1696000</v>
       </c>
       <c r="G48" s="3">
-        <v>1543500</v>
+        <v>1642600</v>
       </c>
       <c r="H48" s="3">
-        <v>1711700</v>
+        <v>1544700</v>
       </c>
       <c r="I48" s="3">
-        <v>1688600</v>
+        <v>1713100</v>
       </c>
       <c r="J48" s="3">
+        <v>1689900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1741700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1616600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1617800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>247900</v>
+        <v>246300</v>
       </c>
       <c r="E49" s="3">
-        <v>249700</v>
+        <v>248100</v>
       </c>
       <c r="F49" s="3">
-        <v>252200</v>
+        <v>249900</v>
       </c>
       <c r="G49" s="3">
-        <v>339700</v>
+        <v>252400</v>
       </c>
       <c r="H49" s="3">
-        <v>499900</v>
+        <v>340000</v>
       </c>
       <c r="I49" s="3">
-        <v>509100</v>
+        <v>500200</v>
       </c>
       <c r="J49" s="3">
+        <v>509500</v>
+      </c>
+      <c r="K49" s="3">
         <v>513600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>520400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>539500</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>206200</v>
+        <v>3694700</v>
       </c>
       <c r="E52" s="3">
-        <v>150500</v>
+        <v>206400</v>
       </c>
       <c r="F52" s="3">
-        <v>137500</v>
+        <v>150600</v>
       </c>
       <c r="G52" s="3">
-        <v>746200</v>
+        <v>137600</v>
       </c>
       <c r="H52" s="3">
+        <v>746800</v>
+      </c>
+      <c r="I52" s="3">
         <v>23300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>48300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>111377000</v>
+        <v>113940000</v>
       </c>
       <c r="E54" s="3">
-        <v>108063000</v>
+        <v>111464000</v>
       </c>
       <c r="F54" s="3">
-        <v>104135000</v>
+        <v>108147000</v>
       </c>
       <c r="G54" s="3">
-        <v>98569300</v>
+        <v>104216000</v>
       </c>
       <c r="H54" s="3">
-        <v>100585000</v>
+        <v>98645900</v>
       </c>
       <c r="I54" s="3">
-        <v>102455000</v>
+        <v>100663000</v>
       </c>
       <c r="J54" s="3">
+        <v>102535000</v>
+      </c>
+      <c r="K54" s="3">
         <v>97056500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89137400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78259500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,107 +2270,117 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>461500</v>
+        <v>238600</v>
       </c>
       <c r="E57" s="3">
-        <v>422100</v>
+        <v>461900</v>
       </c>
       <c r="F57" s="3">
-        <v>410300</v>
+        <v>422400</v>
       </c>
       <c r="G57" s="3">
-        <v>490700</v>
+        <v>410600</v>
       </c>
       <c r="H57" s="3">
-        <v>549500</v>
+        <v>491100</v>
       </c>
       <c r="I57" s="3">
-        <v>624700</v>
+        <v>550000</v>
       </c>
       <c r="J57" s="3">
+        <v>625200</v>
+      </c>
+      <c r="K57" s="3">
         <v>531800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>670000</v>
+        <v>547300</v>
       </c>
       <c r="E58" s="3">
+        <v>670600</v>
+      </c>
+      <c r="F58" s="3">
         <v>52400</v>
       </c>
-      <c r="F58" s="3">
-        <v>70500</v>
-      </c>
       <c r="G58" s="3">
-        <v>1749400</v>
+        <v>70600</v>
       </c>
       <c r="H58" s="3">
-        <v>999500</v>
+        <v>1750800</v>
       </c>
       <c r="I58" s="3">
-        <v>1766200</v>
+        <v>1000200</v>
       </c>
       <c r="J58" s="3">
+        <v>1767500</v>
+      </c>
+      <c r="K58" s="3">
         <v>443900</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>437600</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>270700</v>
+        <v>80400</v>
       </c>
       <c r="E59" s="3">
-        <v>185000</v>
+        <v>270900</v>
       </c>
       <c r="F59" s="3">
-        <v>149300</v>
+        <v>185100</v>
       </c>
       <c r="G59" s="3">
-        <v>206600</v>
+        <v>149400</v>
       </c>
       <c r="H59" s="3">
-        <v>170600</v>
+        <v>206800</v>
       </c>
       <c r="I59" s="3">
-        <v>150900</v>
+        <v>170700</v>
       </c>
       <c r="J59" s="3">
+        <v>151000</v>
+      </c>
+      <c r="K59" s="3">
         <v>174200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>127200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>60500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2272,75 +2411,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1199900</v>
+        <v>1553200</v>
       </c>
       <c r="E61" s="3">
-        <v>1611100</v>
+        <v>1200800</v>
       </c>
       <c r="F61" s="3">
-        <v>1657000</v>
+        <v>1612300</v>
       </c>
       <c r="G61" s="3">
-        <v>1824400</v>
+        <v>1658300</v>
       </c>
       <c r="H61" s="3">
-        <v>2938800</v>
+        <v>1825800</v>
       </c>
       <c r="I61" s="3">
-        <v>3352000</v>
+        <v>2941100</v>
       </c>
       <c r="J61" s="3">
+        <v>3354600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1919600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2951900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2554400</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E62" s="3">
         <v>75200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>62200</v>
       </c>
-      <c r="F62" s="3">
-        <v>70900</v>
-      </c>
       <c r="G62" s="3">
+        <v>71000</v>
+      </c>
+      <c r="H62" s="3">
         <v>59500</v>
       </c>
-      <c r="H62" s="3">
-        <v>68700</v>
-      </c>
       <c r="I62" s="3">
-        <v>88300</v>
+        <v>68800</v>
       </c>
       <c r="J62" s="3">
+        <v>88400</v>
+      </c>
+      <c r="K62" s="3">
         <v>83300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>80600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>59000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>97310600</v>
+        <v>99401000</v>
       </c>
       <c r="E66" s="3">
-        <v>95096800</v>
+        <v>97386200</v>
       </c>
       <c r="F66" s="3">
-        <v>91471200</v>
+        <v>95170700</v>
       </c>
       <c r="G66" s="3">
-        <v>87827200</v>
+        <v>91542200</v>
       </c>
       <c r="H66" s="3">
-        <v>89973900</v>
+        <v>87895400</v>
       </c>
       <c r="I66" s="3">
-        <v>93588100</v>
+        <v>90043800</v>
       </c>
       <c r="J66" s="3">
+        <v>93660800</v>
+      </c>
+      <c r="K66" s="3">
         <v>88858700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>81776600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72164600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6613800</v>
+        <v>6785100</v>
       </c>
       <c r="E72" s="3">
-        <v>6551800</v>
+        <v>6618900</v>
       </c>
       <c r="F72" s="3">
-        <v>6210700</v>
+        <v>6556900</v>
       </c>
       <c r="G72" s="3">
-        <v>5423300</v>
+        <v>6215500</v>
       </c>
       <c r="H72" s="3">
-        <v>5244200</v>
+        <v>5427500</v>
       </c>
       <c r="I72" s="3">
-        <v>4942100</v>
+        <v>5248300</v>
       </c>
       <c r="J72" s="3">
+        <v>4945900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6753700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6013600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4971100</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14066300</v>
+        <v>14538900</v>
       </c>
       <c r="E76" s="3">
-        <v>12965700</v>
+        <v>14077300</v>
       </c>
       <c r="F76" s="3">
-        <v>12663900</v>
+        <v>12975800</v>
       </c>
       <c r="G76" s="3">
-        <v>10742100</v>
+        <v>12673800</v>
       </c>
       <c r="H76" s="3">
-        <v>10611100</v>
+        <v>10750500</v>
       </c>
       <c r="I76" s="3">
-        <v>8866900</v>
+        <v>10619300</v>
       </c>
       <c r="J76" s="3">
+        <v>8873800</v>
+      </c>
+      <c r="K76" s="3">
         <v>8197800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7360700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6094800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>332100</v>
+        <v>363600</v>
       </c>
       <c r="E81" s="3">
-        <v>746100</v>
+        <v>332400</v>
       </c>
       <c r="F81" s="3">
-        <v>1126000</v>
+        <v>746700</v>
       </c>
       <c r="G81" s="3">
-        <v>415500</v>
+        <v>1126900</v>
       </c>
       <c r="H81" s="3">
-        <v>642500</v>
+        <v>415900</v>
       </c>
       <c r="I81" s="3">
-        <v>815000</v>
+        <v>643000</v>
       </c>
       <c r="J81" s="3">
+        <v>815600</v>
+      </c>
+      <c r="K81" s="3">
         <v>808800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>737300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>515800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,41 +3099,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>121100</v>
+        <v>128200</v>
       </c>
       <c r="E83" s="3">
+        <v>121200</v>
+      </c>
+      <c r="F83" s="3">
         <v>62700</v>
       </c>
-      <c r="F83" s="3">
-        <v>64100</v>
-      </c>
       <c r="G83" s="3">
+        <v>64200</v>
+      </c>
+      <c r="H83" s="3">
         <v>68500</v>
       </c>
-      <c r="H83" s="3">
-        <v>71400</v>
-      </c>
       <c r="I83" s="3">
-        <v>89600</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+        <v>71500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>88900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>85600</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>974600</v>
+        <v>2275700</v>
       </c>
       <c r="E89" s="3">
-        <v>339200</v>
+        <v>1151000</v>
       </c>
       <c r="F89" s="3">
-        <v>1630400</v>
+        <v>339500</v>
       </c>
       <c r="G89" s="3">
-        <v>-2412800</v>
+        <v>1631600</v>
       </c>
       <c r="H89" s="3">
-        <v>6611200</v>
+        <v>-2414700</v>
       </c>
       <c r="I89" s="3">
-        <v>-4737000</v>
+        <v>6616300</v>
       </c>
       <c r="J89" s="3">
+        <v>-4740700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2346700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>532200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1907700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-130000</v>
+        <v>-77200</v>
       </c>
       <c r="E91" s="3">
+        <v>-130100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-84600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-52700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-57700</v>
       </c>
-      <c r="H91" s="3">
-        <v>-57400</v>
-      </c>
       <c r="I91" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-39300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-96500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-73900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>160700</v>
+        <v>47400</v>
       </c>
       <c r="E94" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-81500</v>
       </c>
-      <c r="F94" s="3">
-        <v>537400</v>
-      </c>
       <c r="G94" s="3">
-        <v>232600</v>
+        <v>537900</v>
       </c>
       <c r="H94" s="3">
-        <v>-69100</v>
+        <v>232800</v>
       </c>
       <c r="I94" s="3">
-        <v>-178400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-178600</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>84400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>72300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,41 +3527,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-105900</v>
+        <v>-175000</v>
       </c>
       <c r="E96" s="3">
-        <v>-107100</v>
+        <v>-106000</v>
       </c>
       <c r="F96" s="3">
-        <v>-271100</v>
+        <v>-107200</v>
       </c>
       <c r="G96" s="3">
-        <v>-60200</v>
+        <v>-271300</v>
       </c>
       <c r="H96" s="3">
-        <v>-105200</v>
+        <v>-60300</v>
       </c>
       <c r="I96" s="3">
-        <v>-127600</v>
+        <v>-105300</v>
       </c>
       <c r="J96" s="3">
+        <v>-127700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-96200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-120000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-148100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,62 +3668,68 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-206800</v>
+      </c>
+      <c r="E100" s="3">
         <v>52000</v>
       </c>
-      <c r="E100" s="3">
-        <v>-329000</v>
-      </c>
       <c r="F100" s="3">
-        <v>-1066900</v>
+        <v>-329300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1701300</v>
+        <v>-1067700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1043700</v>
+        <v>-1702600</v>
       </c>
       <c r="I100" s="3">
-        <v>2595600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+        <v>-1044600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2597600</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>2031000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1043700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>339700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-77900</v>
       </c>
-      <c r="E101" s="3">
-        <v>-438500</v>
-      </c>
       <c r="F101" s="3">
-        <v>719200</v>
+        <v>-438800</v>
       </c>
       <c r="G101" s="3">
-        <v>-640200</v>
+        <v>719800</v>
       </c>
       <c r="H101" s="3">
-        <v>-480400</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
+        <v>-640700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-480800</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -3492,40 +3740,46 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1109400</v>
+        <v>2456000</v>
       </c>
       <c r="E102" s="3">
-        <v>-509800</v>
+        <v>1110300</v>
       </c>
       <c r="F102" s="3">
-        <v>1820100</v>
+        <v>-510200</v>
       </c>
       <c r="G102" s="3">
-        <v>-4521600</v>
+        <v>1821500</v>
       </c>
       <c r="H102" s="3">
-        <v>5017900</v>
+        <v>-4525200</v>
       </c>
       <c r="I102" s="3">
-        <v>-2319800</v>
+        <v>5021800</v>
       </c>
       <c r="J102" s="3">
+        <v>-2321600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1252700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2647500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-791700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2719200</v>
+        <v>2709500</v>
       </c>
       <c r="E8" s="3">
-        <v>3681300</v>
+        <v>3668200</v>
       </c>
       <c r="F8" s="3">
-        <v>3297800</v>
+        <v>3286000</v>
       </c>
       <c r="G8" s="3">
-        <v>2786500</v>
+        <v>2776500</v>
       </c>
       <c r="H8" s="3">
-        <v>2623400</v>
+        <v>2614000</v>
       </c>
       <c r="I8" s="3">
-        <v>3037900</v>
+        <v>3027100</v>
       </c>
       <c r="J8" s="3">
-        <v>3279600</v>
+        <v>3267900</v>
       </c>
       <c r="K8" s="3">
         <v>3229100</v>
@@ -955,25 +955,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-128200</v>
+        <v>-127700</v>
       </c>
       <c r="E15" s="3">
-        <v>-121200</v>
+        <v>-120800</v>
       </c>
       <c r="F15" s="3">
-        <v>-62700</v>
+        <v>-62500</v>
       </c>
       <c r="G15" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="H15" s="3">
         <v>-64200</v>
       </c>
-      <c r="H15" s="3">
-        <v>-64400</v>
-      </c>
       <c r="I15" s="3">
-        <v>-67900</v>
+        <v>-67700</v>
       </c>
       <c r="J15" s="3">
-        <v>-89700</v>
+        <v>-89300</v>
       </c>
       <c r="K15" s="3">
         <v>-90400</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1841100</v>
+        <v>1834500</v>
       </c>
       <c r="E17" s="3">
-        <v>2738800</v>
+        <v>2729000</v>
       </c>
       <c r="F17" s="3">
-        <v>1777600</v>
+        <v>1771200</v>
       </c>
       <c r="G17" s="3">
-        <v>1486600</v>
+        <v>1481300</v>
       </c>
       <c r="H17" s="3">
-        <v>1639600</v>
+        <v>1633800</v>
       </c>
       <c r="I17" s="3">
-        <v>1762800</v>
+        <v>1756500</v>
       </c>
       <c r="J17" s="3">
-        <v>1774200</v>
+        <v>1767900</v>
       </c>
       <c r="K17" s="3">
         <v>1721800</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>878100</v>
+        <v>875000</v>
       </c>
       <c r="E18" s="3">
-        <v>942500</v>
+        <v>939200</v>
       </c>
       <c r="F18" s="3">
-        <v>1520200</v>
+        <v>1514800</v>
       </c>
       <c r="G18" s="3">
-        <v>1299900</v>
+        <v>1295300</v>
       </c>
       <c r="H18" s="3">
-        <v>983700</v>
+        <v>980200</v>
       </c>
       <c r="I18" s="3">
-        <v>1275200</v>
+        <v>1270600</v>
       </c>
       <c r="J18" s="3">
-        <v>1505400</v>
+        <v>1500000</v>
       </c>
       <c r="K18" s="3">
         <v>1507300</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-413500</v>
+        <v>-412100</v>
       </c>
       <c r="E20" s="3">
-        <v>-530500</v>
+        <v>-528600</v>
       </c>
       <c r="F20" s="3">
-        <v>-481800</v>
+        <v>-480100</v>
       </c>
       <c r="G20" s="3">
-        <v>-325300</v>
+        <v>-324100</v>
       </c>
       <c r="H20" s="3">
-        <v>-392200</v>
+        <v>-390800</v>
       </c>
       <c r="I20" s="3">
-        <v>-452600</v>
+        <v>-451000</v>
       </c>
       <c r="J20" s="3">
-        <v>-420100</v>
+        <v>-418600</v>
       </c>
       <c r="K20" s="3">
         <v>-414900</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>592700</v>
+        <v>590700</v>
       </c>
       <c r="E21" s="3">
-        <v>533200</v>
+        <v>531400</v>
       </c>
       <c r="F21" s="3">
-        <v>1101100</v>
+        <v>1097200</v>
       </c>
       <c r="G21" s="3">
-        <v>1038700</v>
+        <v>1035100</v>
       </c>
       <c r="H21" s="3">
-        <v>660100</v>
+        <v>657800</v>
       </c>
       <c r="I21" s="3">
-        <v>894100</v>
+        <v>890900</v>
       </c>
       <c r="J21" s="3">
-        <v>1174900</v>
+        <v>1170800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>464600</v>
+        <v>462900</v>
       </c>
       <c r="E23" s="3">
-        <v>412000</v>
+        <v>410500</v>
       </c>
       <c r="F23" s="3">
-        <v>1038400</v>
+        <v>1034700</v>
       </c>
       <c r="G23" s="3">
-        <v>974600</v>
+        <v>971100</v>
       </c>
       <c r="H23" s="3">
-        <v>591600</v>
+        <v>589500</v>
       </c>
       <c r="I23" s="3">
-        <v>822600</v>
+        <v>819600</v>
       </c>
       <c r="J23" s="3">
-        <v>1085300</v>
+        <v>1081400</v>
       </c>
       <c r="K23" s="3">
         <v>1092400</v>
@@ -1236,25 +1236,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="E24" s="3">
-        <v>-17800</v>
+        <v>-17700</v>
       </c>
       <c r="F24" s="3">
-        <v>194000</v>
+        <v>193300</v>
       </c>
       <c r="G24" s="3">
-        <v>154000</v>
+        <v>153400</v>
       </c>
       <c r="H24" s="3">
-        <v>137500</v>
+        <v>137000</v>
       </c>
       <c r="I24" s="3">
-        <v>135100</v>
+        <v>134700</v>
       </c>
       <c r="J24" s="3">
-        <v>212600</v>
+        <v>211800</v>
       </c>
       <c r="K24" s="3">
         <v>229000</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>474700</v>
+        <v>473000</v>
       </c>
       <c r="E26" s="3">
-        <v>429800</v>
+        <v>428200</v>
       </c>
       <c r="F26" s="3">
-        <v>844400</v>
+        <v>841300</v>
       </c>
       <c r="G26" s="3">
-        <v>820600</v>
+        <v>817700</v>
       </c>
       <c r="H26" s="3">
-        <v>454100</v>
+        <v>452500</v>
       </c>
       <c r="I26" s="3">
-        <v>687400</v>
+        <v>685000</v>
       </c>
       <c r="J26" s="3">
-        <v>872700</v>
+        <v>869600</v>
       </c>
       <c r="K26" s="3">
         <v>863400</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>363600</v>
+        <v>362300</v>
       </c>
       <c r="E27" s="3">
-        <v>332400</v>
+        <v>331200</v>
       </c>
       <c r="F27" s="3">
-        <v>746700</v>
+        <v>744000</v>
       </c>
       <c r="G27" s="3">
-        <v>592900</v>
+        <v>590800</v>
       </c>
       <c r="H27" s="3">
-        <v>376700</v>
+        <v>375400</v>
       </c>
       <c r="I27" s="3">
-        <v>604100</v>
+        <v>601900</v>
       </c>
       <c r="J27" s="3">
-        <v>815600</v>
+        <v>812700</v>
       </c>
       <c r="K27" s="3">
         <v>808800</v>
@@ -1425,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>534000</v>
+        <v>532100</v>
       </c>
       <c r="H29" s="3">
-        <v>39200</v>
+        <v>39000</v>
       </c>
       <c r="I29" s="3">
-        <v>38900</v>
+        <v>38800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>413500</v>
+        <v>412100</v>
       </c>
       <c r="E32" s="3">
-        <v>530500</v>
+        <v>528600</v>
       </c>
       <c r="F32" s="3">
-        <v>481800</v>
+        <v>480100</v>
       </c>
       <c r="G32" s="3">
-        <v>325300</v>
+        <v>324100</v>
       </c>
       <c r="H32" s="3">
-        <v>392200</v>
+        <v>390800</v>
       </c>
       <c r="I32" s="3">
-        <v>452600</v>
+        <v>451000</v>
       </c>
       <c r="J32" s="3">
-        <v>420100</v>
+        <v>418600</v>
       </c>
       <c r="K32" s="3">
         <v>414900</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>363600</v>
+        <v>362300</v>
       </c>
       <c r="E33" s="3">
-        <v>332400</v>
+        <v>331200</v>
       </c>
       <c r="F33" s="3">
-        <v>746700</v>
+        <v>744000</v>
       </c>
       <c r="G33" s="3">
-        <v>1126900</v>
+        <v>1122900</v>
       </c>
       <c r="H33" s="3">
-        <v>415900</v>
+        <v>414400</v>
       </c>
       <c r="I33" s="3">
-        <v>643000</v>
+        <v>640700</v>
       </c>
       <c r="J33" s="3">
-        <v>815600</v>
+        <v>812700</v>
       </c>
       <c r="K33" s="3">
         <v>808800</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>363600</v>
+        <v>362300</v>
       </c>
       <c r="E35" s="3">
-        <v>332400</v>
+        <v>331200</v>
       </c>
       <c r="F35" s="3">
-        <v>746700</v>
+        <v>744000</v>
       </c>
       <c r="G35" s="3">
-        <v>1126900</v>
+        <v>1122900</v>
       </c>
       <c r="H35" s="3">
-        <v>415900</v>
+        <v>414400</v>
       </c>
       <c r="I35" s="3">
-        <v>643000</v>
+        <v>640700</v>
       </c>
       <c r="J35" s="3">
-        <v>815600</v>
+        <v>812700</v>
       </c>
       <c r="K35" s="3">
         <v>808800</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7263000</v>
+        <v>7237100</v>
       </c>
       <c r="E41" s="3">
-        <v>6638000</v>
+        <v>6614300</v>
       </c>
       <c r="F41" s="3">
-        <v>6197500</v>
+        <v>6175400</v>
       </c>
       <c r="G41" s="3">
-        <v>7816100</v>
+        <v>7788200</v>
       </c>
       <c r="H41" s="3">
-        <v>8455600</v>
+        <v>8425400</v>
       </c>
       <c r="I41" s="3">
-        <v>8908900</v>
+        <v>8877000</v>
       </c>
       <c r="J41" s="3">
-        <v>9071200</v>
+        <v>9038800</v>
       </c>
       <c r="K41" s="3">
         <v>8854000</v>
@@ -1777,25 +1777,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29896500</v>
+        <v>29789800</v>
       </c>
       <c r="E42" s="3">
-        <v>31542900</v>
+        <v>31430200</v>
       </c>
       <c r="F42" s="3">
-        <v>30074300</v>
+        <v>29966900</v>
       </c>
       <c r="G42" s="3">
-        <v>11609000</v>
+        <v>11567500</v>
       </c>
       <c r="H42" s="3">
-        <v>9390000</v>
+        <v>9356500</v>
       </c>
       <c r="I42" s="3">
-        <v>14974700</v>
+        <v>14921200</v>
       </c>
       <c r="J42" s="3">
-        <v>16307200</v>
+        <v>16248900</v>
       </c>
       <c r="K42" s="3">
         <v>17747500</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1182900</v>
+        <v>1178700</v>
       </c>
       <c r="E47" s="3">
-        <v>1284400</v>
+        <v>1279800</v>
       </c>
       <c r="F47" s="3">
-        <v>1176100</v>
+        <v>1171900</v>
       </c>
       <c r="G47" s="3">
-        <v>1214700</v>
+        <v>1210400</v>
       </c>
       <c r="H47" s="3">
-        <v>774400</v>
+        <v>771600</v>
       </c>
       <c r="I47" s="3">
-        <v>742400</v>
+        <v>739800</v>
       </c>
       <c r="J47" s="3">
-        <v>783700</v>
+        <v>780900</v>
       </c>
       <c r="K47" s="3">
         <v>615200</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1812000</v>
+        <v>1805500</v>
       </c>
       <c r="E48" s="3">
-        <v>1845900</v>
+        <v>1839300</v>
       </c>
       <c r="F48" s="3">
-        <v>1696000</v>
+        <v>1690000</v>
       </c>
       <c r="G48" s="3">
-        <v>1642600</v>
+        <v>1636700</v>
       </c>
       <c r="H48" s="3">
-        <v>1544700</v>
+        <v>1539200</v>
       </c>
       <c r="I48" s="3">
-        <v>1713100</v>
+        <v>1706900</v>
       </c>
       <c r="J48" s="3">
-        <v>1689900</v>
+        <v>1683800</v>
       </c>
       <c r="K48" s="3">
         <v>1741700</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>246300</v>
+        <v>245400</v>
       </c>
       <c r="E49" s="3">
-        <v>248100</v>
+        <v>247200</v>
       </c>
       <c r="F49" s="3">
-        <v>249900</v>
+        <v>249000</v>
       </c>
       <c r="G49" s="3">
-        <v>252400</v>
+        <v>251500</v>
       </c>
       <c r="H49" s="3">
-        <v>340000</v>
+        <v>338800</v>
       </c>
       <c r="I49" s="3">
-        <v>500200</v>
+        <v>498500</v>
       </c>
       <c r="J49" s="3">
-        <v>509500</v>
+        <v>507700</v>
       </c>
       <c r="K49" s="3">
         <v>513600</v>
@@ -2137,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3694700</v>
+        <v>3681500</v>
       </c>
       <c r="E52" s="3">
-        <v>206400</v>
+        <v>205600</v>
       </c>
       <c r="F52" s="3">
-        <v>150600</v>
+        <v>150100</v>
       </c>
       <c r="G52" s="3">
-        <v>137600</v>
+        <v>137100</v>
       </c>
       <c r="H52" s="3">
-        <v>746800</v>
+        <v>744200</v>
       </c>
       <c r="I52" s="3">
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="J52" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="K52" s="3">
         <v>15400</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113940000</v>
+        <v>113533000</v>
       </c>
       <c r="E54" s="3">
-        <v>111464000</v>
+        <v>111066000</v>
       </c>
       <c r="F54" s="3">
-        <v>108147000</v>
+        <v>107760000</v>
       </c>
       <c r="G54" s="3">
-        <v>104216000</v>
+        <v>103844000</v>
       </c>
       <c r="H54" s="3">
-        <v>98645900</v>
+        <v>98293700</v>
       </c>
       <c r="I54" s="3">
-        <v>100663000</v>
+        <v>100304000</v>
       </c>
       <c r="J54" s="3">
-        <v>102535000</v>
+        <v>102169000</v>
       </c>
       <c r="K54" s="3">
         <v>97056500</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>238600</v>
+        <v>237700</v>
       </c>
       <c r="E57" s="3">
-        <v>461900</v>
+        <v>460200</v>
       </c>
       <c r="F57" s="3">
-        <v>422400</v>
+        <v>420900</v>
       </c>
       <c r="G57" s="3">
-        <v>410600</v>
+        <v>409100</v>
       </c>
       <c r="H57" s="3">
-        <v>491100</v>
+        <v>489300</v>
       </c>
       <c r="I57" s="3">
-        <v>550000</v>
+        <v>548000</v>
       </c>
       <c r="J57" s="3">
-        <v>625200</v>
+        <v>623000</v>
       </c>
       <c r="K57" s="3">
         <v>531800</v>
@@ -2313,25 +2313,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>547300</v>
+        <v>545300</v>
       </c>
       <c r="E58" s="3">
-        <v>670600</v>
+        <v>668200</v>
       </c>
       <c r="F58" s="3">
-        <v>52400</v>
+        <v>52200</v>
       </c>
       <c r="G58" s="3">
-        <v>70600</v>
+        <v>70300</v>
       </c>
       <c r="H58" s="3">
-        <v>1750800</v>
+        <v>1744500</v>
       </c>
       <c r="I58" s="3">
-        <v>1000200</v>
+        <v>996700</v>
       </c>
       <c r="J58" s="3">
-        <v>1767500</v>
+        <v>1761200</v>
       </c>
       <c r="K58" s="3">
         <v>443900</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80400</v>
+        <v>80100</v>
       </c>
       <c r="E59" s="3">
-        <v>270900</v>
+        <v>270000</v>
       </c>
       <c r="F59" s="3">
-        <v>185100</v>
+        <v>184500</v>
       </c>
       <c r="G59" s="3">
-        <v>149400</v>
+        <v>148900</v>
       </c>
       <c r="H59" s="3">
-        <v>206800</v>
+        <v>206000</v>
       </c>
       <c r="I59" s="3">
-        <v>170700</v>
+        <v>170100</v>
       </c>
       <c r="J59" s="3">
-        <v>151000</v>
+        <v>150400</v>
       </c>
       <c r="K59" s="3">
         <v>174200</v>
@@ -2421,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1553200</v>
+        <v>1547600</v>
       </c>
       <c r="E61" s="3">
-        <v>1200800</v>
+        <v>1196500</v>
       </c>
       <c r="F61" s="3">
-        <v>1612300</v>
+        <v>1606600</v>
       </c>
       <c r="G61" s="3">
-        <v>1658300</v>
+        <v>1652400</v>
       </c>
       <c r="H61" s="3">
-        <v>1825800</v>
+        <v>1819300</v>
       </c>
       <c r="I61" s="3">
-        <v>2941100</v>
+        <v>2930600</v>
       </c>
       <c r="J61" s="3">
-        <v>3354600</v>
+        <v>3342600</v>
       </c>
       <c r="K61" s="3">
         <v>1919600</v>
@@ -2457,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>62000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>70700</v>
+      </c>
+      <c r="H62" s="3">
         <v>59300</v>
       </c>
-      <c r="E62" s="3">
-        <v>75200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>62200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>71000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>59500</v>
-      </c>
       <c r="I62" s="3">
-        <v>68800</v>
+        <v>68500</v>
       </c>
       <c r="J62" s="3">
-        <v>88400</v>
+        <v>88100</v>
       </c>
       <c r="K62" s="3">
         <v>83300</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99401000</v>
+        <v>99046100</v>
       </c>
       <c r="E66" s="3">
-        <v>97386200</v>
+        <v>97038500</v>
       </c>
       <c r="F66" s="3">
-        <v>95170700</v>
+        <v>94830900</v>
       </c>
       <c r="G66" s="3">
-        <v>91542200</v>
+        <v>91215400</v>
       </c>
       <c r="H66" s="3">
-        <v>87895400</v>
+        <v>87581600</v>
       </c>
       <c r="I66" s="3">
-        <v>90043800</v>
+        <v>89722300</v>
       </c>
       <c r="J66" s="3">
-        <v>93660800</v>
+        <v>93326400</v>
       </c>
       <c r="K66" s="3">
         <v>88858700</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6785100</v>
+        <v>6760900</v>
       </c>
       <c r="E72" s="3">
-        <v>6618900</v>
+        <v>6595300</v>
       </c>
       <c r="F72" s="3">
-        <v>6556900</v>
+        <v>6533500</v>
       </c>
       <c r="G72" s="3">
-        <v>6215500</v>
+        <v>6193300</v>
       </c>
       <c r="H72" s="3">
-        <v>5427500</v>
+        <v>5408100</v>
       </c>
       <c r="I72" s="3">
-        <v>5248300</v>
+        <v>5229500</v>
       </c>
       <c r="J72" s="3">
-        <v>4945900</v>
+        <v>4928300</v>
       </c>
       <c r="K72" s="3">
         <v>6753700</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14538900</v>
+        <v>14486900</v>
       </c>
       <c r="E76" s="3">
-        <v>14077300</v>
+        <v>14027000</v>
       </c>
       <c r="F76" s="3">
-        <v>12975800</v>
+        <v>12929400</v>
       </c>
       <c r="G76" s="3">
-        <v>12673800</v>
+        <v>12628500</v>
       </c>
       <c r="H76" s="3">
-        <v>10750500</v>
+        <v>10712100</v>
       </c>
       <c r="I76" s="3">
-        <v>10619300</v>
+        <v>10581400</v>
       </c>
       <c r="J76" s="3">
-        <v>8873800</v>
+        <v>8842100</v>
       </c>
       <c r="K76" s="3">
         <v>8197800</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>363600</v>
+        <v>362300</v>
       </c>
       <c r="E81" s="3">
-        <v>332400</v>
+        <v>331200</v>
       </c>
       <c r="F81" s="3">
-        <v>746700</v>
+        <v>744000</v>
       </c>
       <c r="G81" s="3">
-        <v>1126900</v>
+        <v>1122900</v>
       </c>
       <c r="H81" s="3">
-        <v>415900</v>
+        <v>414400</v>
       </c>
       <c r="I81" s="3">
-        <v>643000</v>
+        <v>640700</v>
       </c>
       <c r="J81" s="3">
-        <v>815600</v>
+        <v>812700</v>
       </c>
       <c r="K81" s="3">
         <v>808800</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>128200</v>
+        <v>127700</v>
       </c>
       <c r="E83" s="3">
-        <v>121200</v>
+        <v>120800</v>
       </c>
       <c r="F83" s="3">
-        <v>62700</v>
+        <v>62500</v>
       </c>
       <c r="G83" s="3">
-        <v>64200</v>
+        <v>63900</v>
       </c>
       <c r="H83" s="3">
-        <v>68500</v>
+        <v>68300</v>
       </c>
       <c r="I83" s="3">
-        <v>71500</v>
+        <v>71200</v>
       </c>
       <c r="J83" s="3">
-        <v>89700</v>
+        <v>89300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2275700</v>
+        <v>2267500</v>
       </c>
       <c r="E89" s="3">
-        <v>1151000</v>
+        <v>1146900</v>
       </c>
       <c r="F89" s="3">
-        <v>339500</v>
+        <v>338300</v>
       </c>
       <c r="G89" s="3">
-        <v>1631600</v>
+        <v>1625800</v>
       </c>
       <c r="H89" s="3">
-        <v>-2414700</v>
+        <v>-2406000</v>
       </c>
       <c r="I89" s="3">
-        <v>6616300</v>
+        <v>6592700</v>
       </c>
       <c r="J89" s="3">
-        <v>-4740700</v>
+        <v>-4723800</v>
       </c>
       <c r="K89" s="3">
         <v>-2346700</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-77200</v>
+        <v>-76900</v>
       </c>
       <c r="E91" s="3">
-        <v>-130100</v>
+        <v>-129700</v>
       </c>
       <c r="F91" s="3">
-        <v>-84600</v>
+        <v>-84300</v>
       </c>
       <c r="G91" s="3">
-        <v>-52700</v>
+        <v>-52500</v>
       </c>
       <c r="H91" s="3">
-        <v>-57700</v>
+        <v>-57500</v>
       </c>
       <c r="I91" s="3">
-        <v>-57500</v>
+        <v>-57300</v>
       </c>
       <c r="J91" s="3">
-        <v>-39300</v>
+        <v>-39200</v>
       </c>
       <c r="K91" s="3">
         <v>-96500</v>
@@ -3482,25 +3482,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>47400</v>
+        <v>47200</v>
       </c>
       <c r="E94" s="3">
         <v>-14800</v>
       </c>
       <c r="F94" s="3">
-        <v>-81500</v>
+        <v>-81300</v>
       </c>
       <c r="G94" s="3">
-        <v>537900</v>
+        <v>535900</v>
       </c>
       <c r="H94" s="3">
-        <v>232800</v>
+        <v>232000</v>
       </c>
       <c r="I94" s="3">
-        <v>-69200</v>
+        <v>-68900</v>
       </c>
       <c r="J94" s="3">
-        <v>-178600</v>
+        <v>-177900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3534,25 +3534,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-175000</v>
+        <v>-174300</v>
       </c>
       <c r="E96" s="3">
-        <v>-106000</v>
+        <v>-105600</v>
       </c>
       <c r="F96" s="3">
-        <v>-107200</v>
+        <v>-106800</v>
       </c>
       <c r="G96" s="3">
-        <v>-271300</v>
+        <v>-270300</v>
       </c>
       <c r="H96" s="3">
-        <v>-60300</v>
+        <v>-60100</v>
       </c>
       <c r="I96" s="3">
-        <v>-105300</v>
+        <v>-104900</v>
       </c>
       <c r="J96" s="3">
-        <v>-127700</v>
+        <v>-127200</v>
       </c>
       <c r="K96" s="3">
         <v>-96200</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-206800</v>
+        <v>-206000</v>
       </c>
       <c r="E100" s="3">
-        <v>52000</v>
+        <v>51900</v>
       </c>
       <c r="F100" s="3">
-        <v>-329300</v>
+        <v>-328100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1067700</v>
+        <v>-1063900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1702600</v>
+        <v>-1696500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1044600</v>
+        <v>-1040800</v>
       </c>
       <c r="J100" s="3">
-        <v>2597600</v>
+        <v>2588300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3714,22 +3714,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>339700</v>
+        <v>338500</v>
       </c>
       <c r="E101" s="3">
-        <v>-77900</v>
+        <v>-77700</v>
       </c>
       <c r="F101" s="3">
-        <v>-438800</v>
+        <v>-437200</v>
       </c>
       <c r="G101" s="3">
-        <v>719800</v>
+        <v>717200</v>
       </c>
       <c r="H101" s="3">
-        <v>-640700</v>
+        <v>-638400</v>
       </c>
       <c r="I101" s="3">
-        <v>-480800</v>
+        <v>-479100</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2456000</v>
+        <v>2447200</v>
       </c>
       <c r="E102" s="3">
-        <v>1110300</v>
+        <v>1106300</v>
       </c>
       <c r="F102" s="3">
-        <v>-510200</v>
+        <v>-508300</v>
       </c>
       <c r="G102" s="3">
-        <v>1821500</v>
+        <v>1815000</v>
       </c>
       <c r="H102" s="3">
-        <v>-4525200</v>
+        <v>-4509000</v>
       </c>
       <c r="I102" s="3">
-        <v>5021800</v>
+        <v>5003900</v>
       </c>
       <c r="J102" s="3">
-        <v>-2321600</v>
+        <v>-2313400</v>
       </c>
       <c r="K102" s="3">
         <v>-1252700</v>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2709500</v>
+        <v>2706100</v>
       </c>
       <c r="E8" s="3">
-        <v>3668200</v>
+        <v>3663600</v>
       </c>
       <c r="F8" s="3">
-        <v>3286000</v>
+        <v>3281900</v>
       </c>
       <c r="G8" s="3">
-        <v>2776500</v>
+        <v>2773100</v>
       </c>
       <c r="H8" s="3">
-        <v>2614000</v>
+        <v>2610700</v>
       </c>
       <c r="I8" s="3">
-        <v>3027100</v>
+        <v>3023300</v>
       </c>
       <c r="J8" s="3">
-        <v>3267900</v>
+        <v>3263800</v>
       </c>
       <c r="K8" s="3">
         <v>3229100</v>
@@ -955,25 +955,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-127700</v>
+        <v>-127600</v>
       </c>
       <c r="E15" s="3">
-        <v>-120800</v>
+        <v>-120600</v>
       </c>
       <c r="F15" s="3">
-        <v>-62500</v>
+        <v>-62400</v>
       </c>
       <c r="G15" s="3">
-        <v>-63900</v>
+        <v>-63800</v>
       </c>
       <c r="H15" s="3">
-        <v>-64200</v>
+        <v>-64100</v>
       </c>
       <c r="I15" s="3">
-        <v>-67700</v>
+        <v>-67600</v>
       </c>
       <c r="J15" s="3">
-        <v>-89300</v>
+        <v>-89200</v>
       </c>
       <c r="K15" s="3">
         <v>-90400</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1834500</v>
+        <v>1832200</v>
       </c>
       <c r="E17" s="3">
-        <v>2729000</v>
+        <v>2725600</v>
       </c>
       <c r="F17" s="3">
-        <v>1771200</v>
+        <v>1769000</v>
       </c>
       <c r="G17" s="3">
-        <v>1481300</v>
+        <v>1479400</v>
       </c>
       <c r="H17" s="3">
-        <v>1633800</v>
+        <v>1631700</v>
       </c>
       <c r="I17" s="3">
-        <v>1756500</v>
+        <v>1754300</v>
       </c>
       <c r="J17" s="3">
-        <v>1767900</v>
+        <v>1765700</v>
       </c>
       <c r="K17" s="3">
         <v>1721800</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>875000</v>
+        <v>873900</v>
       </c>
       <c r="E18" s="3">
-        <v>939200</v>
+        <v>938000</v>
       </c>
       <c r="F18" s="3">
-        <v>1514800</v>
+        <v>1512900</v>
       </c>
       <c r="G18" s="3">
-        <v>1295300</v>
+        <v>1293600</v>
       </c>
       <c r="H18" s="3">
-        <v>980200</v>
+        <v>979000</v>
       </c>
       <c r="I18" s="3">
-        <v>1270600</v>
+        <v>1269000</v>
       </c>
       <c r="J18" s="3">
-        <v>1500000</v>
+        <v>1498100</v>
       </c>
       <c r="K18" s="3">
         <v>1507300</v>
@@ -1092,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-412100</v>
+        <v>-411600</v>
       </c>
       <c r="E20" s="3">
-        <v>-528600</v>
+        <v>-528000</v>
       </c>
       <c r="F20" s="3">
-        <v>-480100</v>
+        <v>-479500</v>
       </c>
       <c r="G20" s="3">
-        <v>-324100</v>
+        <v>-323700</v>
       </c>
       <c r="H20" s="3">
-        <v>-390800</v>
+        <v>-390300</v>
       </c>
       <c r="I20" s="3">
-        <v>-451000</v>
+        <v>-450400</v>
       </c>
       <c r="J20" s="3">
-        <v>-418600</v>
+        <v>-418100</v>
       </c>
       <c r="K20" s="3">
         <v>-414900</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>590700</v>
+        <v>589900</v>
       </c>
       <c r="E21" s="3">
-        <v>531400</v>
+        <v>530700</v>
       </c>
       <c r="F21" s="3">
-        <v>1097200</v>
+        <v>1095800</v>
       </c>
       <c r="G21" s="3">
-        <v>1035100</v>
+        <v>1033800</v>
       </c>
       <c r="H21" s="3">
-        <v>657800</v>
+        <v>657000</v>
       </c>
       <c r="I21" s="3">
-        <v>890900</v>
+        <v>889800</v>
       </c>
       <c r="J21" s="3">
-        <v>1170800</v>
+        <v>1169300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>462900</v>
+        <v>462300</v>
       </c>
       <c r="E23" s="3">
-        <v>410500</v>
+        <v>410000</v>
       </c>
       <c r="F23" s="3">
-        <v>1034700</v>
+        <v>1033400</v>
       </c>
       <c r="G23" s="3">
-        <v>971100</v>
+        <v>969900</v>
       </c>
       <c r="H23" s="3">
-        <v>589500</v>
+        <v>588700</v>
       </c>
       <c r="I23" s="3">
-        <v>819600</v>
+        <v>818600</v>
       </c>
       <c r="J23" s="3">
-        <v>1081400</v>
+        <v>1080000</v>
       </c>
       <c r="K23" s="3">
         <v>1092400</v>
@@ -1242,19 +1242,19 @@
         <v>-17700</v>
       </c>
       <c r="F24" s="3">
-        <v>193300</v>
+        <v>193100</v>
       </c>
       <c r="G24" s="3">
-        <v>153400</v>
+        <v>153200</v>
       </c>
       <c r="H24" s="3">
-        <v>137000</v>
+        <v>136800</v>
       </c>
       <c r="I24" s="3">
-        <v>134700</v>
+        <v>134500</v>
       </c>
       <c r="J24" s="3">
-        <v>211800</v>
+        <v>211500</v>
       </c>
       <c r="K24" s="3">
         <v>229000</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>473000</v>
+        <v>472500</v>
       </c>
       <c r="E26" s="3">
-        <v>428200</v>
+        <v>427700</v>
       </c>
       <c r="F26" s="3">
-        <v>841300</v>
+        <v>840300</v>
       </c>
       <c r="G26" s="3">
-        <v>817700</v>
+        <v>816700</v>
       </c>
       <c r="H26" s="3">
-        <v>452500</v>
+        <v>451900</v>
       </c>
       <c r="I26" s="3">
-        <v>685000</v>
+        <v>684100</v>
       </c>
       <c r="J26" s="3">
-        <v>869600</v>
+        <v>868500</v>
       </c>
       <c r="K26" s="3">
         <v>863400</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>362300</v>
+        <v>361800</v>
       </c>
       <c r="E27" s="3">
-        <v>331200</v>
+        <v>330800</v>
       </c>
       <c r="F27" s="3">
-        <v>744000</v>
+        <v>743100</v>
       </c>
       <c r="G27" s="3">
-        <v>590800</v>
+        <v>590000</v>
       </c>
       <c r="H27" s="3">
-        <v>375400</v>
+        <v>374900</v>
       </c>
       <c r="I27" s="3">
-        <v>601900</v>
+        <v>601200</v>
       </c>
       <c r="J27" s="3">
-        <v>812700</v>
+        <v>811700</v>
       </c>
       <c r="K27" s="3">
         <v>808800</v>
@@ -1425,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>532100</v>
+        <v>531400</v>
       </c>
       <c r="H29" s="3">
         <v>39000</v>
       </c>
       <c r="I29" s="3">
-        <v>38800</v>
+        <v>38700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1524,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>412100</v>
+        <v>411600</v>
       </c>
       <c r="E32" s="3">
-        <v>528600</v>
+        <v>528000</v>
       </c>
       <c r="F32" s="3">
-        <v>480100</v>
+        <v>479500</v>
       </c>
       <c r="G32" s="3">
-        <v>324100</v>
+        <v>323700</v>
       </c>
       <c r="H32" s="3">
-        <v>390800</v>
+        <v>390300</v>
       </c>
       <c r="I32" s="3">
-        <v>451000</v>
+        <v>450400</v>
       </c>
       <c r="J32" s="3">
-        <v>418600</v>
+        <v>418100</v>
       </c>
       <c r="K32" s="3">
         <v>414900</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>362300</v>
+        <v>361800</v>
       </c>
       <c r="E33" s="3">
-        <v>331200</v>
+        <v>330800</v>
       </c>
       <c r="F33" s="3">
-        <v>744000</v>
+        <v>743100</v>
       </c>
       <c r="G33" s="3">
-        <v>1122900</v>
+        <v>1121500</v>
       </c>
       <c r="H33" s="3">
-        <v>414400</v>
+        <v>413900</v>
       </c>
       <c r="I33" s="3">
-        <v>640700</v>
+        <v>639900</v>
       </c>
       <c r="J33" s="3">
-        <v>812700</v>
+        <v>811700</v>
       </c>
       <c r="K33" s="3">
         <v>808800</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>362300</v>
+        <v>361800</v>
       </c>
       <c r="E35" s="3">
-        <v>331200</v>
+        <v>330800</v>
       </c>
       <c r="F35" s="3">
-        <v>744000</v>
+        <v>743100</v>
       </c>
       <c r="G35" s="3">
-        <v>1122900</v>
+        <v>1121500</v>
       </c>
       <c r="H35" s="3">
-        <v>414400</v>
+        <v>413900</v>
       </c>
       <c r="I35" s="3">
-        <v>640700</v>
+        <v>639900</v>
       </c>
       <c r="J35" s="3">
-        <v>812700</v>
+        <v>811700</v>
       </c>
       <c r="K35" s="3">
         <v>808800</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7237100</v>
+        <v>7228100</v>
       </c>
       <c r="E41" s="3">
-        <v>6614300</v>
+        <v>6606000</v>
       </c>
       <c r="F41" s="3">
-        <v>6175400</v>
+        <v>6167700</v>
       </c>
       <c r="G41" s="3">
-        <v>7788200</v>
+        <v>7778500</v>
       </c>
       <c r="H41" s="3">
-        <v>8425400</v>
+        <v>8414900</v>
       </c>
       <c r="I41" s="3">
-        <v>8877000</v>
+        <v>8866000</v>
       </c>
       <c r="J41" s="3">
-        <v>9038800</v>
+        <v>9027500</v>
       </c>
       <c r="K41" s="3">
         <v>8854000</v>
@@ -1777,25 +1777,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29789800</v>
+        <v>29752700</v>
       </c>
       <c r="E42" s="3">
-        <v>31430200</v>
+        <v>31391100</v>
       </c>
       <c r="F42" s="3">
-        <v>29966900</v>
+        <v>29929600</v>
       </c>
       <c r="G42" s="3">
-        <v>11567500</v>
+        <v>11553100</v>
       </c>
       <c r="H42" s="3">
-        <v>9356500</v>
+        <v>9344800</v>
       </c>
       <c r="I42" s="3">
-        <v>14921200</v>
+        <v>14902600</v>
       </c>
       <c r="J42" s="3">
-        <v>16248900</v>
+        <v>16228700</v>
       </c>
       <c r="K42" s="3">
         <v>17747500</v>
@@ -1957,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1178700</v>
+        <v>1177200</v>
       </c>
       <c r="E47" s="3">
-        <v>1279800</v>
+        <v>1278300</v>
       </c>
       <c r="F47" s="3">
-        <v>1171900</v>
+        <v>1170400</v>
       </c>
       <c r="G47" s="3">
-        <v>1210400</v>
+        <v>1208900</v>
       </c>
       <c r="H47" s="3">
-        <v>771600</v>
+        <v>770700</v>
       </c>
       <c r="I47" s="3">
-        <v>739800</v>
+        <v>738900</v>
       </c>
       <c r="J47" s="3">
-        <v>780900</v>
+        <v>779900</v>
       </c>
       <c r="K47" s="3">
         <v>615200</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1805500</v>
+        <v>1803300</v>
       </c>
       <c r="E48" s="3">
-        <v>1839300</v>
+        <v>1837000</v>
       </c>
       <c r="F48" s="3">
-        <v>1690000</v>
+        <v>1687900</v>
       </c>
       <c r="G48" s="3">
-        <v>1636700</v>
+        <v>1634700</v>
       </c>
       <c r="H48" s="3">
-        <v>1539200</v>
+        <v>1537200</v>
       </c>
       <c r="I48" s="3">
-        <v>1706900</v>
+        <v>1704800</v>
       </c>
       <c r="J48" s="3">
-        <v>1683800</v>
+        <v>1681700</v>
       </c>
       <c r="K48" s="3">
         <v>1741700</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>245400</v>
+        <v>245100</v>
       </c>
       <c r="E49" s="3">
-        <v>247200</v>
+        <v>246900</v>
       </c>
       <c r="F49" s="3">
-        <v>249000</v>
+        <v>248700</v>
       </c>
       <c r="G49" s="3">
-        <v>251500</v>
+        <v>251200</v>
       </c>
       <c r="H49" s="3">
-        <v>338800</v>
+        <v>338300</v>
       </c>
       <c r="I49" s="3">
-        <v>498500</v>
+        <v>497800</v>
       </c>
       <c r="J49" s="3">
-        <v>507700</v>
+        <v>507100</v>
       </c>
       <c r="K49" s="3">
         <v>513600</v>
@@ -2137,19 +2137,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3681500</v>
+        <v>3676900</v>
       </c>
       <c r="E52" s="3">
-        <v>205600</v>
+        <v>205400</v>
       </c>
       <c r="F52" s="3">
-        <v>150100</v>
+        <v>149900</v>
       </c>
       <c r="G52" s="3">
-        <v>137100</v>
+        <v>136900</v>
       </c>
       <c r="H52" s="3">
-        <v>744200</v>
+        <v>743200</v>
       </c>
       <c r="I52" s="3">
         <v>23200</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113533000</v>
+        <v>113392000</v>
       </c>
       <c r="E54" s="3">
-        <v>111066000</v>
+        <v>110927000</v>
       </c>
       <c r="F54" s="3">
-        <v>107760000</v>
+        <v>107626000</v>
       </c>
       <c r="G54" s="3">
-        <v>103844000</v>
+        <v>103715000</v>
       </c>
       <c r="H54" s="3">
-        <v>98293700</v>
+        <v>98171200</v>
       </c>
       <c r="I54" s="3">
-        <v>100304000</v>
+        <v>100179000</v>
       </c>
       <c r="J54" s="3">
-        <v>102169000</v>
+        <v>102041000</v>
       </c>
       <c r="K54" s="3">
         <v>97056500</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>237700</v>
+        <v>237400</v>
       </c>
       <c r="E57" s="3">
-        <v>460200</v>
+        <v>459600</v>
       </c>
       <c r="F57" s="3">
-        <v>420900</v>
+        <v>420400</v>
       </c>
       <c r="G57" s="3">
-        <v>409100</v>
+        <v>408600</v>
       </c>
       <c r="H57" s="3">
-        <v>489300</v>
+        <v>488700</v>
       </c>
       <c r="I57" s="3">
-        <v>548000</v>
+        <v>547300</v>
       </c>
       <c r="J57" s="3">
-        <v>623000</v>
+        <v>622200</v>
       </c>
       <c r="K57" s="3">
         <v>531800</v>
@@ -2313,10 +2313,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>545300</v>
+        <v>544600</v>
       </c>
       <c r="E58" s="3">
-        <v>668200</v>
+        <v>667300</v>
       </c>
       <c r="F58" s="3">
         <v>52200</v>
@@ -2325,13 +2325,13 @@
         <v>70300</v>
       </c>
       <c r="H58" s="3">
-        <v>1744500</v>
+        <v>1742400</v>
       </c>
       <c r="I58" s="3">
-        <v>996700</v>
+        <v>995400</v>
       </c>
       <c r="J58" s="3">
-        <v>1761200</v>
+        <v>1759000</v>
       </c>
       <c r="K58" s="3">
         <v>443900</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80100</v>
+        <v>80000</v>
       </c>
       <c r="E59" s="3">
-        <v>270000</v>
+        <v>269600</v>
       </c>
       <c r="F59" s="3">
-        <v>184500</v>
+        <v>184200</v>
       </c>
       <c r="G59" s="3">
-        <v>148900</v>
+        <v>148700</v>
       </c>
       <c r="H59" s="3">
-        <v>206000</v>
+        <v>205800</v>
       </c>
       <c r="I59" s="3">
-        <v>170100</v>
+        <v>169900</v>
       </c>
       <c r="J59" s="3">
-        <v>150400</v>
+        <v>150300</v>
       </c>
       <c r="K59" s="3">
         <v>174200</v>
@@ -2421,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1547600</v>
+        <v>1545700</v>
       </c>
       <c r="E61" s="3">
-        <v>1196500</v>
+        <v>1195000</v>
       </c>
       <c r="F61" s="3">
-        <v>1606600</v>
+        <v>1604500</v>
       </c>
       <c r="G61" s="3">
-        <v>1652400</v>
+        <v>1650300</v>
       </c>
       <c r="H61" s="3">
-        <v>1819300</v>
+        <v>1817000</v>
       </c>
       <c r="I61" s="3">
-        <v>2930600</v>
+        <v>2926900</v>
       </c>
       <c r="J61" s="3">
-        <v>3342600</v>
+        <v>3338500</v>
       </c>
       <c r="K61" s="3">
         <v>1919600</v>
@@ -2457,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>59100</v>
+        <v>59000</v>
       </c>
       <c r="E62" s="3">
-        <v>75000</v>
+        <v>74900</v>
       </c>
       <c r="F62" s="3">
-        <v>62000</v>
+        <v>61900</v>
       </c>
       <c r="G62" s="3">
-        <v>70700</v>
+        <v>70600</v>
       </c>
       <c r="H62" s="3">
-        <v>59300</v>
+        <v>59200</v>
       </c>
       <c r="I62" s="3">
         <v>68500</v>
       </c>
       <c r="J62" s="3">
-        <v>88100</v>
+        <v>88000</v>
       </c>
       <c r="K62" s="3">
         <v>83300</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99046100</v>
+        <v>98922600</v>
       </c>
       <c r="E66" s="3">
-        <v>97038500</v>
+        <v>96917500</v>
       </c>
       <c r="F66" s="3">
-        <v>94830900</v>
+        <v>94712700</v>
       </c>
       <c r="G66" s="3">
-        <v>91215400</v>
+        <v>91101700</v>
       </c>
       <c r="H66" s="3">
-        <v>87581600</v>
+        <v>87472400</v>
       </c>
       <c r="I66" s="3">
-        <v>89722300</v>
+        <v>89610500</v>
       </c>
       <c r="J66" s="3">
-        <v>93326400</v>
+        <v>93210100</v>
       </c>
       <c r="K66" s="3">
         <v>88858700</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6760900</v>
+        <v>6752400</v>
       </c>
       <c r="E72" s="3">
-        <v>6595300</v>
+        <v>6587000</v>
       </c>
       <c r="F72" s="3">
-        <v>6533500</v>
+        <v>6525400</v>
       </c>
       <c r="G72" s="3">
-        <v>6193300</v>
+        <v>6185600</v>
       </c>
       <c r="H72" s="3">
-        <v>5408100</v>
+        <v>5401400</v>
       </c>
       <c r="I72" s="3">
-        <v>5229500</v>
+        <v>5223000</v>
       </c>
       <c r="J72" s="3">
-        <v>4928300</v>
+        <v>4922100</v>
       </c>
       <c r="K72" s="3">
         <v>6753700</v>
@@ -2941,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14486900</v>
+        <v>14468900</v>
       </c>
       <c r="E76" s="3">
-        <v>14027000</v>
+        <v>14009500</v>
       </c>
       <c r="F76" s="3">
-        <v>12929400</v>
+        <v>12913300</v>
       </c>
       <c r="G76" s="3">
-        <v>12628500</v>
+        <v>12612800</v>
       </c>
       <c r="H76" s="3">
-        <v>10712100</v>
+        <v>10698700</v>
       </c>
       <c r="I76" s="3">
-        <v>10581400</v>
+        <v>10568200</v>
       </c>
       <c r="J76" s="3">
-        <v>8842100</v>
+        <v>8831100</v>
       </c>
       <c r="K76" s="3">
         <v>8197800</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>362300</v>
+        <v>361800</v>
       </c>
       <c r="E81" s="3">
-        <v>331200</v>
+        <v>330800</v>
       </c>
       <c r="F81" s="3">
-        <v>744000</v>
+        <v>743100</v>
       </c>
       <c r="G81" s="3">
-        <v>1122900</v>
+        <v>1121500</v>
       </c>
       <c r="H81" s="3">
-        <v>414400</v>
+        <v>413900</v>
       </c>
       <c r="I81" s="3">
-        <v>640700</v>
+        <v>639900</v>
       </c>
       <c r="J81" s="3">
-        <v>812700</v>
+        <v>811700</v>
       </c>
       <c r="K81" s="3">
         <v>808800</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>127700</v>
+        <v>127600</v>
       </c>
       <c r="E83" s="3">
-        <v>120800</v>
+        <v>120600</v>
       </c>
       <c r="F83" s="3">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="G83" s="3">
-        <v>63900</v>
+        <v>63800</v>
       </c>
       <c r="H83" s="3">
-        <v>68300</v>
+        <v>68200</v>
       </c>
       <c r="I83" s="3">
         <v>71200</v>
       </c>
       <c r="J83" s="3">
-        <v>89300</v>
+        <v>89200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2267500</v>
+        <v>2264700</v>
       </c>
       <c r="E89" s="3">
-        <v>1146900</v>
+        <v>1145400</v>
       </c>
       <c r="F89" s="3">
-        <v>338300</v>
+        <v>337800</v>
       </c>
       <c r="G89" s="3">
-        <v>1625800</v>
+        <v>1623800</v>
       </c>
       <c r="H89" s="3">
-        <v>-2406000</v>
+        <v>-2403000</v>
       </c>
       <c r="I89" s="3">
-        <v>6592700</v>
+        <v>6584500</v>
       </c>
       <c r="J89" s="3">
-        <v>-4723800</v>
+        <v>-4717900</v>
       </c>
       <c r="K89" s="3">
         <v>-2346700</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-76900</v>
+        <v>-76800</v>
       </c>
       <c r="E91" s="3">
-        <v>-129700</v>
+        <v>-129500</v>
       </c>
       <c r="F91" s="3">
-        <v>-84300</v>
+        <v>-84200</v>
       </c>
       <c r="G91" s="3">
-        <v>-52500</v>
+        <v>-52400</v>
       </c>
       <c r="H91" s="3">
-        <v>-57500</v>
+        <v>-57400</v>
       </c>
       <c r="I91" s="3">
-        <v>-57300</v>
+        <v>-57200</v>
       </c>
       <c r="J91" s="3">
-        <v>-39200</v>
+        <v>-39100</v>
       </c>
       <c r="K91" s="3">
         <v>-96500</v>
@@ -3485,22 +3485,22 @@
         <v>47200</v>
       </c>
       <c r="E94" s="3">
-        <v>-14800</v>
+        <v>-14700</v>
       </c>
       <c r="F94" s="3">
-        <v>-81300</v>
+        <v>-81200</v>
       </c>
       <c r="G94" s="3">
-        <v>535900</v>
+        <v>535300</v>
       </c>
       <c r="H94" s="3">
-        <v>232000</v>
+        <v>231700</v>
       </c>
       <c r="I94" s="3">
-        <v>-68900</v>
+        <v>-68800</v>
       </c>
       <c r="J94" s="3">
-        <v>-177900</v>
+        <v>-177700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3534,25 +3534,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-174300</v>
+        <v>-174100</v>
       </c>
       <c r="E96" s="3">
-        <v>-105600</v>
+        <v>-105500</v>
       </c>
       <c r="F96" s="3">
-        <v>-106800</v>
+        <v>-106700</v>
       </c>
       <c r="G96" s="3">
-        <v>-270300</v>
+        <v>-270000</v>
       </c>
       <c r="H96" s="3">
-        <v>-60100</v>
+        <v>-60000</v>
       </c>
       <c r="I96" s="3">
-        <v>-104900</v>
+        <v>-104700</v>
       </c>
       <c r="J96" s="3">
-        <v>-127200</v>
+        <v>-127100</v>
       </c>
       <c r="K96" s="3">
         <v>-96200</v>
@@ -3678,25 +3678,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-206000</v>
+        <v>-205800</v>
       </c>
       <c r="E100" s="3">
-        <v>51900</v>
+        <v>51800</v>
       </c>
       <c r="F100" s="3">
-        <v>-328100</v>
+        <v>-327700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1063900</v>
+        <v>-1062600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1696500</v>
+        <v>-1694400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1040800</v>
+        <v>-1039500</v>
       </c>
       <c r="J100" s="3">
-        <v>2588300</v>
+        <v>2585100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3714,22 +3714,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>338500</v>
+        <v>338100</v>
       </c>
       <c r="E101" s="3">
-        <v>-77700</v>
+        <v>-77600</v>
       </c>
       <c r="F101" s="3">
-        <v>-437200</v>
+        <v>-436700</v>
       </c>
       <c r="G101" s="3">
-        <v>717200</v>
+        <v>716300</v>
       </c>
       <c r="H101" s="3">
-        <v>-638400</v>
+        <v>-637600</v>
       </c>
       <c r="I101" s="3">
-        <v>-479100</v>
+        <v>-478500</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2447200</v>
+        <v>2444200</v>
       </c>
       <c r="E102" s="3">
-        <v>1106300</v>
+        <v>1104900</v>
       </c>
       <c r="F102" s="3">
-        <v>-508300</v>
+        <v>-507700</v>
       </c>
       <c r="G102" s="3">
-        <v>1815000</v>
+        <v>1812800</v>
       </c>
       <c r="H102" s="3">
-        <v>-4509000</v>
+        <v>-4503400</v>
       </c>
       <c r="I102" s="3">
-        <v>5003900</v>
+        <v>4997600</v>
       </c>
       <c r="J102" s="3">
-        <v>-2313400</v>
+        <v>-2310500</v>
       </c>
       <c r="K102" s="3">
         <v>-1252700</v>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>BKEAY</t>
   </si>
@@ -665,10 +665,8 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -723,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2706100</v>
+        <v>2696200</v>
       </c>
       <c r="E8" s="3">
-        <v>3663600</v>
+        <v>3650200</v>
       </c>
       <c r="F8" s="3">
-        <v>3281900</v>
+        <v>3269900</v>
       </c>
       <c r="G8" s="3">
-        <v>2773100</v>
+        <v>2762900</v>
       </c>
       <c r="H8" s="3">
-        <v>2610700</v>
+        <v>2601200</v>
       </c>
       <c r="I8" s="3">
-        <v>3023300</v>
+        <v>3012200</v>
       </c>
       <c r="J8" s="3">
-        <v>3263800</v>
+        <v>3251900</v>
       </c>
       <c r="K8" s="3">
         <v>3229100</v>
@@ -955,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-127600</v>
+        <v>-127100</v>
       </c>
       <c r="E15" s="3">
-        <v>-120600</v>
+        <v>-120200</v>
       </c>
       <c r="F15" s="3">
-        <v>-62400</v>
+        <v>-62200</v>
       </c>
       <c r="G15" s="3">
-        <v>-63800</v>
+        <v>-63600</v>
       </c>
       <c r="H15" s="3">
-        <v>-64100</v>
+        <v>-63900</v>
       </c>
       <c r="I15" s="3">
-        <v>-67600</v>
+        <v>-67300</v>
       </c>
       <c r="J15" s="3">
-        <v>-89200</v>
+        <v>-88900</v>
       </c>
       <c r="K15" s="3">
         <v>-90400</v>
@@ -1004,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1832200</v>
+        <v>1825500</v>
       </c>
       <c r="E17" s="3">
-        <v>2725600</v>
+        <v>2715600</v>
       </c>
       <c r="F17" s="3">
-        <v>1769000</v>
+        <v>1762600</v>
       </c>
       <c r="G17" s="3">
-        <v>1479400</v>
+        <v>1474000</v>
       </c>
       <c r="H17" s="3">
-        <v>1631700</v>
+        <v>1625700</v>
       </c>
       <c r="I17" s="3">
-        <v>1754300</v>
+        <v>1747900</v>
       </c>
       <c r="J17" s="3">
-        <v>1765700</v>
+        <v>1759200</v>
       </c>
       <c r="K17" s="3">
         <v>1721800</v>
@@ -1040,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>873900</v>
+        <v>870700</v>
       </c>
       <c r="E18" s="3">
-        <v>938000</v>
+        <v>934500</v>
       </c>
       <c r="F18" s="3">
-        <v>1512900</v>
+        <v>1507300</v>
       </c>
       <c r="G18" s="3">
-        <v>1293600</v>
+        <v>1288900</v>
       </c>
       <c r="H18" s="3">
-        <v>979000</v>
+        <v>975400</v>
       </c>
       <c r="I18" s="3">
-        <v>1269000</v>
+        <v>1264400</v>
       </c>
       <c r="J18" s="3">
-        <v>1498100</v>
+        <v>1492600</v>
       </c>
       <c r="K18" s="3">
         <v>1507300</v>
@@ -1092,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-411600</v>
+        <v>-410000</v>
       </c>
       <c r="E20" s="3">
-        <v>-528000</v>
+        <v>-526000</v>
       </c>
       <c r="F20" s="3">
-        <v>-479500</v>
+        <v>-477700</v>
       </c>
       <c r="G20" s="3">
-        <v>-323700</v>
+        <v>-322500</v>
       </c>
       <c r="H20" s="3">
-        <v>-390300</v>
+        <v>-388800</v>
       </c>
       <c r="I20" s="3">
-        <v>-450400</v>
+        <v>-448800</v>
       </c>
       <c r="J20" s="3">
-        <v>-418100</v>
+        <v>-416600</v>
       </c>
       <c r="K20" s="3">
         <v>-414900</v>
@@ -1128,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>589900</v>
+        <v>587900</v>
       </c>
       <c r="E21" s="3">
-        <v>530700</v>
+        <v>528900</v>
       </c>
       <c r="F21" s="3">
-        <v>1095800</v>
+        <v>1091900</v>
       </c>
       <c r="G21" s="3">
-        <v>1033800</v>
+        <v>1030000</v>
       </c>
       <c r="H21" s="3">
-        <v>657000</v>
+        <v>654600</v>
       </c>
       <c r="I21" s="3">
-        <v>889800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1169300</v>
+        <v>886600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1200,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>462300</v>
+        <v>460600</v>
       </c>
       <c r="E23" s="3">
-        <v>410000</v>
+        <v>408500</v>
       </c>
       <c r="F23" s="3">
-        <v>1033400</v>
+        <v>1029600</v>
       </c>
       <c r="G23" s="3">
-        <v>969900</v>
+        <v>966400</v>
       </c>
       <c r="H23" s="3">
-        <v>588700</v>
+        <v>586600</v>
       </c>
       <c r="I23" s="3">
-        <v>818600</v>
+        <v>815600</v>
       </c>
       <c r="J23" s="3">
-        <v>1080000</v>
+        <v>1076100</v>
       </c>
       <c r="K23" s="3">
         <v>1092400</v>
@@ -1239,22 +1237,22 @@
         <v>-10100</v>
       </c>
       <c r="E24" s="3">
-        <v>-17700</v>
+        <v>-17600</v>
       </c>
       <c r="F24" s="3">
-        <v>193100</v>
+        <v>192400</v>
       </c>
       <c r="G24" s="3">
-        <v>153200</v>
+        <v>152600</v>
       </c>
       <c r="H24" s="3">
-        <v>136800</v>
+        <v>136300</v>
       </c>
       <c r="I24" s="3">
-        <v>134500</v>
+        <v>134000</v>
       </c>
       <c r="J24" s="3">
-        <v>211500</v>
+        <v>210800</v>
       </c>
       <c r="K24" s="3">
         <v>229000</v>
@@ -1308,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>472500</v>
+        <v>470700</v>
       </c>
       <c r="E26" s="3">
-        <v>427700</v>
+        <v>426100</v>
       </c>
       <c r="F26" s="3">
-        <v>840300</v>
+        <v>837200</v>
       </c>
       <c r="G26" s="3">
-        <v>816700</v>
+        <v>813700</v>
       </c>
       <c r="H26" s="3">
-        <v>451900</v>
+        <v>450300</v>
       </c>
       <c r="I26" s="3">
-        <v>684100</v>
+        <v>681600</v>
       </c>
       <c r="J26" s="3">
-        <v>868500</v>
+        <v>865300</v>
       </c>
       <c r="K26" s="3">
         <v>863400</v>
@@ -1344,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>361800</v>
+        <v>360500</v>
       </c>
       <c r="E27" s="3">
-        <v>330800</v>
+        <v>329600</v>
       </c>
       <c r="F27" s="3">
-        <v>743100</v>
+        <v>740400</v>
       </c>
       <c r="G27" s="3">
-        <v>590000</v>
+        <v>587900</v>
       </c>
       <c r="H27" s="3">
-        <v>374900</v>
+        <v>373500</v>
       </c>
       <c r="I27" s="3">
-        <v>601200</v>
+        <v>599000</v>
       </c>
       <c r="J27" s="3">
-        <v>811700</v>
+        <v>808700</v>
       </c>
       <c r="K27" s="3">
         <v>808800</v>
@@ -1425,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>531400</v>
+        <v>529500</v>
       </c>
       <c r="H29" s="3">
-        <v>39000</v>
+        <v>38800</v>
       </c>
       <c r="I29" s="3">
-        <v>38700</v>
+        <v>38600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1524,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>411600</v>
+        <v>410000</v>
       </c>
       <c r="E32" s="3">
-        <v>528000</v>
+        <v>526000</v>
       </c>
       <c r="F32" s="3">
-        <v>479500</v>
+        <v>477700</v>
       </c>
       <c r="G32" s="3">
-        <v>323700</v>
+        <v>322500</v>
       </c>
       <c r="H32" s="3">
-        <v>390300</v>
+        <v>388800</v>
       </c>
       <c r="I32" s="3">
-        <v>450400</v>
+        <v>448800</v>
       </c>
       <c r="J32" s="3">
-        <v>418100</v>
+        <v>416600</v>
       </c>
       <c r="K32" s="3">
         <v>414900</v>
@@ -1560,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>361800</v>
+        <v>360500</v>
       </c>
       <c r="E33" s="3">
-        <v>330800</v>
+        <v>329600</v>
       </c>
       <c r="F33" s="3">
-        <v>743100</v>
+        <v>740400</v>
       </c>
       <c r="G33" s="3">
-        <v>1121500</v>
+        <v>1117300</v>
       </c>
       <c r="H33" s="3">
-        <v>413900</v>
+        <v>412300</v>
       </c>
       <c r="I33" s="3">
-        <v>639900</v>
+        <v>637600</v>
       </c>
       <c r="J33" s="3">
-        <v>811700</v>
+        <v>808700</v>
       </c>
       <c r="K33" s="3">
         <v>808800</v>
@@ -1632,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>361800</v>
+        <v>360500</v>
       </c>
       <c r="E35" s="3">
-        <v>330800</v>
+        <v>329600</v>
       </c>
       <c r="F35" s="3">
-        <v>743100</v>
+        <v>740400</v>
       </c>
       <c r="G35" s="3">
-        <v>1121500</v>
+        <v>1117300</v>
       </c>
       <c r="H35" s="3">
-        <v>413900</v>
+        <v>412300</v>
       </c>
       <c r="I35" s="3">
-        <v>639900</v>
+        <v>637600</v>
       </c>
       <c r="J35" s="3">
-        <v>811700</v>
+        <v>808700</v>
       </c>
       <c r="K35" s="3">
         <v>808800</v>
@@ -1741,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7228100</v>
+        <v>7036900</v>
       </c>
       <c r="E41" s="3">
-        <v>6606000</v>
+        <v>7201600</v>
       </c>
       <c r="F41" s="3">
-        <v>6167700</v>
+        <v>6581800</v>
       </c>
       <c r="G41" s="3">
-        <v>7778500</v>
+        <v>6145100</v>
       </c>
       <c r="H41" s="3">
-        <v>8414900</v>
+        <v>7750000</v>
       </c>
       <c r="I41" s="3">
-        <v>8866000</v>
+        <v>8384100</v>
       </c>
       <c r="J41" s="3">
-        <v>9027500</v>
+        <v>8833500</v>
       </c>
       <c r="K41" s="3">
         <v>8854000</v>
@@ -1777,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29752700</v>
+        <v>30515200</v>
       </c>
       <c r="E42" s="3">
-        <v>31391100</v>
+        <v>29643600</v>
       </c>
       <c r="F42" s="3">
-        <v>29929600</v>
+        <v>31276000</v>
       </c>
       <c r="G42" s="3">
-        <v>11553100</v>
+        <v>29819900</v>
       </c>
       <c r="H42" s="3">
-        <v>9344800</v>
+        <v>11510800</v>
       </c>
       <c r="I42" s="3">
-        <v>14902600</v>
+        <v>9310600</v>
       </c>
       <c r="J42" s="3">
-        <v>16228700</v>
+        <v>14848000</v>
       </c>
       <c r="K42" s="3">
         <v>17747500</v>
@@ -1957,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1177200</v>
+        <v>1142900</v>
       </c>
       <c r="E47" s="3">
-        <v>1278300</v>
+        <v>1172900</v>
       </c>
       <c r="F47" s="3">
-        <v>1170400</v>
+        <v>1273600</v>
       </c>
       <c r="G47" s="3">
-        <v>1208900</v>
+        <v>1166100</v>
       </c>
       <c r="H47" s="3">
-        <v>770700</v>
+        <v>1204500</v>
       </c>
       <c r="I47" s="3">
-        <v>738900</v>
+        <v>767800</v>
       </c>
       <c r="J47" s="3">
-        <v>779900</v>
+        <v>736200</v>
       </c>
       <c r="K47" s="3">
         <v>615200</v>
@@ -1993,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1803300</v>
+        <v>1768400</v>
       </c>
       <c r="E48" s="3">
-        <v>1837000</v>
+        <v>1796700</v>
       </c>
       <c r="F48" s="3">
-        <v>1687900</v>
+        <v>1830300</v>
       </c>
       <c r="G48" s="3">
-        <v>1634700</v>
+        <v>1681700</v>
       </c>
       <c r="H48" s="3">
-        <v>1537200</v>
+        <v>1628700</v>
       </c>
       <c r="I48" s="3">
-        <v>1704800</v>
+        <v>1531600</v>
       </c>
       <c r="J48" s="3">
-        <v>1681700</v>
+        <v>1698600</v>
       </c>
       <c r="K48" s="3">
         <v>1741700</v>
@@ -2029,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>245100</v>
+        <v>240800</v>
       </c>
       <c r="E49" s="3">
-        <v>246900</v>
+        <v>244200</v>
       </c>
       <c r="F49" s="3">
-        <v>248700</v>
+        <v>246000</v>
       </c>
       <c r="G49" s="3">
-        <v>251200</v>
+        <v>247800</v>
       </c>
       <c r="H49" s="3">
-        <v>338300</v>
+        <v>250200</v>
       </c>
       <c r="I49" s="3">
-        <v>497800</v>
+        <v>337100</v>
       </c>
       <c r="J49" s="3">
-        <v>507100</v>
+        <v>496000</v>
       </c>
       <c r="K49" s="3">
         <v>513600</v>
@@ -2137,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3676900</v>
+        <v>526900</v>
       </c>
       <c r="E52" s="3">
-        <v>205400</v>
+        <v>3663500</v>
       </c>
       <c r="F52" s="3">
-        <v>149900</v>
+        <v>204600</v>
       </c>
       <c r="G52" s="3">
-        <v>136900</v>
+        <v>149300</v>
       </c>
       <c r="H52" s="3">
-        <v>743200</v>
+        <v>136400</v>
       </c>
       <c r="I52" s="3">
-        <v>23200</v>
+        <v>740500</v>
       </c>
       <c r="J52" s="3">
-        <v>12300</v>
+        <v>23100</v>
       </c>
       <c r="K52" s="3">
         <v>15400</v>
@@ -2209,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113392000</v>
+        <v>115920000</v>
       </c>
       <c r="E54" s="3">
-        <v>110927000</v>
+        <v>112976000</v>
       </c>
       <c r="F54" s="3">
-        <v>107626000</v>
+        <v>110520000</v>
       </c>
       <c r="G54" s="3">
-        <v>103715000</v>
+        <v>107232000</v>
       </c>
       <c r="H54" s="3">
-        <v>98171200</v>
+        <v>103334000</v>
       </c>
       <c r="I54" s="3">
-        <v>100179000</v>
+        <v>97811300</v>
       </c>
       <c r="J54" s="3">
-        <v>102041000</v>
+        <v>99811400</v>
       </c>
       <c r="K54" s="3">
         <v>97056500</v>
@@ -2276,26 +2274,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>237400</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E57" s="3">
-        <v>459600</v>
+        <v>236600</v>
       </c>
       <c r="F57" s="3">
-        <v>420400</v>
+        <v>457900</v>
       </c>
       <c r="G57" s="3">
-        <v>408600</v>
+        <v>418900</v>
       </c>
       <c r="H57" s="3">
-        <v>488700</v>
+        <v>407100</v>
       </c>
       <c r="I57" s="3">
-        <v>547300</v>
+        <v>486900</v>
       </c>
       <c r="J57" s="3">
-        <v>622200</v>
+        <v>545300</v>
       </c>
       <c r="K57" s="3">
         <v>531800</v>
@@ -2312,26 +2310,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>544600</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>667300</v>
+        <v>542600</v>
       </c>
       <c r="F58" s="3">
-        <v>52200</v>
+        <v>664900</v>
       </c>
       <c r="G58" s="3">
-        <v>70300</v>
+        <v>52000</v>
       </c>
       <c r="H58" s="3">
-        <v>1742400</v>
+        <v>70000</v>
       </c>
       <c r="I58" s="3">
-        <v>995400</v>
+        <v>1736000</v>
       </c>
       <c r="J58" s="3">
-        <v>1759000</v>
+        <v>991800</v>
       </c>
       <c r="K58" s="3">
         <v>443900</v>
@@ -2349,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80000</v>
+        <v>122400</v>
       </c>
       <c r="E59" s="3">
-        <v>269600</v>
+        <v>79700</v>
       </c>
       <c r="F59" s="3">
-        <v>184200</v>
+        <v>268600</v>
       </c>
       <c r="G59" s="3">
-        <v>148700</v>
+        <v>183600</v>
       </c>
       <c r="H59" s="3">
-        <v>205800</v>
+        <v>148200</v>
       </c>
       <c r="I59" s="3">
-        <v>169900</v>
+        <v>205000</v>
       </c>
       <c r="J59" s="3">
-        <v>150300</v>
+        <v>169300</v>
       </c>
       <c r="K59" s="3">
         <v>174200</v>
@@ -2421,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1545700</v>
+        <v>1575700</v>
       </c>
       <c r="E61" s="3">
-        <v>1195000</v>
+        <v>1540000</v>
       </c>
       <c r="F61" s="3">
-        <v>1604500</v>
+        <v>1190700</v>
       </c>
       <c r="G61" s="3">
-        <v>1650300</v>
+        <v>1598700</v>
       </c>
       <c r="H61" s="3">
-        <v>1817000</v>
+        <v>1644300</v>
       </c>
       <c r="I61" s="3">
-        <v>2926900</v>
+        <v>1810300</v>
       </c>
       <c r="J61" s="3">
-        <v>3338500</v>
+        <v>2916200</v>
       </c>
       <c r="K61" s="3">
         <v>1919600</v>
@@ -2457,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>58800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>74600</v>
+      </c>
+      <c r="G62" s="3">
+        <v>61700</v>
+      </c>
+      <c r="H62" s="3">
+        <v>70400</v>
+      </c>
+      <c r="I62" s="3">
         <v>59000</v>
       </c>
-      <c r="E62" s="3">
-        <v>74900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>61900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>70600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>59200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>68500</v>
-      </c>
       <c r="J62" s="3">
-        <v>88000</v>
+        <v>68200</v>
       </c>
       <c r="K62" s="3">
         <v>83300</v>
@@ -2601,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>98922600</v>
+        <v>101135000</v>
       </c>
       <c r="E66" s="3">
-        <v>96917500</v>
+        <v>98560000</v>
       </c>
       <c r="F66" s="3">
-        <v>94712700</v>
+        <v>96562200</v>
       </c>
       <c r="G66" s="3">
-        <v>91101700</v>
+        <v>94365500</v>
       </c>
       <c r="H66" s="3">
-        <v>87472400</v>
+        <v>90767700</v>
       </c>
       <c r="I66" s="3">
-        <v>89610500</v>
+        <v>87151800</v>
       </c>
       <c r="J66" s="3">
-        <v>93210100</v>
+        <v>89282000</v>
       </c>
       <c r="K66" s="3">
         <v>88858700</v>
@@ -2797,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6752400</v>
+        <v>7681400</v>
       </c>
       <c r="E72" s="3">
-        <v>6587000</v>
+        <v>6727700</v>
       </c>
       <c r="F72" s="3">
-        <v>6525400</v>
+        <v>6562900</v>
       </c>
       <c r="G72" s="3">
-        <v>6185600</v>
+        <v>6501500</v>
       </c>
       <c r="H72" s="3">
-        <v>5401400</v>
+        <v>6162900</v>
       </c>
       <c r="I72" s="3">
-        <v>5223000</v>
+        <v>5381600</v>
       </c>
       <c r="J72" s="3">
-        <v>4922100</v>
+        <v>5203900</v>
       </c>
       <c r="K72" s="3">
         <v>6753700</v>
@@ -2941,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14468900</v>
+        <v>14785400</v>
       </c>
       <c r="E76" s="3">
-        <v>14009500</v>
+        <v>14415800</v>
       </c>
       <c r="F76" s="3">
-        <v>12913300</v>
+        <v>13958100</v>
       </c>
       <c r="G76" s="3">
-        <v>12612800</v>
+        <v>12866000</v>
       </c>
       <c r="H76" s="3">
-        <v>10698700</v>
+        <v>12566600</v>
       </c>
       <c r="I76" s="3">
-        <v>10568200</v>
+        <v>10659500</v>
       </c>
       <c r="J76" s="3">
-        <v>8831100</v>
+        <v>10529500</v>
       </c>
       <c r="K76" s="3">
         <v>8197800</v>
@@ -3054,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>361800</v>
+        <v>360500</v>
       </c>
       <c r="E81" s="3">
-        <v>330800</v>
+        <v>329600</v>
       </c>
       <c r="F81" s="3">
-        <v>743100</v>
+        <v>740400</v>
       </c>
       <c r="G81" s="3">
-        <v>1121500</v>
+        <v>1117300</v>
       </c>
       <c r="H81" s="3">
-        <v>413900</v>
+        <v>412300</v>
       </c>
       <c r="I81" s="3">
-        <v>639900</v>
+        <v>637600</v>
       </c>
       <c r="J81" s="3">
-        <v>811700</v>
+        <v>808700</v>
       </c>
       <c r="K81" s="3">
         <v>808800</v>
@@ -3106,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>127600</v>
+        <v>127100</v>
       </c>
       <c r="E83" s="3">
-        <v>120600</v>
+        <v>120200</v>
       </c>
       <c r="F83" s="3">
-        <v>62400</v>
+        <v>62200</v>
       </c>
       <c r="G83" s="3">
-        <v>63800</v>
+        <v>63600</v>
       </c>
       <c r="H83" s="3">
-        <v>68200</v>
+        <v>68000</v>
       </c>
       <c r="I83" s="3">
-        <v>71200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>89200</v>
+        <v>70900</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3322,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2264700</v>
+        <v>2256400</v>
       </c>
       <c r="E89" s="3">
-        <v>1145400</v>
+        <v>1141200</v>
       </c>
       <c r="F89" s="3">
-        <v>337800</v>
+        <v>336600</v>
       </c>
       <c r="G89" s="3">
-        <v>1623800</v>
+        <v>1617800</v>
       </c>
       <c r="H89" s="3">
-        <v>-2403000</v>
+        <v>-2394200</v>
       </c>
       <c r="I89" s="3">
-        <v>6584500</v>
+        <v>6560300</v>
       </c>
       <c r="J89" s="3">
-        <v>-4717900</v>
+        <v>-4700600</v>
       </c>
       <c r="K89" s="3">
         <v>-2346700</v>
@@ -3374,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-76800</v>
+        <v>-76500</v>
       </c>
       <c r="E91" s="3">
-        <v>-129500</v>
+        <v>-129000</v>
       </c>
       <c r="F91" s="3">
-        <v>-84200</v>
+        <v>-83900</v>
       </c>
       <c r="G91" s="3">
-        <v>-52400</v>
+        <v>-52200</v>
       </c>
       <c r="H91" s="3">
-        <v>-57400</v>
+        <v>-57200</v>
       </c>
       <c r="I91" s="3">
-        <v>-57200</v>
+        <v>-57000</v>
       </c>
       <c r="J91" s="3">
-        <v>-39100</v>
+        <v>-39000</v>
       </c>
       <c r="K91" s="3">
         <v>-96500</v>
@@ -3482,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>47200</v>
+        <v>47000</v>
       </c>
       <c r="E94" s="3">
         <v>-14700</v>
       </c>
       <c r="F94" s="3">
-        <v>-81200</v>
+        <v>-80900</v>
       </c>
       <c r="G94" s="3">
-        <v>535300</v>
+        <v>533300</v>
       </c>
       <c r="H94" s="3">
-        <v>231700</v>
+        <v>230800</v>
       </c>
       <c r="I94" s="3">
-        <v>-68800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-177700</v>
+        <v>-68600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3534,25 +3532,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-174100</v>
+        <v>-173500</v>
       </c>
       <c r="E96" s="3">
-        <v>-105500</v>
+        <v>-105100</v>
       </c>
       <c r="F96" s="3">
-        <v>-106700</v>
+        <v>-106300</v>
       </c>
       <c r="G96" s="3">
-        <v>-270000</v>
+        <v>-269000</v>
       </c>
       <c r="H96" s="3">
-        <v>-60000</v>
+        <v>-59800</v>
       </c>
       <c r="I96" s="3">
-        <v>-104700</v>
+        <v>-104400</v>
       </c>
       <c r="J96" s="3">
-        <v>-127100</v>
+        <v>-126600</v>
       </c>
       <c r="K96" s="3">
         <v>-96200</v>
@@ -3678,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-205800</v>
+        <v>-205000</v>
       </c>
       <c r="E100" s="3">
-        <v>51800</v>
+        <v>51600</v>
       </c>
       <c r="F100" s="3">
-        <v>-327700</v>
+        <v>-326500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1062600</v>
+        <v>-1058700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1694400</v>
+        <v>-1688200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1039500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>2585100</v>
+        <v>-1035700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3714,22 +3712,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>338100</v>
+        <v>336900</v>
       </c>
       <c r="E101" s="3">
-        <v>-77600</v>
+        <v>-77300</v>
       </c>
       <c r="F101" s="3">
-        <v>-436700</v>
+        <v>-435100</v>
       </c>
       <c r="G101" s="3">
-        <v>716300</v>
+        <v>713700</v>
       </c>
       <c r="H101" s="3">
-        <v>-637600</v>
+        <v>-635300</v>
       </c>
       <c r="I101" s="3">
-        <v>-478500</v>
+        <v>-476700</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -3750,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2444200</v>
+        <v>2435200</v>
       </c>
       <c r="E102" s="3">
-        <v>1104900</v>
+        <v>1100900</v>
       </c>
       <c r="F102" s="3">
-        <v>-507700</v>
+        <v>-505900</v>
       </c>
       <c r="G102" s="3">
-        <v>1812800</v>
+        <v>1806100</v>
       </c>
       <c r="H102" s="3">
-        <v>-4503400</v>
+        <v>-4486900</v>
       </c>
       <c r="I102" s="3">
-        <v>4997600</v>
+        <v>4979300</v>
       </c>
       <c r="J102" s="3">
-        <v>-2310500</v>
+        <v>-2302000</v>
       </c>
       <c r="K102" s="3">
         <v>-1252700</v>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>BKEAY</t>
   </si>
@@ -665,8 +665,10 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -721,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2696200</v>
+        <v>2688800</v>
       </c>
       <c r="E8" s="3">
-        <v>3650200</v>
+        <v>3640200</v>
       </c>
       <c r="F8" s="3">
-        <v>3269900</v>
+        <v>3260900</v>
       </c>
       <c r="G8" s="3">
-        <v>2762900</v>
+        <v>2755300</v>
       </c>
       <c r="H8" s="3">
-        <v>2601200</v>
+        <v>2594000</v>
       </c>
       <c r="I8" s="3">
-        <v>3012200</v>
+        <v>3004000</v>
       </c>
       <c r="J8" s="3">
-        <v>3251900</v>
+        <v>3243000</v>
       </c>
       <c r="K8" s="3">
         <v>3229100</v>
@@ -953,25 +955,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-127100</v>
+        <v>-126800</v>
       </c>
       <c r="E15" s="3">
-        <v>-120200</v>
+        <v>-119900</v>
       </c>
       <c r="F15" s="3">
-        <v>-62200</v>
+        <v>-62000</v>
       </c>
       <c r="G15" s="3">
-        <v>-63600</v>
+        <v>-63400</v>
       </c>
       <c r="H15" s="3">
-        <v>-63900</v>
+        <v>-63700</v>
       </c>
       <c r="I15" s="3">
-        <v>-67300</v>
+        <v>-67100</v>
       </c>
       <c r="J15" s="3">
-        <v>-88900</v>
+        <v>-88700</v>
       </c>
       <c r="K15" s="3">
         <v>-90400</v>
@@ -1002,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1825500</v>
+        <v>1820500</v>
       </c>
       <c r="E17" s="3">
-        <v>2715600</v>
+        <v>2708200</v>
       </c>
       <c r="F17" s="3">
-        <v>1762600</v>
+        <v>1757700</v>
       </c>
       <c r="G17" s="3">
-        <v>1474000</v>
+        <v>1470000</v>
       </c>
       <c r="H17" s="3">
-        <v>1625700</v>
+        <v>1621300</v>
       </c>
       <c r="I17" s="3">
-        <v>1747900</v>
+        <v>1743100</v>
       </c>
       <c r="J17" s="3">
-        <v>1759200</v>
+        <v>1754400</v>
       </c>
       <c r="K17" s="3">
         <v>1721800</v>
@@ -1038,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>870700</v>
+        <v>868300</v>
       </c>
       <c r="E18" s="3">
-        <v>934500</v>
+        <v>932000</v>
       </c>
       <c r="F18" s="3">
-        <v>1507300</v>
+        <v>1503200</v>
       </c>
       <c r="G18" s="3">
-        <v>1288900</v>
+        <v>1285400</v>
       </c>
       <c r="H18" s="3">
-        <v>975400</v>
+        <v>972800</v>
       </c>
       <c r="I18" s="3">
-        <v>1264400</v>
+        <v>1260900</v>
       </c>
       <c r="J18" s="3">
-        <v>1492600</v>
+        <v>1488600</v>
       </c>
       <c r="K18" s="3">
         <v>1507300</v>
@@ -1090,25 +1092,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-410000</v>
+        <v>-408900</v>
       </c>
       <c r="E20" s="3">
-        <v>-526000</v>
+        <v>-524600</v>
       </c>
       <c r="F20" s="3">
-        <v>-477700</v>
+        <v>-476400</v>
       </c>
       <c r="G20" s="3">
-        <v>-322500</v>
+        <v>-321700</v>
       </c>
       <c r="H20" s="3">
-        <v>-388800</v>
+        <v>-387800</v>
       </c>
       <c r="I20" s="3">
-        <v>-448800</v>
+        <v>-447500</v>
       </c>
       <c r="J20" s="3">
-        <v>-416600</v>
+        <v>-415400</v>
       </c>
       <c r="K20" s="3">
         <v>-414900</v>
@@ -1126,22 +1128,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>587900</v>
+        <v>579200</v>
       </c>
       <c r="E21" s="3">
-        <v>528900</v>
+        <v>469400</v>
       </c>
       <c r="F21" s="3">
-        <v>1091900</v>
+        <v>1090200</v>
       </c>
       <c r="G21" s="3">
-        <v>1030000</v>
+        <v>1031500</v>
       </c>
       <c r="H21" s="3">
-        <v>654600</v>
+        <v>655700</v>
       </c>
       <c r="I21" s="3">
-        <v>886600</v>
+        <v>902000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
@@ -1198,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>460600</v>
+        <v>459400</v>
       </c>
       <c r="E23" s="3">
-        <v>408500</v>
+        <v>407400</v>
       </c>
       <c r="F23" s="3">
-        <v>1029600</v>
+        <v>1026800</v>
       </c>
       <c r="G23" s="3">
-        <v>966400</v>
+        <v>963700</v>
       </c>
       <c r="H23" s="3">
-        <v>586600</v>
+        <v>585000</v>
       </c>
       <c r="I23" s="3">
-        <v>815600</v>
+        <v>813400</v>
       </c>
       <c r="J23" s="3">
-        <v>1076100</v>
+        <v>1073100</v>
       </c>
       <c r="K23" s="3">
         <v>1092400</v>
@@ -1240,19 +1242,19 @@
         <v>-17600</v>
       </c>
       <c r="F24" s="3">
-        <v>192400</v>
+        <v>191800</v>
       </c>
       <c r="G24" s="3">
-        <v>152600</v>
+        <v>152200</v>
       </c>
       <c r="H24" s="3">
-        <v>136300</v>
+        <v>135900</v>
       </c>
       <c r="I24" s="3">
-        <v>134000</v>
+        <v>133600</v>
       </c>
       <c r="J24" s="3">
-        <v>210800</v>
+        <v>210200</v>
       </c>
       <c r="K24" s="3">
         <v>229000</v>
@@ -1306,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>470700</v>
+        <v>469400</v>
       </c>
       <c r="E26" s="3">
-        <v>426100</v>
+        <v>425000</v>
       </c>
       <c r="F26" s="3">
-        <v>837200</v>
+        <v>834900</v>
       </c>
       <c r="G26" s="3">
-        <v>813700</v>
+        <v>811500</v>
       </c>
       <c r="H26" s="3">
-        <v>450300</v>
+        <v>449000</v>
       </c>
       <c r="I26" s="3">
-        <v>681600</v>
+        <v>679800</v>
       </c>
       <c r="J26" s="3">
-        <v>865300</v>
+        <v>862900</v>
       </c>
       <c r="K26" s="3">
         <v>863400</v>
@@ -1342,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>360500</v>
+        <v>359500</v>
       </c>
       <c r="E27" s="3">
-        <v>329600</v>
+        <v>328700</v>
       </c>
       <c r="F27" s="3">
-        <v>740400</v>
+        <v>738400</v>
       </c>
       <c r="G27" s="3">
-        <v>587900</v>
+        <v>586200</v>
       </c>
       <c r="H27" s="3">
-        <v>373500</v>
+        <v>372500</v>
       </c>
       <c r="I27" s="3">
-        <v>599000</v>
+        <v>597300</v>
       </c>
       <c r="J27" s="3">
-        <v>808700</v>
+        <v>806500</v>
       </c>
       <c r="K27" s="3">
         <v>808800</v>
@@ -1423,13 +1425,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>529500</v>
+        <v>528000</v>
       </c>
       <c r="H29" s="3">
-        <v>38800</v>
+        <v>38700</v>
       </c>
       <c r="I29" s="3">
-        <v>38600</v>
+        <v>38500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1522,25 +1524,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>410000</v>
+        <v>408900</v>
       </c>
       <c r="E32" s="3">
-        <v>526000</v>
+        <v>524600</v>
       </c>
       <c r="F32" s="3">
-        <v>477700</v>
+        <v>476400</v>
       </c>
       <c r="G32" s="3">
-        <v>322500</v>
+        <v>321700</v>
       </c>
       <c r="H32" s="3">
-        <v>388800</v>
+        <v>387800</v>
       </c>
       <c r="I32" s="3">
-        <v>448800</v>
+        <v>447500</v>
       </c>
       <c r="J32" s="3">
-        <v>416600</v>
+        <v>415400</v>
       </c>
       <c r="K32" s="3">
         <v>414900</v>
@@ -1558,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>360500</v>
+        <v>359500</v>
       </c>
       <c r="E33" s="3">
-        <v>329600</v>
+        <v>328700</v>
       </c>
       <c r="F33" s="3">
-        <v>740400</v>
+        <v>738400</v>
       </c>
       <c r="G33" s="3">
-        <v>1117300</v>
+        <v>1114300</v>
       </c>
       <c r="H33" s="3">
-        <v>412300</v>
+        <v>411200</v>
       </c>
       <c r="I33" s="3">
-        <v>637600</v>
+        <v>635800</v>
       </c>
       <c r="J33" s="3">
-        <v>808700</v>
+        <v>806500</v>
       </c>
       <c r="K33" s="3">
         <v>808800</v>
@@ -1630,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>360500</v>
+        <v>359500</v>
       </c>
       <c r="E35" s="3">
-        <v>329600</v>
+        <v>328700</v>
       </c>
       <c r="F35" s="3">
-        <v>740400</v>
+        <v>738400</v>
       </c>
       <c r="G35" s="3">
-        <v>1117300</v>
+        <v>1114300</v>
       </c>
       <c r="H35" s="3">
-        <v>412300</v>
+        <v>411200</v>
       </c>
       <c r="I35" s="3">
-        <v>637600</v>
+        <v>635800</v>
       </c>
       <c r="J35" s="3">
-        <v>808700</v>
+        <v>806500</v>
       </c>
       <c r="K35" s="3">
         <v>808800</v>
@@ -1739,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7036900</v>
+        <v>7181900</v>
       </c>
       <c r="E41" s="3">
-        <v>7201600</v>
+        <v>6563800</v>
       </c>
       <c r="F41" s="3">
-        <v>6581800</v>
+        <v>6128200</v>
       </c>
       <c r="G41" s="3">
-        <v>6145100</v>
+        <v>7728800</v>
       </c>
       <c r="H41" s="3">
-        <v>7750000</v>
+        <v>8361100</v>
       </c>
       <c r="I41" s="3">
-        <v>8384100</v>
+        <v>8809300</v>
       </c>
       <c r="J41" s="3">
-        <v>8833500</v>
+        <v>8969800</v>
       </c>
       <c r="K41" s="3">
         <v>8854000</v>
@@ -1775,25 +1777,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30515200</v>
+        <v>29562400</v>
       </c>
       <c r="E42" s="3">
-        <v>29643600</v>
+        <v>31190300</v>
       </c>
       <c r="F42" s="3">
-        <v>31276000</v>
+        <v>29738200</v>
       </c>
       <c r="G42" s="3">
-        <v>29819900</v>
+        <v>11479200</v>
       </c>
       <c r="H42" s="3">
-        <v>11510800</v>
+        <v>9285100</v>
       </c>
       <c r="I42" s="3">
-        <v>9310600</v>
+        <v>14807300</v>
       </c>
       <c r="J42" s="3">
-        <v>14848000</v>
+        <v>16124900</v>
       </c>
       <c r="K42" s="3">
         <v>17747500</v>
@@ -1955,25 +1957,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1142900</v>
+        <v>1169700</v>
       </c>
       <c r="E47" s="3">
-        <v>1172900</v>
+        <v>1270100</v>
       </c>
       <c r="F47" s="3">
-        <v>1273600</v>
+        <v>1162900</v>
       </c>
       <c r="G47" s="3">
-        <v>1166100</v>
+        <v>1201200</v>
       </c>
       <c r="H47" s="3">
-        <v>1204500</v>
+        <v>765700</v>
       </c>
       <c r="I47" s="3">
-        <v>767800</v>
+        <v>734100</v>
       </c>
       <c r="J47" s="3">
-        <v>736200</v>
+        <v>774900</v>
       </c>
       <c r="K47" s="3">
         <v>615200</v>
@@ -1991,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1768400</v>
+        <v>1791700</v>
       </c>
       <c r="E48" s="3">
-        <v>1796700</v>
+        <v>1825200</v>
       </c>
       <c r="F48" s="3">
-        <v>1830300</v>
+        <v>1677100</v>
       </c>
       <c r="G48" s="3">
-        <v>1681700</v>
+        <v>1624200</v>
       </c>
       <c r="H48" s="3">
-        <v>1628700</v>
+        <v>1527400</v>
       </c>
       <c r="I48" s="3">
-        <v>1531600</v>
+        <v>1693900</v>
       </c>
       <c r="J48" s="3">
-        <v>1698600</v>
+        <v>1671000</v>
       </c>
       <c r="K48" s="3">
         <v>1741700</v>
@@ -2027,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>240800</v>
+        <v>243600</v>
       </c>
       <c r="E49" s="3">
-        <v>244200</v>
+        <v>245400</v>
       </c>
       <c r="F49" s="3">
-        <v>246000</v>
+        <v>247100</v>
       </c>
       <c r="G49" s="3">
-        <v>247800</v>
+        <v>249600</v>
       </c>
       <c r="H49" s="3">
-        <v>250200</v>
+        <v>336200</v>
       </c>
       <c r="I49" s="3">
-        <v>337100</v>
+        <v>494700</v>
       </c>
       <c r="J49" s="3">
-        <v>496000</v>
+        <v>503800</v>
       </c>
       <c r="K49" s="3">
         <v>513600</v>
@@ -2135,25 +2137,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>526900</v>
+        <v>3653400</v>
       </c>
       <c r="E52" s="3">
-        <v>3663500</v>
+        <v>204100</v>
       </c>
       <c r="F52" s="3">
-        <v>204600</v>
+        <v>148900</v>
       </c>
       <c r="G52" s="3">
-        <v>149300</v>
+        <v>136100</v>
       </c>
       <c r="H52" s="3">
-        <v>136400</v>
+        <v>738500</v>
       </c>
       <c r="I52" s="3">
-        <v>740500</v>
+        <v>23100</v>
       </c>
       <c r="J52" s="3">
-        <v>23100</v>
+        <v>12200</v>
       </c>
       <c r="K52" s="3">
         <v>15400</v>
@@ -2207,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115920000</v>
+        <v>112666000</v>
       </c>
       <c r="E54" s="3">
-        <v>112976000</v>
+        <v>110218000</v>
       </c>
       <c r="F54" s="3">
-        <v>110520000</v>
+        <v>106938000</v>
       </c>
       <c r="G54" s="3">
-        <v>107232000</v>
+        <v>103051000</v>
       </c>
       <c r="H54" s="3">
-        <v>103334000</v>
+        <v>97543300</v>
       </c>
       <c r="I54" s="3">
-        <v>97811300</v>
+        <v>99538000</v>
       </c>
       <c r="J54" s="3">
-        <v>99811400</v>
+        <v>101389000</v>
       </c>
       <c r="K54" s="3">
         <v>97056500</v>
@@ -2274,26 +2276,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>235900</v>
       </c>
       <c r="E57" s="3">
-        <v>236600</v>
+        <v>456700</v>
       </c>
       <c r="F57" s="3">
-        <v>457900</v>
+        <v>417700</v>
       </c>
       <c r="G57" s="3">
-        <v>418900</v>
+        <v>406000</v>
       </c>
       <c r="H57" s="3">
-        <v>407100</v>
+        <v>485600</v>
       </c>
       <c r="I57" s="3">
-        <v>486900</v>
+        <v>543800</v>
       </c>
       <c r="J57" s="3">
-        <v>545300</v>
+        <v>618200</v>
       </c>
       <c r="K57" s="3">
         <v>531800</v>
@@ -2310,26 +2312,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
+      <c r="D58" s="3">
+        <v>541200</v>
       </c>
       <c r="E58" s="3">
-        <v>542600</v>
+        <v>663100</v>
       </c>
       <c r="F58" s="3">
-        <v>664900</v>
+        <v>51800</v>
       </c>
       <c r="G58" s="3">
-        <v>52000</v>
+        <v>69800</v>
       </c>
       <c r="H58" s="3">
-        <v>70000</v>
+        <v>1731200</v>
       </c>
       <c r="I58" s="3">
-        <v>1736000</v>
+        <v>989100</v>
       </c>
       <c r="J58" s="3">
-        <v>991800</v>
+        <v>1747800</v>
       </c>
       <c r="K58" s="3">
         <v>443900</v>
@@ -2347,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122400</v>
+        <v>79500</v>
       </c>
       <c r="E59" s="3">
-        <v>79700</v>
+        <v>267900</v>
       </c>
       <c r="F59" s="3">
-        <v>268600</v>
+        <v>183100</v>
       </c>
       <c r="G59" s="3">
-        <v>183600</v>
+        <v>147800</v>
       </c>
       <c r="H59" s="3">
-        <v>148200</v>
+        <v>204500</v>
       </c>
       <c r="I59" s="3">
-        <v>205000</v>
+        <v>168800</v>
       </c>
       <c r="J59" s="3">
-        <v>169300</v>
+        <v>149300</v>
       </c>
       <c r="K59" s="3">
         <v>174200</v>
@@ -2419,25 +2421,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1575700</v>
+        <v>1535800</v>
       </c>
       <c r="E61" s="3">
-        <v>1540000</v>
+        <v>1187400</v>
       </c>
       <c r="F61" s="3">
-        <v>1190700</v>
+        <v>1594300</v>
       </c>
       <c r="G61" s="3">
-        <v>1598700</v>
+        <v>1639800</v>
       </c>
       <c r="H61" s="3">
-        <v>1644300</v>
+        <v>1805400</v>
       </c>
       <c r="I61" s="3">
-        <v>1810300</v>
+        <v>2908200</v>
       </c>
       <c r="J61" s="3">
-        <v>2916200</v>
+        <v>3317100</v>
       </c>
       <c r="K61" s="3">
         <v>1919600</v>
@@ -2455,25 +2457,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>71400</v>
+        <v>58600</v>
       </c>
       <c r="E62" s="3">
-        <v>58800</v>
+        <v>74400</v>
       </c>
       <c r="F62" s="3">
-        <v>74600</v>
+        <v>61500</v>
       </c>
       <c r="G62" s="3">
-        <v>61700</v>
+        <v>70200</v>
       </c>
       <c r="H62" s="3">
-        <v>70400</v>
+        <v>58900</v>
       </c>
       <c r="I62" s="3">
-        <v>59000</v>
+        <v>68000</v>
       </c>
       <c r="J62" s="3">
-        <v>68200</v>
+        <v>87400</v>
       </c>
       <c r="K62" s="3">
         <v>83300</v>
@@ -2599,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>101135000</v>
+        <v>98289900</v>
       </c>
       <c r="E66" s="3">
-        <v>98560000</v>
+        <v>96297700</v>
       </c>
       <c r="F66" s="3">
-        <v>96562200</v>
+        <v>94106900</v>
       </c>
       <c r="G66" s="3">
-        <v>94365500</v>
+        <v>90519000</v>
       </c>
       <c r="H66" s="3">
-        <v>90767700</v>
+        <v>86913000</v>
       </c>
       <c r="I66" s="3">
-        <v>87151800</v>
+        <v>89037300</v>
       </c>
       <c r="J66" s="3">
-        <v>89282000</v>
+        <v>92613900</v>
       </c>
       <c r="K66" s="3">
         <v>88858700</v>
@@ -2795,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7681400</v>
+        <v>6709200</v>
       </c>
       <c r="E72" s="3">
-        <v>6727700</v>
+        <v>6544900</v>
       </c>
       <c r="F72" s="3">
-        <v>6562900</v>
+        <v>6483600</v>
       </c>
       <c r="G72" s="3">
-        <v>6501500</v>
+        <v>6146100</v>
       </c>
       <c r="H72" s="3">
-        <v>6162900</v>
+        <v>5366800</v>
       </c>
       <c r="I72" s="3">
-        <v>5381600</v>
+        <v>5189600</v>
       </c>
       <c r="J72" s="3">
-        <v>5203900</v>
+        <v>4890600</v>
       </c>
       <c r="K72" s="3">
         <v>6753700</v>
@@ -2939,25 +2941,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14785400</v>
+        <v>14376300</v>
       </c>
       <c r="E76" s="3">
-        <v>14415800</v>
+        <v>13919900</v>
       </c>
       <c r="F76" s="3">
-        <v>13958100</v>
+        <v>12830700</v>
       </c>
       <c r="G76" s="3">
-        <v>12866000</v>
+        <v>12532100</v>
       </c>
       <c r="H76" s="3">
-        <v>12566600</v>
+        <v>10630300</v>
       </c>
       <c r="I76" s="3">
-        <v>10659500</v>
+        <v>10500600</v>
       </c>
       <c r="J76" s="3">
-        <v>10529500</v>
+        <v>8774600</v>
       </c>
       <c r="K76" s="3">
         <v>8197800</v>
@@ -3052,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>360500</v>
+        <v>359500</v>
       </c>
       <c r="E81" s="3">
-        <v>329600</v>
+        <v>328700</v>
       </c>
       <c r="F81" s="3">
-        <v>740400</v>
+        <v>738400</v>
       </c>
       <c r="G81" s="3">
-        <v>1117300</v>
+        <v>1114300</v>
       </c>
       <c r="H81" s="3">
-        <v>412300</v>
+        <v>411200</v>
       </c>
       <c r="I81" s="3">
-        <v>637600</v>
+        <v>635800</v>
       </c>
       <c r="J81" s="3">
-        <v>808700</v>
+        <v>806500</v>
       </c>
       <c r="K81" s="3">
         <v>808800</v>
@@ -3104,22 +3106,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>127100</v>
+        <v>119900</v>
       </c>
       <c r="E83" s="3">
-        <v>120200</v>
+        <v>62000</v>
       </c>
       <c r="F83" s="3">
-        <v>62200</v>
+        <v>63400</v>
       </c>
       <c r="G83" s="3">
-        <v>63600</v>
+        <v>67800</v>
       </c>
       <c r="H83" s="3">
-        <v>68000</v>
+        <v>70700</v>
       </c>
       <c r="I83" s="3">
-        <v>70900</v>
+        <v>88700</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
@@ -3320,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2256400</v>
+        <v>1138100</v>
       </c>
       <c r="E89" s="3">
-        <v>1141200</v>
+        <v>335700</v>
       </c>
       <c r="F89" s="3">
-        <v>336600</v>
+        <v>1613400</v>
       </c>
       <c r="G89" s="3">
-        <v>1617800</v>
+        <v>-2387700</v>
       </c>
       <c r="H89" s="3">
-        <v>-2394200</v>
+        <v>6542400</v>
       </c>
       <c r="I89" s="3">
-        <v>6560300</v>
+        <v>-4687700</v>
       </c>
       <c r="J89" s="3">
-        <v>-4700600</v>
+        <v>-2322300</v>
       </c>
       <c r="K89" s="3">
         <v>-2346700</v>
@@ -3372,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-76500</v>
+        <v>-128700</v>
       </c>
       <c r="E91" s="3">
-        <v>-129000</v>
+        <v>-83700</v>
       </c>
       <c r="F91" s="3">
-        <v>-83900</v>
+        <v>-52100</v>
       </c>
       <c r="G91" s="3">
-        <v>-52200</v>
+        <v>-57100</v>
       </c>
       <c r="H91" s="3">
-        <v>-57200</v>
+        <v>-56800</v>
       </c>
       <c r="I91" s="3">
-        <v>-57000</v>
+        <v>-38900</v>
       </c>
       <c r="J91" s="3">
-        <v>-39000</v>
+        <v>-95500</v>
       </c>
       <c r="K91" s="3">
         <v>-96500</v>
@@ -3480,22 +3482,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>47000</v>
+        <v>-14600</v>
       </c>
       <c r="E94" s="3">
-        <v>-14700</v>
+        <v>-80600</v>
       </c>
       <c r="F94" s="3">
-        <v>-80900</v>
+        <v>531900</v>
       </c>
       <c r="G94" s="3">
-        <v>533300</v>
+        <v>230200</v>
       </c>
       <c r="H94" s="3">
-        <v>230800</v>
+        <v>-68400</v>
       </c>
       <c r="I94" s="3">
-        <v>-68600</v>
+        <v>-176600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
@@ -3532,25 +3534,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-173500</v>
+        <v>-104800</v>
       </c>
       <c r="E96" s="3">
-        <v>-105100</v>
+        <v>-106000</v>
       </c>
       <c r="F96" s="3">
-        <v>-106300</v>
+        <v>-268300</v>
       </c>
       <c r="G96" s="3">
-        <v>-269000</v>
+        <v>-59600</v>
       </c>
       <c r="H96" s="3">
-        <v>-59800</v>
+        <v>-104100</v>
       </c>
       <c r="I96" s="3">
-        <v>-104400</v>
+        <v>-126200</v>
       </c>
       <c r="J96" s="3">
-        <v>-126600</v>
+        <v>-95200</v>
       </c>
       <c r="K96" s="3">
         <v>-96200</v>
@@ -3676,22 +3678,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-205000</v>
+        <v>51500</v>
       </c>
       <c r="E100" s="3">
-        <v>51600</v>
+        <v>-325600</v>
       </c>
       <c r="F100" s="3">
-        <v>-326500</v>
+        <v>-1055800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1058700</v>
+        <v>-1683600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1688200</v>
+        <v>-1032900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1035700</v>
+        <v>2568600</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
@@ -3712,22 +3714,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>336900</v>
+        <v>-77100</v>
       </c>
       <c r="E101" s="3">
-        <v>-77300</v>
+        <v>-433900</v>
       </c>
       <c r="F101" s="3">
-        <v>-435100</v>
+        <v>711700</v>
       </c>
       <c r="G101" s="3">
-        <v>713700</v>
+        <v>-633500</v>
       </c>
       <c r="H101" s="3">
-        <v>-635300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-476700</v>
+        <v>-475400</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>5</v>
@@ -3748,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2435200</v>
+        <v>1097800</v>
       </c>
       <c r="E102" s="3">
-        <v>1100900</v>
+        <v>-504500</v>
       </c>
       <c r="F102" s="3">
-        <v>-505900</v>
+        <v>1801200</v>
       </c>
       <c r="G102" s="3">
-        <v>1806100</v>
+        <v>-4474600</v>
       </c>
       <c r="H102" s="3">
-        <v>-4486900</v>
+        <v>4965700</v>
       </c>
       <c r="I102" s="3">
-        <v>4979300</v>
+        <v>-2295700</v>
       </c>
       <c r="J102" s="3">
-        <v>-2302000</v>
+        <v>-1239600</v>
       </c>
       <c r="K102" s="3">
         <v>-1252700</v>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>BKEAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,102 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2688800</v>
+        <v>2301100</v>
       </c>
       <c r="E8" s="3">
-        <v>3640200</v>
+        <v>2690100</v>
       </c>
       <c r="F8" s="3">
-        <v>3260900</v>
+        <v>3641900</v>
       </c>
       <c r="G8" s="3">
-        <v>2755300</v>
+        <v>3262500</v>
       </c>
       <c r="H8" s="3">
-        <v>2594000</v>
+        <v>2756600</v>
       </c>
       <c r="I8" s="3">
-        <v>3004000</v>
+        <v>2595300</v>
       </c>
       <c r="J8" s="3">
+        <v>3005400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3243000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3229100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2915200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2671100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,9 +794,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -824,9 +833,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +853,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,9 +889,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,9 +928,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -948,45 +967,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-123500</v>
+      </c>
+      <c r="E15" s="3">
         <v>-126800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-119900</v>
       </c>
-      <c r="F15" s="3">
-        <v>-62000</v>
-      </c>
       <c r="G15" s="3">
-        <v>-63400</v>
+        <v>-62100</v>
       </c>
       <c r="H15" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="I15" s="3">
         <v>-63700</v>
       </c>
-      <c r="I15" s="3">
-        <v>-67100</v>
-      </c>
       <c r="J15" s="3">
+        <v>-67200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-88700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-90400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-88900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-85600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -998,80 +1023,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1820500</v>
+        <v>1063100</v>
       </c>
       <c r="E17" s="3">
-        <v>2708200</v>
+        <v>1821400</v>
       </c>
       <c r="F17" s="3">
-        <v>1757700</v>
+        <v>2709500</v>
       </c>
       <c r="G17" s="3">
-        <v>1470000</v>
+        <v>1758600</v>
       </c>
       <c r="H17" s="3">
-        <v>1621300</v>
+        <v>1470600</v>
       </c>
       <c r="I17" s="3">
-        <v>1743100</v>
+        <v>1622100</v>
       </c>
       <c r="J17" s="3">
+        <v>1743900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1754400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1721800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1690200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1495000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>868300</v>
+        <v>1238000</v>
       </c>
       <c r="E18" s="3">
-        <v>932000</v>
+        <v>868700</v>
       </c>
       <c r="F18" s="3">
-        <v>1503200</v>
+        <v>932400</v>
       </c>
       <c r="G18" s="3">
-        <v>1285400</v>
+        <v>1503900</v>
       </c>
       <c r="H18" s="3">
-        <v>972800</v>
+        <v>1286000</v>
       </c>
       <c r="I18" s="3">
-        <v>1260900</v>
+        <v>973200</v>
       </c>
       <c r="J18" s="3">
+        <v>1261500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1488600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1507300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1224900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1176100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,80 +1118,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-408900</v>
+        <v>-456000</v>
       </c>
       <c r="E20" s="3">
-        <v>-524600</v>
+        <v>-409100</v>
       </c>
       <c r="F20" s="3">
-        <v>-476400</v>
+        <v>-524800</v>
       </c>
       <c r="G20" s="3">
-        <v>-321700</v>
+        <v>-476700</v>
       </c>
       <c r="H20" s="3">
-        <v>-387800</v>
+        <v>-321800</v>
       </c>
       <c r="I20" s="3">
-        <v>-447500</v>
+        <v>-388000</v>
       </c>
       <c r="J20" s="3">
+        <v>-447700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-415400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-414900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-250600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-439900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>579200</v>
+        <v>905500</v>
       </c>
       <c r="E21" s="3">
-        <v>469400</v>
+        <v>586400</v>
       </c>
       <c r="F21" s="3">
-        <v>1090200</v>
+        <v>527500</v>
       </c>
       <c r="G21" s="3">
-        <v>1031500</v>
+        <v>1089300</v>
       </c>
       <c r="H21" s="3">
-        <v>655700</v>
+        <v>1027600</v>
       </c>
       <c r="I21" s="3">
-        <v>902000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>653000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>884500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>1063200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>821800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1193,81 +1232,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>459400</v>
+        <v>782000</v>
       </c>
       <c r="E23" s="3">
-        <v>407400</v>
+        <v>459600</v>
       </c>
       <c r="F23" s="3">
-        <v>1026800</v>
+        <v>407600</v>
       </c>
       <c r="G23" s="3">
-        <v>963700</v>
+        <v>1027200</v>
       </c>
       <c r="H23" s="3">
-        <v>585000</v>
+        <v>964200</v>
       </c>
       <c r="I23" s="3">
-        <v>813400</v>
+        <v>585300</v>
       </c>
       <c r="J23" s="3">
+        <v>813800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1073100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1092400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>974300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>736100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>104900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-17600</v>
       </c>
-      <c r="F24" s="3">
-        <v>191800</v>
-      </c>
       <c r="G24" s="3">
-        <v>152200</v>
+        <v>191900</v>
       </c>
       <c r="H24" s="3">
-        <v>135900</v>
+        <v>152300</v>
       </c>
       <c r="I24" s="3">
-        <v>133600</v>
+        <v>136000</v>
       </c>
       <c r="J24" s="3">
+        <v>133700</v>
+      </c>
+      <c r="K24" s="3">
         <v>210200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>229000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>181700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>166400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1301,81 +1349,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>469400</v>
+        <v>677100</v>
       </c>
       <c r="E26" s="3">
-        <v>425000</v>
+        <v>469700</v>
       </c>
       <c r="F26" s="3">
-        <v>834900</v>
+        <v>425200</v>
       </c>
       <c r="G26" s="3">
-        <v>811500</v>
+        <v>835300</v>
       </c>
       <c r="H26" s="3">
-        <v>449000</v>
+        <v>811900</v>
       </c>
       <c r="I26" s="3">
-        <v>679800</v>
+        <v>449300</v>
       </c>
       <c r="J26" s="3">
+        <v>680100</v>
+      </c>
+      <c r="K26" s="3">
         <v>862900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>863400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>792600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>569700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>359500</v>
+        <v>568300</v>
       </c>
       <c r="E27" s="3">
-        <v>328700</v>
+        <v>359700</v>
       </c>
       <c r="F27" s="3">
-        <v>738400</v>
+        <v>328800</v>
       </c>
       <c r="G27" s="3">
-        <v>586200</v>
+        <v>738700</v>
       </c>
       <c r="H27" s="3">
-        <v>372500</v>
+        <v>586500</v>
       </c>
       <c r="I27" s="3">
-        <v>597300</v>
+        <v>372700</v>
       </c>
       <c r="J27" s="3">
+        <v>597600</v>
+      </c>
+      <c r="K27" s="3">
         <v>806500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>808800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>737300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>515800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1409,9 +1466,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1421,21 +1481,21 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
-        <v>528000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>528300</v>
+      </c>
+      <c r="I29" s="3">
         <v>38700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>38500</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1445,9 +1505,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1481,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1517,81 +1583,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>408900</v>
+        <v>456000</v>
       </c>
       <c r="E32" s="3">
-        <v>524600</v>
+        <v>409100</v>
       </c>
       <c r="F32" s="3">
-        <v>476400</v>
+        <v>524800</v>
       </c>
       <c r="G32" s="3">
-        <v>321700</v>
+        <v>476700</v>
       </c>
       <c r="H32" s="3">
-        <v>387800</v>
+        <v>321800</v>
       </c>
       <c r="I32" s="3">
-        <v>447500</v>
+        <v>388000</v>
       </c>
       <c r="J32" s="3">
+        <v>447700</v>
+      </c>
+      <c r="K32" s="3">
         <v>415400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>414900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>250600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>439900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>359500</v>
+        <v>568300</v>
       </c>
       <c r="E33" s="3">
-        <v>328700</v>
+        <v>359700</v>
       </c>
       <c r="F33" s="3">
-        <v>738400</v>
+        <v>328800</v>
       </c>
       <c r="G33" s="3">
-        <v>1114300</v>
+        <v>738700</v>
       </c>
       <c r="H33" s="3">
-        <v>411200</v>
+        <v>1114800</v>
       </c>
       <c r="I33" s="3">
-        <v>635800</v>
+        <v>411400</v>
       </c>
       <c r="J33" s="3">
+        <v>636100</v>
+      </c>
+      <c r="K33" s="3">
         <v>806500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>808800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>737300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>515800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1625,86 +1700,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>359500</v>
+        <v>568300</v>
       </c>
       <c r="E35" s="3">
-        <v>328700</v>
+        <v>359700</v>
       </c>
       <c r="F35" s="3">
-        <v>738400</v>
+        <v>328800</v>
       </c>
       <c r="G35" s="3">
-        <v>1114300</v>
+        <v>738700</v>
       </c>
       <c r="H35" s="3">
-        <v>411200</v>
+        <v>1114800</v>
       </c>
       <c r="I35" s="3">
-        <v>635800</v>
+        <v>411400</v>
       </c>
       <c r="J35" s="3">
+        <v>636100</v>
+      </c>
+      <c r="K35" s="3">
         <v>806500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>808800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>737300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>515800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1719,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,80 +1820,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7181900</v>
+        <v>7021000</v>
       </c>
       <c r="E41" s="3">
-        <v>6563800</v>
+        <v>7185200</v>
       </c>
       <c r="F41" s="3">
-        <v>6128200</v>
+        <v>6566900</v>
       </c>
       <c r="G41" s="3">
-        <v>7728800</v>
+        <v>6131100</v>
       </c>
       <c r="H41" s="3">
-        <v>8361100</v>
+        <v>7732400</v>
       </c>
       <c r="I41" s="3">
-        <v>8809300</v>
+        <v>8365100</v>
       </c>
       <c r="J41" s="3">
+        <v>8813400</v>
+      </c>
+      <c r="K41" s="3">
         <v>8969800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8854000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11013100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9185400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>29562400</v>
+        <v>30445900</v>
       </c>
       <c r="E42" s="3">
-        <v>31190300</v>
+        <v>29576300</v>
       </c>
       <c r="F42" s="3">
-        <v>29738200</v>
+        <v>31205000</v>
       </c>
       <c r="G42" s="3">
-        <v>11479200</v>
+        <v>29752200</v>
       </c>
       <c r="H42" s="3">
-        <v>9285100</v>
+        <v>11484600</v>
       </c>
       <c r="I42" s="3">
-        <v>14807300</v>
+        <v>9289400</v>
       </c>
       <c r="J42" s="3">
+        <v>14814300</v>
+      </c>
+      <c r="K42" s="3">
         <v>16124900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17747500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14642900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14219400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1842,9 +1934,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1878,9 +1973,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1914,9 +2012,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1950,117 +2051,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1169700</v>
+        <v>1140300</v>
       </c>
       <c r="E47" s="3">
-        <v>1270100</v>
+        <v>1170200</v>
       </c>
       <c r="F47" s="3">
-        <v>1162900</v>
+        <v>1270700</v>
       </c>
       <c r="G47" s="3">
-        <v>1201200</v>
+        <v>1163500</v>
       </c>
       <c r="H47" s="3">
-        <v>765700</v>
+        <v>1201700</v>
       </c>
       <c r="I47" s="3">
-        <v>734100</v>
+        <v>766100</v>
       </c>
       <c r="J47" s="3">
+        <v>734500</v>
+      </c>
+      <c r="K47" s="3">
         <v>774900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>615200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>602400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>489000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1791700</v>
+        <v>1764400</v>
       </c>
       <c r="E48" s="3">
-        <v>1825200</v>
+        <v>1792600</v>
       </c>
       <c r="F48" s="3">
-        <v>1677100</v>
+        <v>1826100</v>
       </c>
       <c r="G48" s="3">
-        <v>1624200</v>
+        <v>1677900</v>
       </c>
       <c r="H48" s="3">
-        <v>1527400</v>
+        <v>1625000</v>
       </c>
       <c r="I48" s="3">
-        <v>1693900</v>
+        <v>1528100</v>
       </c>
       <c r="J48" s="3">
+        <v>1694700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1671000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1741700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1616600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1617800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>243600</v>
+        <v>240200</v>
       </c>
       <c r="E49" s="3">
-        <v>245400</v>
+        <v>243700</v>
       </c>
       <c r="F49" s="3">
-        <v>247100</v>
+        <v>245500</v>
       </c>
       <c r="G49" s="3">
-        <v>249600</v>
+        <v>247300</v>
       </c>
       <c r="H49" s="3">
-        <v>336200</v>
+        <v>249700</v>
       </c>
       <c r="I49" s="3">
-        <v>494700</v>
+        <v>336300</v>
       </c>
       <c r="J49" s="3">
+        <v>494900</v>
+      </c>
+      <c r="K49" s="3">
         <v>503800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>513600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>520400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>539500</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2130,45 +2246,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3653400</v>
+        <v>525700</v>
       </c>
       <c r="E52" s="3">
-        <v>204100</v>
+        <v>3655100</v>
       </c>
       <c r="F52" s="3">
-        <v>148900</v>
+        <v>204200</v>
       </c>
       <c r="G52" s="3">
+        <v>149000</v>
+      </c>
+      <c r="H52" s="3">
         <v>136100</v>
       </c>
-      <c r="H52" s="3">
-        <v>738500</v>
-      </c>
       <c r="I52" s="3">
+        <v>738800</v>
+      </c>
+      <c r="J52" s="3">
         <v>23100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>48300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2202,45 +2324,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112666000</v>
+        <v>115657000</v>
       </c>
       <c r="E54" s="3">
-        <v>110218000</v>
+        <v>112719000</v>
       </c>
       <c r="F54" s="3">
-        <v>106938000</v>
+        <v>110270000</v>
       </c>
       <c r="G54" s="3">
-        <v>103051000</v>
+        <v>106988000</v>
       </c>
       <c r="H54" s="3">
-        <v>97543300</v>
+        <v>103100000</v>
       </c>
       <c r="I54" s="3">
-        <v>99538000</v>
+        <v>97589200</v>
       </c>
       <c r="J54" s="3">
+        <v>99584800</v>
+      </c>
+      <c r="K54" s="3">
         <v>101389000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>97056500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89137400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78259500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2255,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2271,116 +2400,126 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>235900</v>
+        <v>241400</v>
       </c>
       <c r="E57" s="3">
-        <v>456700</v>
+        <v>236000</v>
       </c>
       <c r="F57" s="3">
-        <v>417700</v>
+        <v>456900</v>
       </c>
       <c r="G57" s="3">
-        <v>406000</v>
+        <v>417900</v>
       </c>
       <c r="H57" s="3">
-        <v>485600</v>
+        <v>406200</v>
       </c>
       <c r="I57" s="3">
-        <v>543800</v>
+        <v>485800</v>
       </c>
       <c r="J57" s="3">
+        <v>544100</v>
+      </c>
+      <c r="K57" s="3">
         <v>618200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>531800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>541200</v>
+        <v>453000</v>
       </c>
       <c r="E58" s="3">
-        <v>663100</v>
+        <v>541400</v>
       </c>
       <c r="F58" s="3">
-        <v>51800</v>
+        <v>663400</v>
       </c>
       <c r="G58" s="3">
+        <v>51900</v>
+      </c>
+      <c r="H58" s="3">
         <v>69800</v>
       </c>
-      <c r="H58" s="3">
-        <v>1731200</v>
-      </c>
       <c r="I58" s="3">
-        <v>989100</v>
+        <v>1732000</v>
       </c>
       <c r="J58" s="3">
+        <v>989500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1747800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>443900</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>437600</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>122100</v>
+      </c>
+      <c r="E59" s="3">
         <v>79500</v>
       </c>
-      <c r="E59" s="3">
-        <v>267900</v>
-      </c>
       <c r="F59" s="3">
+        <v>268000</v>
+      </c>
+      <c r="G59" s="3">
         <v>183100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>147800</v>
       </c>
-      <c r="H59" s="3">
-        <v>204500</v>
-      </c>
       <c r="I59" s="3">
-        <v>168800</v>
+        <v>204600</v>
       </c>
       <c r="J59" s="3">
+        <v>168900</v>
+      </c>
+      <c r="K59" s="3">
         <v>149300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>174200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>127200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>60500</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2414,81 +2553,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1535800</v>
+        <v>1231800</v>
       </c>
       <c r="E61" s="3">
-        <v>1187400</v>
+        <v>1536500</v>
       </c>
       <c r="F61" s="3">
-        <v>1594300</v>
+        <v>1188000</v>
       </c>
       <c r="G61" s="3">
-        <v>1639800</v>
+        <v>1595000</v>
       </c>
       <c r="H61" s="3">
-        <v>1805400</v>
+        <v>1640500</v>
       </c>
       <c r="I61" s="3">
-        <v>2908200</v>
+        <v>1806200</v>
       </c>
       <c r="J61" s="3">
+        <v>2909600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3317100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1919600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2951900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2554400</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E62" s="3">
         <v>58600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>74400</v>
       </c>
-      <c r="F62" s="3">
-        <v>61500</v>
-      </c>
       <c r="G62" s="3">
+        <v>61600</v>
+      </c>
+      <c r="H62" s="3">
         <v>70200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>58900</v>
       </c>
-      <c r="I62" s="3">
-        <v>68000</v>
-      </c>
       <c r="J62" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K62" s="3">
         <v>87400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>83300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>80600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>59000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2522,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2558,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,45 +2748,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>98289900</v>
+        <v>100905000</v>
       </c>
       <c r="E66" s="3">
-        <v>96297700</v>
+        <v>98336200</v>
       </c>
       <c r="F66" s="3">
-        <v>94106900</v>
+        <v>96343000</v>
       </c>
       <c r="G66" s="3">
-        <v>90519000</v>
+        <v>94151300</v>
       </c>
       <c r="H66" s="3">
-        <v>86913000</v>
+        <v>90561600</v>
       </c>
       <c r="I66" s="3">
-        <v>89037300</v>
+        <v>86953900</v>
       </c>
       <c r="J66" s="3">
+        <v>89079300</v>
+      </c>
+      <c r="K66" s="3">
         <v>92613900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>88858700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>81776600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72164600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2647,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2682,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2718,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2754,9 +2921,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2790,45 +2960,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6709200</v>
+        <v>7041000</v>
       </c>
       <c r="E72" s="3">
-        <v>6544900</v>
+        <v>6712400</v>
       </c>
       <c r="F72" s="3">
-        <v>6483600</v>
+        <v>6548000</v>
       </c>
       <c r="G72" s="3">
-        <v>6146100</v>
+        <v>6486700</v>
       </c>
       <c r="H72" s="3">
-        <v>5366800</v>
+        <v>6149000</v>
       </c>
       <c r="I72" s="3">
-        <v>5189600</v>
+        <v>5369300</v>
       </c>
       <c r="J72" s="3">
+        <v>5192100</v>
+      </c>
+      <c r="K72" s="3">
         <v>4890600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6753700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6013600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4971100</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2898,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2934,45 +3116,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14376300</v>
+        <v>14751800</v>
       </c>
       <c r="E76" s="3">
-        <v>13919900</v>
+        <v>14383100</v>
       </c>
       <c r="F76" s="3">
-        <v>12830700</v>
+        <v>13926500</v>
       </c>
       <c r="G76" s="3">
-        <v>12532100</v>
+        <v>12836800</v>
       </c>
       <c r="H76" s="3">
-        <v>10630300</v>
+        <v>12538000</v>
       </c>
       <c r="I76" s="3">
-        <v>10500600</v>
+        <v>10635300</v>
       </c>
       <c r="J76" s="3">
+        <v>10505600</v>
+      </c>
+      <c r="K76" s="3">
         <v>8774600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8197800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7360700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6094800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3006,86 +3194,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>359500</v>
+        <v>568300</v>
       </c>
       <c r="E81" s="3">
-        <v>328700</v>
+        <v>359700</v>
       </c>
       <c r="F81" s="3">
-        <v>738400</v>
+        <v>328800</v>
       </c>
       <c r="G81" s="3">
-        <v>1114300</v>
+        <v>738700</v>
       </c>
       <c r="H81" s="3">
-        <v>411200</v>
+        <v>1114800</v>
       </c>
       <c r="I81" s="3">
-        <v>635800</v>
+        <v>411400</v>
       </c>
       <c r="J81" s="3">
+        <v>636100</v>
+      </c>
+      <c r="K81" s="3">
         <v>806500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>808800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>737300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>515800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3100,44 +3297,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>126800</v>
+      </c>
+      <c r="F83" s="3">
         <v>119900</v>
       </c>
-      <c r="E83" s="3">
-        <v>62000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>63400</v>
-      </c>
       <c r="G83" s="3">
+        <v>62100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>63500</v>
+      </c>
+      <c r="I83" s="3">
         <v>67800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>70700</v>
       </c>
-      <c r="I83" s="3">
-        <v>88700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>88900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>85600</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3171,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3207,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3243,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3279,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3315,45 +3528,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1138100</v>
+        <v>1233200</v>
       </c>
       <c r="E89" s="3">
-        <v>335700</v>
+        <v>2251300</v>
       </c>
       <c r="F89" s="3">
-        <v>1613400</v>
+        <v>1138600</v>
       </c>
       <c r="G89" s="3">
-        <v>-2387700</v>
+        <v>335800</v>
       </c>
       <c r="H89" s="3">
-        <v>6542400</v>
+        <v>1614200</v>
       </c>
       <c r="I89" s="3">
-        <v>-4687700</v>
+        <v>-2388800</v>
       </c>
       <c r="J89" s="3">
+        <v>6545400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2322300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2346700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>532200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1907700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3368,44 +3587,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-128700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-83700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-52100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-57100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-56800</v>
       </c>
-      <c r="I91" s="3">
-        <v>-38900</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-95500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-96500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-73900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3439,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3475,45 +3701,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14600</v>
+        <v>340500</v>
       </c>
       <c r="E94" s="3">
-        <v>-80600</v>
+        <v>46900</v>
       </c>
       <c r="F94" s="3">
-        <v>531900</v>
+        <v>-14700</v>
       </c>
       <c r="G94" s="3">
-        <v>230200</v>
+        <v>-80700</v>
       </c>
       <c r="H94" s="3">
+        <v>532100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>230300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-68400</v>
       </c>
-      <c r="I94" s="3">
-        <v>-176600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>84400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>72300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3528,44 +3760,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-104800</v>
+        <v>-214900</v>
       </c>
       <c r="E96" s="3">
+        <v>-173100</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-106000</v>
       </c>
-      <c r="F96" s="3">
-        <v>-268300</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
+        <v>-268400</v>
+      </c>
+      <c r="I96" s="3">
         <v>-59600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-104100</v>
       </c>
-      <c r="I96" s="3">
-        <v>-126200</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-95200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-96200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-120000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-148100</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3599,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3635,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3671,68 +3913,74 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-842600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-204600</v>
+      </c>
+      <c r="F100" s="3">
         <v>51500</v>
       </c>
-      <c r="E100" s="3">
-        <v>-325600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1055800</v>
-      </c>
       <c r="G100" s="3">
-        <v>-1683600</v>
+        <v>-325800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1032900</v>
+        <v>-1056300</v>
       </c>
       <c r="I100" s="3">
-        <v>2568600</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+        <v>-1684400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1033400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>2031000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1043700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>336100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-77100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-433900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>711700</v>
-      </c>
       <c r="G101" s="3">
-        <v>-633500</v>
+        <v>-434100</v>
       </c>
       <c r="H101" s="3">
-        <v>-475400</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+        <v>712100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-633800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-475600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3743,43 +3991,49 @@
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1097800</v>
+        <v>885000</v>
       </c>
       <c r="E102" s="3">
-        <v>-504500</v>
+        <v>2429700</v>
       </c>
       <c r="F102" s="3">
-        <v>1801200</v>
+        <v>1098400</v>
       </c>
       <c r="G102" s="3">
-        <v>-4474600</v>
+        <v>-504700</v>
       </c>
       <c r="H102" s="3">
-        <v>4965700</v>
+        <v>1802000</v>
       </c>
       <c r="I102" s="3">
-        <v>-2295700</v>
+        <v>-4476700</v>
       </c>
       <c r="J102" s="3">
+        <v>4968000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1239600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1252700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2647500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-791700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2301100</v>
+        <v>2301700</v>
       </c>
       <c r="E8" s="3">
-        <v>2690100</v>
+        <v>2690700</v>
       </c>
       <c r="F8" s="3">
-        <v>3641900</v>
+        <v>3642700</v>
       </c>
       <c r="G8" s="3">
-        <v>3262500</v>
+        <v>3263200</v>
       </c>
       <c r="H8" s="3">
-        <v>2756600</v>
+        <v>2757300</v>
       </c>
       <c r="I8" s="3">
-        <v>2595300</v>
+        <v>2595900</v>
       </c>
       <c r="J8" s="3">
-        <v>3005400</v>
+        <v>3006100</v>
       </c>
       <c r="K8" s="3">
         <v>3243000</v>
@@ -983,7 +983,7 @@
         <v>-126800</v>
       </c>
       <c r="F15" s="3">
-        <v>-119900</v>
+        <v>-120000</v>
       </c>
       <c r="G15" s="3">
         <v>-62100</v>
@@ -1030,25 +1030,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1063100</v>
+        <v>1063300</v>
       </c>
       <c r="E17" s="3">
-        <v>1821400</v>
+        <v>1821800</v>
       </c>
       <c r="F17" s="3">
-        <v>2709500</v>
+        <v>2710100</v>
       </c>
       <c r="G17" s="3">
-        <v>1758600</v>
+        <v>1759000</v>
       </c>
       <c r="H17" s="3">
-        <v>1470600</v>
+        <v>1471000</v>
       </c>
       <c r="I17" s="3">
-        <v>1622100</v>
+        <v>1622400</v>
       </c>
       <c r="J17" s="3">
-        <v>1743900</v>
+        <v>1744300</v>
       </c>
       <c r="K17" s="3">
         <v>1754400</v>
@@ -1069,25 +1069,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1238000</v>
+        <v>1238300</v>
       </c>
       <c r="E18" s="3">
-        <v>868700</v>
+        <v>868900</v>
       </c>
       <c r="F18" s="3">
-        <v>932400</v>
+        <v>932600</v>
       </c>
       <c r="G18" s="3">
-        <v>1503900</v>
+        <v>1504300</v>
       </c>
       <c r="H18" s="3">
-        <v>1286000</v>
+        <v>1286300</v>
       </c>
       <c r="I18" s="3">
-        <v>973200</v>
+        <v>973400</v>
       </c>
       <c r="J18" s="3">
-        <v>1261500</v>
+        <v>1261800</v>
       </c>
       <c r="K18" s="3">
         <v>1488600</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-456000</v>
+        <v>-456100</v>
       </c>
       <c r="E20" s="3">
-        <v>-409100</v>
+        <v>-409200</v>
       </c>
       <c r="F20" s="3">
-        <v>-524800</v>
+        <v>-525000</v>
       </c>
       <c r="G20" s="3">
-        <v>-476700</v>
+        <v>-476800</v>
       </c>
       <c r="H20" s="3">
-        <v>-321800</v>
+        <v>-321900</v>
       </c>
       <c r="I20" s="3">
         <v>-388000</v>
       </c>
       <c r="J20" s="3">
-        <v>-447700</v>
+        <v>-447800</v>
       </c>
       <c r="K20" s="3">
         <v>-415400</v>
@@ -1164,25 +1164,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>905500</v>
+        <v>905700</v>
       </c>
       <c r="E21" s="3">
-        <v>586400</v>
+        <v>586500</v>
       </c>
       <c r="F21" s="3">
-        <v>527500</v>
+        <v>527600</v>
       </c>
       <c r="G21" s="3">
-        <v>1089300</v>
+        <v>1089500</v>
       </c>
       <c r="H21" s="3">
-        <v>1027600</v>
+        <v>1027800</v>
       </c>
       <c r="I21" s="3">
-        <v>653000</v>
+        <v>653200</v>
       </c>
       <c r="J21" s="3">
-        <v>884500</v>
+        <v>884700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1242,25 +1242,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>782000</v>
+        <v>782200</v>
       </c>
       <c r="E23" s="3">
-        <v>459600</v>
+        <v>459700</v>
       </c>
       <c r="F23" s="3">
-        <v>407600</v>
+        <v>407700</v>
       </c>
       <c r="G23" s="3">
-        <v>1027200</v>
+        <v>1027500</v>
       </c>
       <c r="H23" s="3">
-        <v>964200</v>
+        <v>964400</v>
       </c>
       <c r="I23" s="3">
-        <v>585300</v>
+        <v>585400</v>
       </c>
       <c r="J23" s="3">
-        <v>813800</v>
+        <v>814000</v>
       </c>
       <c r="K23" s="3">
         <v>1073100</v>
@@ -1290,7 +1290,7 @@
         <v>-17600</v>
       </c>
       <c r="G24" s="3">
-        <v>191900</v>
+        <v>192000</v>
       </c>
       <c r="H24" s="3">
         <v>152300</v>
@@ -1359,25 +1359,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>677100</v>
+        <v>677300</v>
       </c>
       <c r="E26" s="3">
-        <v>469700</v>
+        <v>469800</v>
       </c>
       <c r="F26" s="3">
-        <v>425200</v>
+        <v>425300</v>
       </c>
       <c r="G26" s="3">
-        <v>835300</v>
+        <v>835500</v>
       </c>
       <c r="H26" s="3">
-        <v>811900</v>
+        <v>812000</v>
       </c>
       <c r="I26" s="3">
-        <v>449300</v>
+        <v>449400</v>
       </c>
       <c r="J26" s="3">
-        <v>680100</v>
+        <v>680200</v>
       </c>
       <c r="K26" s="3">
         <v>862900</v>
@@ -1398,25 +1398,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>568300</v>
+        <v>568400</v>
       </c>
       <c r="E27" s="3">
         <v>359700</v>
       </c>
       <c r="F27" s="3">
-        <v>328800</v>
+        <v>328900</v>
       </c>
       <c r="G27" s="3">
-        <v>738700</v>
+        <v>738900</v>
       </c>
       <c r="H27" s="3">
-        <v>586500</v>
+        <v>586700</v>
       </c>
       <c r="I27" s="3">
-        <v>372700</v>
+        <v>372800</v>
       </c>
       <c r="J27" s="3">
-        <v>597600</v>
+        <v>597800</v>
       </c>
       <c r="K27" s="3">
         <v>806500</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>528300</v>
+        <v>528400</v>
       </c>
       <c r="I29" s="3">
-        <v>38700</v>
+        <v>38800</v>
       </c>
       <c r="J29" s="3">
         <v>38500</v>
@@ -1593,25 +1593,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>456000</v>
+        <v>456100</v>
       </c>
       <c r="E32" s="3">
-        <v>409100</v>
+        <v>409200</v>
       </c>
       <c r="F32" s="3">
-        <v>524800</v>
+        <v>525000</v>
       </c>
       <c r="G32" s="3">
-        <v>476700</v>
+        <v>476800</v>
       </c>
       <c r="H32" s="3">
-        <v>321800</v>
+        <v>321900</v>
       </c>
       <c r="I32" s="3">
         <v>388000</v>
       </c>
       <c r="J32" s="3">
-        <v>447700</v>
+        <v>447800</v>
       </c>
       <c r="K32" s="3">
         <v>415400</v>
@@ -1632,25 +1632,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>568300</v>
+        <v>568400</v>
       </c>
       <c r="E33" s="3">
         <v>359700</v>
       </c>
       <c r="F33" s="3">
-        <v>328800</v>
+        <v>328900</v>
       </c>
       <c r="G33" s="3">
-        <v>738700</v>
+        <v>738900</v>
       </c>
       <c r="H33" s="3">
-        <v>1114800</v>
+        <v>1115100</v>
       </c>
       <c r="I33" s="3">
-        <v>411400</v>
+        <v>411500</v>
       </c>
       <c r="J33" s="3">
-        <v>636100</v>
+        <v>636300</v>
       </c>
       <c r="K33" s="3">
         <v>806500</v>
@@ -1710,25 +1710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>568300</v>
+        <v>568400</v>
       </c>
       <c r="E35" s="3">
         <v>359700</v>
       </c>
       <c r="F35" s="3">
-        <v>328800</v>
+        <v>328900</v>
       </c>
       <c r="G35" s="3">
-        <v>738700</v>
+        <v>738900</v>
       </c>
       <c r="H35" s="3">
-        <v>1114800</v>
+        <v>1115100</v>
       </c>
       <c r="I35" s="3">
-        <v>411400</v>
+        <v>411500</v>
       </c>
       <c r="J35" s="3">
-        <v>636100</v>
+        <v>636300</v>
       </c>
       <c r="K35" s="3">
         <v>806500</v>
@@ -1827,25 +1827,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7021000</v>
+        <v>7022600</v>
       </c>
       <c r="E41" s="3">
-        <v>7185200</v>
+        <v>7186900</v>
       </c>
       <c r="F41" s="3">
-        <v>6566900</v>
+        <v>6568400</v>
       </c>
       <c r="G41" s="3">
-        <v>6131100</v>
+        <v>6132600</v>
       </c>
       <c r="H41" s="3">
-        <v>7732400</v>
+        <v>7734200</v>
       </c>
       <c r="I41" s="3">
-        <v>8365100</v>
+        <v>8367000</v>
       </c>
       <c r="J41" s="3">
-        <v>8813400</v>
+        <v>8815500</v>
       </c>
       <c r="K41" s="3">
         <v>8969800</v>
@@ -1866,25 +1866,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30445900</v>
+        <v>30453100</v>
       </c>
       <c r="E42" s="3">
-        <v>29576300</v>
+        <v>29583300</v>
       </c>
       <c r="F42" s="3">
-        <v>31205000</v>
+        <v>31212300</v>
       </c>
       <c r="G42" s="3">
-        <v>29752200</v>
+        <v>29759200</v>
       </c>
       <c r="H42" s="3">
-        <v>11484600</v>
+        <v>11487400</v>
       </c>
       <c r="I42" s="3">
-        <v>9289400</v>
+        <v>9291600</v>
       </c>
       <c r="J42" s="3">
-        <v>14814300</v>
+        <v>14817800</v>
       </c>
       <c r="K42" s="3">
         <v>16124900</v>
@@ -2061,25 +2061,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1140300</v>
+        <v>1140600</v>
       </c>
       <c r="E47" s="3">
-        <v>1170200</v>
+        <v>1170500</v>
       </c>
       <c r="F47" s="3">
-        <v>1270700</v>
+        <v>1271000</v>
       </c>
       <c r="G47" s="3">
-        <v>1163500</v>
+        <v>1163800</v>
       </c>
       <c r="H47" s="3">
-        <v>1201700</v>
+        <v>1202000</v>
       </c>
       <c r="I47" s="3">
-        <v>766100</v>
+        <v>766300</v>
       </c>
       <c r="J47" s="3">
-        <v>734500</v>
+        <v>734700</v>
       </c>
       <c r="K47" s="3">
         <v>774900</v>
@@ -2100,25 +2100,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1764400</v>
+        <v>1764800</v>
       </c>
       <c r="E48" s="3">
-        <v>1792600</v>
+        <v>1793000</v>
       </c>
       <c r="F48" s="3">
-        <v>1826100</v>
+        <v>1826500</v>
       </c>
       <c r="G48" s="3">
-        <v>1677900</v>
+        <v>1678300</v>
       </c>
       <c r="H48" s="3">
-        <v>1625000</v>
+        <v>1625400</v>
       </c>
       <c r="I48" s="3">
-        <v>1528100</v>
+        <v>1528500</v>
       </c>
       <c r="J48" s="3">
-        <v>1694700</v>
+        <v>1695100</v>
       </c>
       <c r="K48" s="3">
         <v>1671000</v>
@@ -2139,7 +2139,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>240200</v>
+        <v>240300</v>
       </c>
       <c r="E49" s="3">
         <v>243700</v>
@@ -2154,10 +2154,10 @@
         <v>249700</v>
       </c>
       <c r="I49" s="3">
-        <v>336300</v>
+        <v>336400</v>
       </c>
       <c r="J49" s="3">
-        <v>494900</v>
+        <v>495000</v>
       </c>
       <c r="K49" s="3">
         <v>503800</v>
@@ -2256,10 +2256,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>525700</v>
+        <v>525900</v>
       </c>
       <c r="E52" s="3">
-        <v>3655100</v>
+        <v>3656000</v>
       </c>
       <c r="F52" s="3">
         <v>204200</v>
@@ -2271,7 +2271,7 @@
         <v>136100</v>
       </c>
       <c r="I52" s="3">
-        <v>738800</v>
+        <v>739000</v>
       </c>
       <c r="J52" s="3">
         <v>23100</v>
@@ -2334,25 +2334,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115657000</v>
+        <v>115684000</v>
       </c>
       <c r="E54" s="3">
-        <v>112719000</v>
+        <v>112746000</v>
       </c>
       <c r="F54" s="3">
-        <v>110270000</v>
+        <v>110295000</v>
       </c>
       <c r="G54" s="3">
-        <v>106988000</v>
+        <v>107013000</v>
       </c>
       <c r="H54" s="3">
-        <v>103100000</v>
+        <v>103124000</v>
       </c>
       <c r="I54" s="3">
-        <v>97589200</v>
+        <v>97612200</v>
       </c>
       <c r="J54" s="3">
-        <v>99584800</v>
+        <v>99608300</v>
       </c>
       <c r="K54" s="3">
         <v>101389000</v>
@@ -2410,22 +2410,22 @@
         <v>241400</v>
       </c>
       <c r="E57" s="3">
-        <v>236000</v>
+        <v>236100</v>
       </c>
       <c r="F57" s="3">
-        <v>456900</v>
+        <v>457000</v>
       </c>
       <c r="G57" s="3">
-        <v>417900</v>
+        <v>418000</v>
       </c>
       <c r="H57" s="3">
-        <v>406200</v>
+        <v>406300</v>
       </c>
       <c r="I57" s="3">
-        <v>485800</v>
+        <v>486000</v>
       </c>
       <c r="J57" s="3">
-        <v>544100</v>
+        <v>544200</v>
       </c>
       <c r="K57" s="3">
         <v>618200</v>
@@ -2446,25 +2446,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>453000</v>
+        <v>453100</v>
       </c>
       <c r="E58" s="3">
-        <v>541400</v>
+        <v>541500</v>
       </c>
       <c r="F58" s="3">
-        <v>663400</v>
+        <v>663500</v>
       </c>
       <c r="G58" s="3">
         <v>51900</v>
       </c>
       <c r="H58" s="3">
-        <v>69800</v>
+        <v>69900</v>
       </c>
       <c r="I58" s="3">
-        <v>1732000</v>
+        <v>1732500</v>
       </c>
       <c r="J58" s="3">
-        <v>989500</v>
+        <v>989800</v>
       </c>
       <c r="K58" s="3">
         <v>1747800</v>
@@ -2491,13 +2491,13 @@
         <v>79500</v>
       </c>
       <c r="F59" s="3">
-        <v>268000</v>
+        <v>268100</v>
       </c>
       <c r="G59" s="3">
-        <v>183100</v>
+        <v>183200</v>
       </c>
       <c r="H59" s="3">
-        <v>147800</v>
+        <v>147900</v>
       </c>
       <c r="I59" s="3">
         <v>204600</v>
@@ -2563,25 +2563,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1231800</v>
+        <v>1232100</v>
       </c>
       <c r="E61" s="3">
-        <v>1536500</v>
+        <v>1536900</v>
       </c>
       <c r="F61" s="3">
-        <v>1188000</v>
+        <v>1188200</v>
       </c>
       <c r="G61" s="3">
-        <v>1595000</v>
+        <v>1595400</v>
       </c>
       <c r="H61" s="3">
-        <v>1640500</v>
+        <v>1640900</v>
       </c>
       <c r="I61" s="3">
-        <v>1806200</v>
+        <v>1806600</v>
       </c>
       <c r="J61" s="3">
-        <v>2909600</v>
+        <v>2910200</v>
       </c>
       <c r="K61" s="3">
         <v>3317100</v>
@@ -2602,7 +2602,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>71200</v>
+        <v>71300</v>
       </c>
       <c r="E62" s="3">
         <v>58600</v>
@@ -2758,25 +2758,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100905000</v>
+        <v>100929000</v>
       </c>
       <c r="E66" s="3">
-        <v>98336200</v>
+        <v>98359400</v>
       </c>
       <c r="F66" s="3">
-        <v>96343000</v>
+        <v>96365700</v>
       </c>
       <c r="G66" s="3">
-        <v>94151300</v>
+        <v>94173400</v>
       </c>
       <c r="H66" s="3">
-        <v>90561600</v>
+        <v>90583000</v>
       </c>
       <c r="I66" s="3">
-        <v>86953900</v>
+        <v>86974400</v>
       </c>
       <c r="J66" s="3">
-        <v>89079300</v>
+        <v>89100200</v>
       </c>
       <c r="K66" s="3">
         <v>92613900</v>
@@ -2970,25 +2970,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7041000</v>
+        <v>7042600</v>
       </c>
       <c r="E72" s="3">
-        <v>6712400</v>
+        <v>6714000</v>
       </c>
       <c r="F72" s="3">
-        <v>6548000</v>
+        <v>6549500</v>
       </c>
       <c r="G72" s="3">
-        <v>6486700</v>
+        <v>6488200</v>
       </c>
       <c r="H72" s="3">
-        <v>6149000</v>
+        <v>6150400</v>
       </c>
       <c r="I72" s="3">
-        <v>5369300</v>
+        <v>5370600</v>
       </c>
       <c r="J72" s="3">
-        <v>5192100</v>
+        <v>5193300</v>
       </c>
       <c r="K72" s="3">
         <v>4890600</v>
@@ -3126,25 +3126,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14751800</v>
+        <v>14755300</v>
       </c>
       <c r="E76" s="3">
-        <v>14383100</v>
+        <v>14386500</v>
       </c>
       <c r="F76" s="3">
-        <v>13926500</v>
+        <v>13929700</v>
       </c>
       <c r="G76" s="3">
-        <v>12836800</v>
+        <v>12839800</v>
       </c>
       <c r="H76" s="3">
-        <v>12538000</v>
+        <v>12541000</v>
       </c>
       <c r="I76" s="3">
-        <v>10635300</v>
+        <v>10637800</v>
       </c>
       <c r="J76" s="3">
-        <v>10505600</v>
+        <v>10508000</v>
       </c>
       <c r="K76" s="3">
         <v>8774600</v>
@@ -3248,25 +3248,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>568300</v>
+        <v>568400</v>
       </c>
       <c r="E81" s="3">
         <v>359700</v>
       </c>
       <c r="F81" s="3">
-        <v>328800</v>
+        <v>328900</v>
       </c>
       <c r="G81" s="3">
-        <v>738700</v>
+        <v>738900</v>
       </c>
       <c r="H81" s="3">
-        <v>1114800</v>
+        <v>1115100</v>
       </c>
       <c r="I81" s="3">
-        <v>411400</v>
+        <v>411500</v>
       </c>
       <c r="J81" s="3">
-        <v>636100</v>
+        <v>636300</v>
       </c>
       <c r="K81" s="3">
         <v>806500</v>
@@ -3310,7 +3310,7 @@
         <v>126800</v>
       </c>
       <c r="F83" s="3">
-        <v>119900</v>
+        <v>120000</v>
       </c>
       <c r="G83" s="3">
         <v>62100</v>
@@ -3322,7 +3322,7 @@
         <v>67800</v>
       </c>
       <c r="J83" s="3">
-        <v>70700</v>
+        <v>70800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3538,25 +3538,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1233200</v>
+        <v>1233500</v>
       </c>
       <c r="E89" s="3">
-        <v>2251300</v>
+        <v>2251800</v>
       </c>
       <c r="F89" s="3">
-        <v>1138600</v>
+        <v>1138900</v>
       </c>
       <c r="G89" s="3">
-        <v>335800</v>
+        <v>335900</v>
       </c>
       <c r="H89" s="3">
-        <v>1614200</v>
+        <v>1614500</v>
       </c>
       <c r="I89" s="3">
-        <v>-2388800</v>
+        <v>-2389400</v>
       </c>
       <c r="J89" s="3">
-        <v>6545400</v>
+        <v>6547000</v>
       </c>
       <c r="K89" s="3">
         <v>-2322300</v>
@@ -3597,13 +3597,13 @@
         <v>-77100</v>
       </c>
       <c r="E91" s="3">
-        <v>-76300</v>
+        <v>-76400</v>
       </c>
       <c r="F91" s="3">
-        <v>-128700</v>
+        <v>-128800</v>
       </c>
       <c r="G91" s="3">
-        <v>-83700</v>
+        <v>-83800</v>
       </c>
       <c r="H91" s="3">
         <v>-52100</v>
@@ -3612,7 +3612,7 @@
         <v>-57100</v>
       </c>
       <c r="J91" s="3">
-        <v>-56800</v>
+        <v>-56900</v>
       </c>
       <c r="K91" s="3">
         <v>-95500</v>
@@ -3711,7 +3711,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>340500</v>
+        <v>340600</v>
       </c>
       <c r="E94" s="3">
         <v>46900</v>
@@ -3723,13 +3723,13 @@
         <v>-80700</v>
       </c>
       <c r="H94" s="3">
-        <v>532100</v>
+        <v>532200</v>
       </c>
       <c r="I94" s="3">
-        <v>230300</v>
+        <v>230400</v>
       </c>
       <c r="J94" s="3">
-        <v>-68400</v>
+        <v>-68500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3776,16 +3776,16 @@
         <v>-104900</v>
       </c>
       <c r="G96" s="3">
-        <v>-106000</v>
+        <v>-106100</v>
       </c>
       <c r="H96" s="3">
-        <v>-268400</v>
+        <v>-268500</v>
       </c>
       <c r="I96" s="3">
-        <v>-59600</v>
+        <v>-59700</v>
       </c>
       <c r="J96" s="3">
-        <v>-104100</v>
+        <v>-104200</v>
       </c>
       <c r="K96" s="3">
         <v>-95200</v>
@@ -3923,7 +3923,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-842600</v>
+        <v>-842800</v>
       </c>
       <c r="E100" s="3">
         <v>-204600</v>
@@ -3935,13 +3935,13 @@
         <v>-325800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1056300</v>
+        <v>-1056600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1684400</v>
+        <v>-1684800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1033400</v>
+        <v>-1033600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3962,25 +3962,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>153800</v>
+        <v>153900</v>
       </c>
       <c r="E101" s="3">
-        <v>336100</v>
+        <v>336200</v>
       </c>
       <c r="F101" s="3">
         <v>-77100</v>
       </c>
       <c r="G101" s="3">
-        <v>-434100</v>
+        <v>-434200</v>
       </c>
       <c r="H101" s="3">
-        <v>712100</v>
+        <v>712200</v>
       </c>
       <c r="I101" s="3">
-        <v>-633800</v>
+        <v>-634000</v>
       </c>
       <c r="J101" s="3">
-        <v>-475600</v>
+        <v>-475800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4001,25 +4001,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>885000</v>
+        <v>885200</v>
       </c>
       <c r="E102" s="3">
-        <v>2429700</v>
+        <v>2430300</v>
       </c>
       <c r="F102" s="3">
-        <v>1098400</v>
+        <v>1098600</v>
       </c>
       <c r="G102" s="3">
-        <v>-504700</v>
+        <v>-504800</v>
       </c>
       <c r="H102" s="3">
-        <v>1802000</v>
+        <v>1802400</v>
       </c>
       <c r="I102" s="3">
-        <v>-4476700</v>
+        <v>-4477700</v>
       </c>
       <c r="J102" s="3">
-        <v>4968000</v>
+        <v>4969200</v>
       </c>
       <c r="K102" s="3">
         <v>-1239600</v>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>BKEAY</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2301700</v>
+        <v>2300200</v>
       </c>
       <c r="E8" s="3">
-        <v>2690700</v>
+        <v>2689000</v>
       </c>
       <c r="F8" s="3">
-        <v>3642700</v>
+        <v>3640500</v>
       </c>
       <c r="G8" s="3">
-        <v>3263200</v>
+        <v>3261200</v>
       </c>
       <c r="H8" s="3">
-        <v>2757300</v>
+        <v>2755500</v>
       </c>
       <c r="I8" s="3">
-        <v>2595900</v>
+        <v>2594200</v>
       </c>
       <c r="J8" s="3">
-        <v>3006100</v>
+        <v>3004200</v>
       </c>
       <c r="K8" s="3">
         <v>3243000</v>
@@ -983,19 +983,19 @@
         <v>-126800</v>
       </c>
       <c r="F15" s="3">
-        <v>-120000</v>
+        <v>-119900</v>
       </c>
       <c r="G15" s="3">
-        <v>-62100</v>
+        <v>-62000</v>
       </c>
       <c r="H15" s="3">
-        <v>-63500</v>
+        <v>-63400</v>
       </c>
       <c r="I15" s="3">
         <v>-63700</v>
       </c>
       <c r="J15" s="3">
-        <v>-67200</v>
+        <v>-67100</v>
       </c>
       <c r="K15" s="3">
         <v>-88700</v>
@@ -1030,25 +1030,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1063300</v>
+        <v>1062600</v>
       </c>
       <c r="E17" s="3">
-        <v>1821800</v>
+        <v>1820700</v>
       </c>
       <c r="F17" s="3">
-        <v>2710100</v>
+        <v>2708400</v>
       </c>
       <c r="G17" s="3">
-        <v>1759000</v>
+        <v>1757900</v>
       </c>
       <c r="H17" s="3">
-        <v>1471000</v>
+        <v>1470100</v>
       </c>
       <c r="I17" s="3">
-        <v>1622400</v>
+        <v>1621400</v>
       </c>
       <c r="J17" s="3">
-        <v>1744300</v>
+        <v>1743200</v>
       </c>
       <c r="K17" s="3">
         <v>1754400</v>
@@ -1069,25 +1069,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1238300</v>
+        <v>1237600</v>
       </c>
       <c r="E18" s="3">
-        <v>868900</v>
+        <v>868400</v>
       </c>
       <c r="F18" s="3">
-        <v>932600</v>
+        <v>932100</v>
       </c>
       <c r="G18" s="3">
-        <v>1504300</v>
+        <v>1503300</v>
       </c>
       <c r="H18" s="3">
-        <v>1286300</v>
+        <v>1285500</v>
       </c>
       <c r="I18" s="3">
-        <v>973400</v>
+        <v>972800</v>
       </c>
       <c r="J18" s="3">
-        <v>1261800</v>
+        <v>1261000</v>
       </c>
       <c r="K18" s="3">
         <v>1488600</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-456100</v>
+        <v>-455800</v>
       </c>
       <c r="E20" s="3">
-        <v>-409200</v>
+        <v>-409000</v>
       </c>
       <c r="F20" s="3">
-        <v>-525000</v>
+        <v>-524600</v>
       </c>
       <c r="G20" s="3">
-        <v>-476800</v>
+        <v>-476500</v>
       </c>
       <c r="H20" s="3">
-        <v>-321900</v>
+        <v>-321700</v>
       </c>
       <c r="I20" s="3">
-        <v>-388000</v>
+        <v>-387800</v>
       </c>
       <c r="J20" s="3">
-        <v>-447800</v>
+        <v>-447600</v>
       </c>
       <c r="K20" s="3">
         <v>-415400</v>
@@ -1164,25 +1164,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>905700</v>
+        <v>908500</v>
       </c>
       <c r="E21" s="3">
-        <v>586500</v>
+        <v>579300</v>
       </c>
       <c r="F21" s="3">
-        <v>527600</v>
+        <v>469500</v>
       </c>
       <c r="G21" s="3">
-        <v>1089500</v>
+        <v>1090300</v>
       </c>
       <c r="H21" s="3">
-        <v>1027800</v>
+        <v>1031600</v>
       </c>
       <c r="I21" s="3">
-        <v>653200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>884700</v>
+        <v>655700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1242,25 +1242,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>782200</v>
+        <v>781700</v>
       </c>
       <c r="E23" s="3">
-        <v>459700</v>
+        <v>459400</v>
       </c>
       <c r="F23" s="3">
-        <v>407700</v>
+        <v>407400</v>
       </c>
       <c r="G23" s="3">
-        <v>1027500</v>
+        <v>1026800</v>
       </c>
       <c r="H23" s="3">
-        <v>964400</v>
+        <v>963800</v>
       </c>
       <c r="I23" s="3">
-        <v>585400</v>
+        <v>585000</v>
       </c>
       <c r="J23" s="3">
-        <v>814000</v>
+        <v>813400</v>
       </c>
       <c r="K23" s="3">
         <v>1073100</v>
@@ -1290,16 +1290,16 @@
         <v>-17600</v>
       </c>
       <c r="G24" s="3">
-        <v>192000</v>
+        <v>191900</v>
       </c>
       <c r="H24" s="3">
-        <v>152300</v>
+        <v>152200</v>
       </c>
       <c r="I24" s="3">
-        <v>136000</v>
+        <v>135900</v>
       </c>
       <c r="J24" s="3">
-        <v>133700</v>
+        <v>133600</v>
       </c>
       <c r="K24" s="3">
         <v>210200</v>
@@ -1359,25 +1359,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>677300</v>
+        <v>676900</v>
       </c>
       <c r="E26" s="3">
-        <v>469800</v>
+        <v>469500</v>
       </c>
       <c r="F26" s="3">
-        <v>425300</v>
+        <v>425000</v>
       </c>
       <c r="G26" s="3">
-        <v>835500</v>
+        <v>835000</v>
       </c>
       <c r="H26" s="3">
-        <v>812000</v>
+        <v>811500</v>
       </c>
       <c r="I26" s="3">
-        <v>449400</v>
+        <v>449100</v>
       </c>
       <c r="J26" s="3">
-        <v>680200</v>
+        <v>679800</v>
       </c>
       <c r="K26" s="3">
         <v>862900</v>
@@ -1398,25 +1398,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>568400</v>
+        <v>568100</v>
       </c>
       <c r="E27" s="3">
-        <v>359700</v>
+        <v>359500</v>
       </c>
       <c r="F27" s="3">
-        <v>328900</v>
+        <v>328700</v>
       </c>
       <c r="G27" s="3">
-        <v>738900</v>
+        <v>738400</v>
       </c>
       <c r="H27" s="3">
-        <v>586700</v>
+        <v>586300</v>
       </c>
       <c r="I27" s="3">
-        <v>372800</v>
+        <v>372500</v>
       </c>
       <c r="J27" s="3">
-        <v>597800</v>
+        <v>597400</v>
       </c>
       <c r="K27" s="3">
         <v>806500</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>528400</v>
+        <v>528100</v>
       </c>
       <c r="I29" s="3">
-        <v>38800</v>
+        <v>38700</v>
       </c>
       <c r="J29" s="3">
         <v>38500</v>
@@ -1593,25 +1593,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>456100</v>
+        <v>455800</v>
       </c>
       <c r="E32" s="3">
-        <v>409200</v>
+        <v>409000</v>
       </c>
       <c r="F32" s="3">
-        <v>525000</v>
+        <v>524600</v>
       </c>
       <c r="G32" s="3">
-        <v>476800</v>
+        <v>476500</v>
       </c>
       <c r="H32" s="3">
-        <v>321900</v>
+        <v>321700</v>
       </c>
       <c r="I32" s="3">
-        <v>388000</v>
+        <v>387800</v>
       </c>
       <c r="J32" s="3">
-        <v>447800</v>
+        <v>447600</v>
       </c>
       <c r="K32" s="3">
         <v>415400</v>
@@ -1632,25 +1632,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>568400</v>
+        <v>568100</v>
       </c>
       <c r="E33" s="3">
-        <v>359700</v>
+        <v>359500</v>
       </c>
       <c r="F33" s="3">
-        <v>328900</v>
+        <v>328700</v>
       </c>
       <c r="G33" s="3">
-        <v>738900</v>
+        <v>738400</v>
       </c>
       <c r="H33" s="3">
-        <v>1115100</v>
+        <v>1114400</v>
       </c>
       <c r="I33" s="3">
-        <v>411500</v>
+        <v>411200</v>
       </c>
       <c r="J33" s="3">
-        <v>636300</v>
+        <v>635900</v>
       </c>
       <c r="K33" s="3">
         <v>806500</v>
@@ -1710,25 +1710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>568400</v>
+        <v>568100</v>
       </c>
       <c r="E35" s="3">
-        <v>359700</v>
+        <v>359500</v>
       </c>
       <c r="F35" s="3">
-        <v>328900</v>
+        <v>328700</v>
       </c>
       <c r="G35" s="3">
-        <v>738900</v>
+        <v>738400</v>
       </c>
       <c r="H35" s="3">
-        <v>1115100</v>
+        <v>1114400</v>
       </c>
       <c r="I35" s="3">
-        <v>411500</v>
+        <v>411200</v>
       </c>
       <c r="J35" s="3">
-        <v>636300</v>
+        <v>635900</v>
       </c>
       <c r="K35" s="3">
         <v>806500</v>
@@ -1827,25 +1827,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7022600</v>
+        <v>7018200</v>
       </c>
       <c r="E41" s="3">
-        <v>7186900</v>
+        <v>7182400</v>
       </c>
       <c r="F41" s="3">
-        <v>6568400</v>
+        <v>6564300</v>
       </c>
       <c r="G41" s="3">
-        <v>6132600</v>
+        <v>6128700</v>
       </c>
       <c r="H41" s="3">
-        <v>7734200</v>
+        <v>7729400</v>
       </c>
       <c r="I41" s="3">
-        <v>8367000</v>
+        <v>8361800</v>
       </c>
       <c r="J41" s="3">
-        <v>8815500</v>
+        <v>8810000</v>
       </c>
       <c r="K41" s="3">
         <v>8969800</v>
@@ -1866,25 +1866,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30453100</v>
+        <v>30433900</v>
       </c>
       <c r="E42" s="3">
-        <v>29583300</v>
+        <v>29564700</v>
       </c>
       <c r="F42" s="3">
-        <v>31212300</v>
+        <v>31192700</v>
       </c>
       <c r="G42" s="3">
-        <v>29759200</v>
+        <v>29740500</v>
       </c>
       <c r="H42" s="3">
-        <v>11487400</v>
+        <v>11480100</v>
       </c>
       <c r="I42" s="3">
-        <v>9291600</v>
+        <v>9285800</v>
       </c>
       <c r="J42" s="3">
-        <v>14817800</v>
+        <v>14808500</v>
       </c>
       <c r="K42" s="3">
         <v>16124900</v>
@@ -2061,25 +2061,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1140600</v>
+        <v>1139800</v>
       </c>
       <c r="E47" s="3">
-        <v>1170500</v>
+        <v>1169800</v>
       </c>
       <c r="F47" s="3">
-        <v>1271000</v>
+        <v>1270200</v>
       </c>
       <c r="G47" s="3">
-        <v>1163800</v>
+        <v>1163000</v>
       </c>
       <c r="H47" s="3">
-        <v>1202000</v>
+        <v>1201300</v>
       </c>
       <c r="I47" s="3">
-        <v>766300</v>
+        <v>765800</v>
       </c>
       <c r="J47" s="3">
-        <v>734700</v>
+        <v>734200</v>
       </c>
       <c r="K47" s="3">
         <v>774900</v>
@@ -2100,25 +2100,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1764800</v>
+        <v>1763700</v>
       </c>
       <c r="E48" s="3">
-        <v>1793000</v>
+        <v>1791900</v>
       </c>
       <c r="F48" s="3">
-        <v>1826500</v>
+        <v>1825400</v>
       </c>
       <c r="G48" s="3">
-        <v>1678300</v>
+        <v>1677200</v>
       </c>
       <c r="H48" s="3">
-        <v>1625400</v>
+        <v>1624400</v>
       </c>
       <c r="I48" s="3">
-        <v>1528500</v>
+        <v>1527500</v>
       </c>
       <c r="J48" s="3">
-        <v>1695100</v>
+        <v>1694000</v>
       </c>
       <c r="K48" s="3">
         <v>1671000</v>
@@ -2139,25 +2139,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>240300</v>
+        <v>240100</v>
       </c>
       <c r="E49" s="3">
-        <v>243700</v>
+        <v>243600</v>
       </c>
       <c r="F49" s="3">
-        <v>245500</v>
+        <v>245400</v>
       </c>
       <c r="G49" s="3">
-        <v>247300</v>
+        <v>247200</v>
       </c>
       <c r="H49" s="3">
-        <v>249700</v>
+        <v>249600</v>
       </c>
       <c r="I49" s="3">
-        <v>336400</v>
+        <v>336200</v>
       </c>
       <c r="J49" s="3">
-        <v>495000</v>
+        <v>494700</v>
       </c>
       <c r="K49" s="3">
         <v>503800</v>
@@ -2256,22 +2256,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>525900</v>
+        <v>525500</v>
       </c>
       <c r="E52" s="3">
-        <v>3656000</v>
+        <v>3653700</v>
       </c>
       <c r="F52" s="3">
-        <v>204200</v>
+        <v>204100</v>
       </c>
       <c r="G52" s="3">
-        <v>149000</v>
+        <v>148900</v>
       </c>
       <c r="H52" s="3">
         <v>136100</v>
       </c>
       <c r="I52" s="3">
-        <v>739000</v>
+        <v>738500</v>
       </c>
       <c r="J52" s="3">
         <v>23100</v>
@@ -2334,25 +2334,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115684000</v>
+        <v>115612000</v>
       </c>
       <c r="E54" s="3">
-        <v>112746000</v>
+        <v>112675000</v>
       </c>
       <c r="F54" s="3">
-        <v>110295000</v>
+        <v>110226000</v>
       </c>
       <c r="G54" s="3">
-        <v>107013000</v>
+        <v>106946000</v>
       </c>
       <c r="H54" s="3">
-        <v>103124000</v>
+        <v>103059000</v>
       </c>
       <c r="I54" s="3">
-        <v>97612200</v>
+        <v>97550900</v>
       </c>
       <c r="J54" s="3">
-        <v>99608300</v>
+        <v>99545800</v>
       </c>
       <c r="K54" s="3">
         <v>101389000</v>
@@ -2407,25 +2407,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>241400</v>
+        <v>241300</v>
       </c>
       <c r="E57" s="3">
-        <v>236100</v>
+        <v>235900</v>
       </c>
       <c r="F57" s="3">
-        <v>457000</v>
+        <v>456700</v>
       </c>
       <c r="G57" s="3">
-        <v>418000</v>
+        <v>417700</v>
       </c>
       <c r="H57" s="3">
-        <v>406300</v>
+        <v>406000</v>
       </c>
       <c r="I57" s="3">
-        <v>486000</v>
+        <v>485600</v>
       </c>
       <c r="J57" s="3">
-        <v>544200</v>
+        <v>543900</v>
       </c>
       <c r="K57" s="3">
         <v>618200</v>
@@ -2446,25 +2446,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>453100</v>
+        <v>452800</v>
       </c>
       <c r="E58" s="3">
-        <v>541500</v>
+        <v>541200</v>
       </c>
       <c r="F58" s="3">
-        <v>663500</v>
+        <v>663100</v>
       </c>
       <c r="G58" s="3">
         <v>51900</v>
       </c>
       <c r="H58" s="3">
-        <v>69900</v>
+        <v>69800</v>
       </c>
       <c r="I58" s="3">
-        <v>1732500</v>
+        <v>1731400</v>
       </c>
       <c r="J58" s="3">
-        <v>989800</v>
+        <v>989100</v>
       </c>
       <c r="K58" s="3">
         <v>1747800</v>
@@ -2485,25 +2485,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122100</v>
+        <v>122000</v>
       </c>
       <c r="E59" s="3">
         <v>79500</v>
       </c>
       <c r="F59" s="3">
-        <v>268100</v>
+        <v>267900</v>
       </c>
       <c r="G59" s="3">
-        <v>183200</v>
+        <v>183100</v>
       </c>
       <c r="H59" s="3">
-        <v>147900</v>
+        <v>147800</v>
       </c>
       <c r="I59" s="3">
-        <v>204600</v>
+        <v>204500</v>
       </c>
       <c r="J59" s="3">
-        <v>168900</v>
+        <v>168800</v>
       </c>
       <c r="K59" s="3">
         <v>149300</v>
@@ -2563,25 +2563,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1232100</v>
+        <v>1231300</v>
       </c>
       <c r="E61" s="3">
-        <v>1536900</v>
+        <v>1535900</v>
       </c>
       <c r="F61" s="3">
-        <v>1188200</v>
+        <v>1187500</v>
       </c>
       <c r="G61" s="3">
-        <v>1595400</v>
+        <v>1594400</v>
       </c>
       <c r="H61" s="3">
-        <v>1640900</v>
+        <v>1639900</v>
       </c>
       <c r="I61" s="3">
-        <v>1806600</v>
+        <v>1805500</v>
       </c>
       <c r="J61" s="3">
-        <v>2910200</v>
+        <v>2908400</v>
       </c>
       <c r="K61" s="3">
         <v>3317100</v>
@@ -2602,7 +2602,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>71300</v>
+        <v>71200</v>
       </c>
       <c r="E62" s="3">
         <v>58600</v>
@@ -2611,7 +2611,7 @@
         <v>74400</v>
       </c>
       <c r="G62" s="3">
-        <v>61600</v>
+        <v>61500</v>
       </c>
       <c r="H62" s="3">
         <v>70200</v>
@@ -2620,7 +2620,7 @@
         <v>58900</v>
       </c>
       <c r="J62" s="3">
-        <v>68100</v>
+        <v>68000</v>
       </c>
       <c r="K62" s="3">
         <v>87400</v>
@@ -2758,25 +2758,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100929000</v>
+        <v>100866000</v>
       </c>
       <c r="E66" s="3">
-        <v>98359400</v>
+        <v>98297600</v>
       </c>
       <c r="F66" s="3">
-        <v>96365700</v>
+        <v>96305200</v>
       </c>
       <c r="G66" s="3">
-        <v>94173400</v>
+        <v>94114300</v>
       </c>
       <c r="H66" s="3">
-        <v>90583000</v>
+        <v>90526100</v>
       </c>
       <c r="I66" s="3">
-        <v>86974400</v>
+        <v>86919800</v>
       </c>
       <c r="J66" s="3">
-        <v>89100200</v>
+        <v>89044300</v>
       </c>
       <c r="K66" s="3">
         <v>92613900</v>
@@ -2970,25 +2970,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7042600</v>
+        <v>7038200</v>
       </c>
       <c r="E72" s="3">
-        <v>6714000</v>
+        <v>6709800</v>
       </c>
       <c r="F72" s="3">
-        <v>6549500</v>
+        <v>6545400</v>
       </c>
       <c r="G72" s="3">
-        <v>6488200</v>
+        <v>6484200</v>
       </c>
       <c r="H72" s="3">
-        <v>6150400</v>
+        <v>6146500</v>
       </c>
       <c r="I72" s="3">
-        <v>5370600</v>
+        <v>5367200</v>
       </c>
       <c r="J72" s="3">
-        <v>5193300</v>
+        <v>5190000</v>
       </c>
       <c r="K72" s="3">
         <v>4890600</v>
@@ -3126,25 +3126,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14755300</v>
+        <v>14746000</v>
       </c>
       <c r="E76" s="3">
-        <v>14386500</v>
+        <v>14377500</v>
       </c>
       <c r="F76" s="3">
-        <v>13929700</v>
+        <v>13921000</v>
       </c>
       <c r="G76" s="3">
-        <v>12839800</v>
+        <v>12831700</v>
       </c>
       <c r="H76" s="3">
-        <v>12541000</v>
+        <v>12533100</v>
       </c>
       <c r="I76" s="3">
-        <v>10637800</v>
+        <v>10631100</v>
       </c>
       <c r="J76" s="3">
-        <v>10508000</v>
+        <v>10501500</v>
       </c>
       <c r="K76" s="3">
         <v>8774600</v>
@@ -3248,25 +3248,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>568400</v>
+        <v>568100</v>
       </c>
       <c r="E81" s="3">
-        <v>359700</v>
+        <v>359500</v>
       </c>
       <c r="F81" s="3">
-        <v>328900</v>
+        <v>328700</v>
       </c>
       <c r="G81" s="3">
-        <v>738900</v>
+        <v>738400</v>
       </c>
       <c r="H81" s="3">
-        <v>1115100</v>
+        <v>1114400</v>
       </c>
       <c r="I81" s="3">
-        <v>411500</v>
+        <v>411200</v>
       </c>
       <c r="J81" s="3">
-        <v>636300</v>
+        <v>635900</v>
       </c>
       <c r="K81" s="3">
         <v>806500</v>
@@ -3304,25 +3304,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>123500</v>
+        <v>126800</v>
       </c>
       <c r="E83" s="3">
-        <v>126800</v>
+        <v>119900</v>
       </c>
       <c r="F83" s="3">
-        <v>120000</v>
+        <v>62000</v>
       </c>
       <c r="G83" s="3">
-        <v>62100</v>
+        <v>63400</v>
       </c>
       <c r="H83" s="3">
-        <v>63500</v>
+        <v>67800</v>
       </c>
       <c r="I83" s="3">
-        <v>67800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>70800</v>
+        <v>70700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3538,25 +3538,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1233500</v>
+        <v>2250400</v>
       </c>
       <c r="E89" s="3">
-        <v>2251800</v>
+        <v>1138200</v>
       </c>
       <c r="F89" s="3">
-        <v>1138900</v>
+        <v>335700</v>
       </c>
       <c r="G89" s="3">
-        <v>335900</v>
+        <v>1613500</v>
       </c>
       <c r="H89" s="3">
-        <v>1614500</v>
+        <v>-2387900</v>
       </c>
       <c r="I89" s="3">
-        <v>-2389400</v>
+        <v>6542900</v>
       </c>
       <c r="J89" s="3">
-        <v>6547000</v>
+        <v>-4688100</v>
       </c>
       <c r="K89" s="3">
         <v>-2322300</v>
@@ -3594,25 +3594,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-77100</v>
+        <v>-76300</v>
       </c>
       <c r="E91" s="3">
-        <v>-76400</v>
+        <v>-128700</v>
       </c>
       <c r="F91" s="3">
-        <v>-128800</v>
+        <v>-83700</v>
       </c>
       <c r="G91" s="3">
-        <v>-83800</v>
+        <v>-52100</v>
       </c>
       <c r="H91" s="3">
-        <v>-52100</v>
+        <v>-57100</v>
       </c>
       <c r="I91" s="3">
-        <v>-57100</v>
+        <v>-56800</v>
       </c>
       <c r="J91" s="3">
-        <v>-56900</v>
+        <v>-38900</v>
       </c>
       <c r="K91" s="3">
         <v>-95500</v>
@@ -3711,25 +3711,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>340600</v>
+        <v>46900</v>
       </c>
       <c r="E94" s="3">
-        <v>46900</v>
+        <v>-14700</v>
       </c>
       <c r="F94" s="3">
-        <v>-14700</v>
+        <v>-80600</v>
       </c>
       <c r="G94" s="3">
-        <v>-80700</v>
+        <v>531900</v>
       </c>
       <c r="H94" s="3">
-        <v>532200</v>
+        <v>230200</v>
       </c>
       <c r="I94" s="3">
-        <v>230400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-68500</v>
+        <v>-68400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3767,25 +3767,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-214900</v>
+        <v>-173000</v>
       </c>
       <c r="E96" s="3">
-        <v>-173100</v>
+        <v>-104900</v>
       </c>
       <c r="F96" s="3">
-        <v>-104900</v>
+        <v>-106000</v>
       </c>
       <c r="G96" s="3">
-        <v>-106100</v>
+        <v>-268300</v>
       </c>
       <c r="H96" s="3">
-        <v>-268500</v>
+        <v>-59600</v>
       </c>
       <c r="I96" s="3">
-        <v>-59700</v>
+        <v>-104100</v>
       </c>
       <c r="J96" s="3">
-        <v>-104200</v>
+        <v>-126300</v>
       </c>
       <c r="K96" s="3">
         <v>-95200</v>
@@ -3923,25 +3923,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-842800</v>
+        <v>-204500</v>
       </c>
       <c r="E100" s="3">
-        <v>-204600</v>
+        <v>51500</v>
       </c>
       <c r="F100" s="3">
-        <v>51500</v>
+        <v>-325600</v>
       </c>
       <c r="G100" s="3">
-        <v>-325800</v>
+        <v>-1055900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1056600</v>
+        <v>-1683700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1684800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1033600</v>
+        <v>-1033000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3962,25 +3962,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>153900</v>
+        <v>336000</v>
       </c>
       <c r="E101" s="3">
-        <v>336200</v>
+        <v>-77100</v>
       </c>
       <c r="F101" s="3">
-        <v>-77100</v>
+        <v>-433900</v>
       </c>
       <c r="G101" s="3">
-        <v>-434200</v>
+        <v>711800</v>
       </c>
       <c r="H101" s="3">
-        <v>712200</v>
+        <v>-633600</v>
       </c>
       <c r="I101" s="3">
-        <v>-634000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-475800</v>
+        <v>-475500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4001,25 +4001,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>885200</v>
+        <v>2428800</v>
       </c>
       <c r="E102" s="3">
-        <v>2430300</v>
+        <v>1097900</v>
       </c>
       <c r="F102" s="3">
-        <v>1098600</v>
+        <v>-504500</v>
       </c>
       <c r="G102" s="3">
-        <v>-504800</v>
+        <v>1801300</v>
       </c>
       <c r="H102" s="3">
-        <v>1802400</v>
+        <v>-4474900</v>
       </c>
       <c r="I102" s="3">
-        <v>-4477700</v>
+        <v>4966100</v>
       </c>
       <c r="J102" s="3">
-        <v>4969200</v>
+        <v>-2295900</v>
       </c>
       <c r="K102" s="3">
         <v>-1239600</v>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>BKEAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,108 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2300200</v>
+        <v>3174800</v>
       </c>
       <c r="E8" s="3">
-        <v>2689000</v>
+        <v>2306900</v>
       </c>
       <c r="F8" s="3">
-        <v>3640500</v>
+        <v>2696800</v>
       </c>
       <c r="G8" s="3">
-        <v>3261200</v>
+        <v>3651000</v>
       </c>
       <c r="H8" s="3">
-        <v>2755500</v>
+        <v>3270700</v>
       </c>
       <c r="I8" s="3">
-        <v>2594200</v>
+        <v>2763500</v>
       </c>
       <c r="J8" s="3">
+        <v>2601800</v>
+      </c>
+      <c r="K8" s="3">
         <v>3004200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3243000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3229100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2915200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2671100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,9 +803,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,9 +845,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,9 +905,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,9 +947,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -970,48 +989,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-123500</v>
+        <v>-111800</v>
       </c>
       <c r="E15" s="3">
-        <v>-126800</v>
+        <v>-123800</v>
       </c>
       <c r="F15" s="3">
-        <v>-119900</v>
+        <v>-127100</v>
       </c>
       <c r="G15" s="3">
-        <v>-62000</v>
+        <v>-120200</v>
       </c>
       <c r="H15" s="3">
-        <v>-63400</v>
+        <v>-62200</v>
       </c>
       <c r="I15" s="3">
-        <v>-63700</v>
+        <v>-63600</v>
       </c>
       <c r="J15" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-67100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-88700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-90400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-88900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-85600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,86 +1049,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1062600</v>
+        <v>2140900</v>
       </c>
       <c r="E17" s="3">
-        <v>1820700</v>
+        <v>1065700</v>
       </c>
       <c r="F17" s="3">
-        <v>2708400</v>
+        <v>1826000</v>
       </c>
       <c r="G17" s="3">
-        <v>1757900</v>
+        <v>2716300</v>
       </c>
       <c r="H17" s="3">
-        <v>1470100</v>
+        <v>1763000</v>
       </c>
       <c r="I17" s="3">
-        <v>1621400</v>
+        <v>1474300</v>
       </c>
       <c r="J17" s="3">
+        <v>1626100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1743200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1754400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1721800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1690200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1495000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1237600</v>
+        <v>1033900</v>
       </c>
       <c r="E18" s="3">
-        <v>868400</v>
+        <v>1241200</v>
       </c>
       <c r="F18" s="3">
-        <v>932100</v>
+        <v>870900</v>
       </c>
       <c r="G18" s="3">
-        <v>1503300</v>
+        <v>934800</v>
       </c>
       <c r="H18" s="3">
-        <v>1285500</v>
+        <v>1507700</v>
       </c>
       <c r="I18" s="3">
-        <v>972800</v>
+        <v>1289200</v>
       </c>
       <c r="J18" s="3">
+        <v>975700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1261000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1488600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1507300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1224900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1176100</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,70 +1151,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-455800</v>
+        <v>-402600</v>
       </c>
       <c r="E20" s="3">
-        <v>-409000</v>
+        <v>-457200</v>
       </c>
       <c r="F20" s="3">
-        <v>-524600</v>
+        <v>-410100</v>
       </c>
       <c r="G20" s="3">
-        <v>-476500</v>
+        <v>-526200</v>
       </c>
       <c r="H20" s="3">
-        <v>-321700</v>
+        <v>-477900</v>
       </c>
       <c r="I20" s="3">
-        <v>-387800</v>
+        <v>-322600</v>
       </c>
       <c r="J20" s="3">
+        <v>-388900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-447600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-415400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-414900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-250600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-439900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>908500</v>
+        <v>743100</v>
       </c>
       <c r="E21" s="3">
-        <v>579300</v>
+        <v>907700</v>
       </c>
       <c r="F21" s="3">
-        <v>469500</v>
+        <v>587800</v>
       </c>
       <c r="G21" s="3">
-        <v>1090300</v>
+        <v>528800</v>
       </c>
       <c r="H21" s="3">
-        <v>1031600</v>
+        <v>1092000</v>
       </c>
       <c r="I21" s="3">
-        <v>655700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
+        <v>1030200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>654700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1190,15 +1226,18 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>1063200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>821800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1235,87 +1274,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>781700</v>
+        <v>631300</v>
       </c>
       <c r="E23" s="3">
-        <v>459400</v>
+        <v>784000</v>
       </c>
       <c r="F23" s="3">
-        <v>407400</v>
+        <v>460700</v>
       </c>
       <c r="G23" s="3">
-        <v>1026800</v>
+        <v>408600</v>
       </c>
       <c r="H23" s="3">
-        <v>963800</v>
+        <v>1029800</v>
       </c>
       <c r="I23" s="3">
-        <v>585000</v>
+        <v>966600</v>
       </c>
       <c r="J23" s="3">
+        <v>586700</v>
+      </c>
+      <c r="K23" s="3">
         <v>813400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1073100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1092400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>974300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>736100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104900</v>
+        <v>71900</v>
       </c>
       <c r="E24" s="3">
+        <v>105200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-10100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-17600</v>
       </c>
-      <c r="G24" s="3">
-        <v>191900</v>
-      </c>
       <c r="H24" s="3">
-        <v>152200</v>
+        <v>192400</v>
       </c>
       <c r="I24" s="3">
-        <v>135900</v>
+        <v>152700</v>
       </c>
       <c r="J24" s="3">
+        <v>136300</v>
+      </c>
+      <c r="K24" s="3">
         <v>133600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>210200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>229000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>181700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>166400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1352,87 +1400,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>676900</v>
+        <v>559400</v>
       </c>
       <c r="E26" s="3">
-        <v>469500</v>
+        <v>678800</v>
       </c>
       <c r="F26" s="3">
-        <v>425000</v>
+        <v>470800</v>
       </c>
       <c r="G26" s="3">
-        <v>835000</v>
+        <v>426200</v>
       </c>
       <c r="H26" s="3">
-        <v>811500</v>
+        <v>837400</v>
       </c>
       <c r="I26" s="3">
-        <v>449100</v>
+        <v>813900</v>
       </c>
       <c r="J26" s="3">
+        <v>450400</v>
+      </c>
+      <c r="K26" s="3">
         <v>679800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>862900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>863400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>792600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>569700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>568100</v>
+        <v>466500</v>
       </c>
       <c r="E27" s="3">
-        <v>359500</v>
+        <v>569700</v>
       </c>
       <c r="F27" s="3">
-        <v>328700</v>
+        <v>360600</v>
       </c>
       <c r="G27" s="3">
-        <v>738400</v>
+        <v>329600</v>
       </c>
       <c r="H27" s="3">
-        <v>586300</v>
+        <v>740600</v>
       </c>
       <c r="I27" s="3">
-        <v>372500</v>
+        <v>588000</v>
       </c>
       <c r="J27" s="3">
+        <v>373600</v>
+      </c>
+      <c r="K27" s="3">
         <v>597400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>806500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>808800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>737300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>515800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1469,9 +1526,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1484,21 +1544,21 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>528100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>38700</v>
+        <v>529600</v>
       </c>
       <c r="J29" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K29" s="3">
         <v>38500</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1508,9 +1568,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1547,9 +1610,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1586,87 +1652,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>455800</v>
+        <v>402600</v>
       </c>
       <c r="E32" s="3">
-        <v>409000</v>
+        <v>457200</v>
       </c>
       <c r="F32" s="3">
-        <v>524600</v>
+        <v>410100</v>
       </c>
       <c r="G32" s="3">
-        <v>476500</v>
+        <v>526200</v>
       </c>
       <c r="H32" s="3">
-        <v>321700</v>
+        <v>477900</v>
       </c>
       <c r="I32" s="3">
-        <v>387800</v>
+        <v>322600</v>
       </c>
       <c r="J32" s="3">
+        <v>388900</v>
+      </c>
+      <c r="K32" s="3">
         <v>447600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>415400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>414900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>250600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>439900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>568100</v>
+        <v>466500</v>
       </c>
       <c r="E33" s="3">
-        <v>359500</v>
+        <v>569700</v>
       </c>
       <c r="F33" s="3">
-        <v>328700</v>
+        <v>360600</v>
       </c>
       <c r="G33" s="3">
-        <v>738400</v>
+        <v>329600</v>
       </c>
       <c r="H33" s="3">
-        <v>1114400</v>
+        <v>740600</v>
       </c>
       <c r="I33" s="3">
-        <v>411200</v>
+        <v>1117600</v>
       </c>
       <c r="J33" s="3">
+        <v>412400</v>
+      </c>
+      <c r="K33" s="3">
         <v>635900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>806500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>808800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>737300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>515800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,92 +1778,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>568100</v>
+        <v>466500</v>
       </c>
       <c r="E35" s="3">
-        <v>359500</v>
+        <v>569700</v>
       </c>
       <c r="F35" s="3">
-        <v>328700</v>
+        <v>360600</v>
       </c>
       <c r="G35" s="3">
-        <v>738400</v>
+        <v>329600</v>
       </c>
       <c r="H35" s="3">
-        <v>1114400</v>
+        <v>740600</v>
       </c>
       <c r="I35" s="3">
-        <v>411200</v>
+        <v>1117600</v>
       </c>
       <c r="J35" s="3">
+        <v>412400</v>
+      </c>
+      <c r="K35" s="3">
         <v>635900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>806500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>808800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>737300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>515800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,8 +1888,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1821,86 +1906,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7018200</v>
+        <v>6973600</v>
       </c>
       <c r="E41" s="3">
-        <v>7182400</v>
+        <v>7038600</v>
       </c>
       <c r="F41" s="3">
-        <v>6564300</v>
+        <v>7203300</v>
       </c>
       <c r="G41" s="3">
-        <v>6128700</v>
+        <v>6583300</v>
       </c>
       <c r="H41" s="3">
-        <v>7729400</v>
+        <v>6146500</v>
       </c>
       <c r="I41" s="3">
-        <v>8361800</v>
+        <v>7751800</v>
       </c>
       <c r="J41" s="3">
+        <v>8386100</v>
+      </c>
+      <c r="K41" s="3">
         <v>8810000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8969800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8854000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>11013100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9185400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30433900</v>
+        <v>28155500</v>
       </c>
       <c r="E42" s="3">
-        <v>29564700</v>
+        <v>30522300</v>
       </c>
       <c r="F42" s="3">
-        <v>31192700</v>
+        <v>29650600</v>
       </c>
       <c r="G42" s="3">
-        <v>29740500</v>
+        <v>31283300</v>
       </c>
       <c r="H42" s="3">
-        <v>11480100</v>
+        <v>29826900</v>
       </c>
       <c r="I42" s="3">
-        <v>9285800</v>
+        <v>11513500</v>
       </c>
       <c r="J42" s="3">
+        <v>9312800</v>
+      </c>
+      <c r="K42" s="3">
         <v>14808500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16124900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17747500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14642900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14219400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1937,9 +2029,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1976,9 +2071,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2015,9 +2113,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2054,126 +2155,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1139800</v>
+        <v>1157700</v>
       </c>
       <c r="E47" s="3">
-        <v>1169800</v>
+        <v>1143200</v>
       </c>
       <c r="F47" s="3">
-        <v>1270200</v>
+        <v>1173200</v>
       </c>
       <c r="G47" s="3">
-        <v>1163000</v>
+        <v>1273900</v>
       </c>
       <c r="H47" s="3">
-        <v>1201300</v>
+        <v>1166400</v>
       </c>
       <c r="I47" s="3">
-        <v>765800</v>
+        <v>1204700</v>
       </c>
       <c r="J47" s="3">
+        <v>768000</v>
+      </c>
+      <c r="K47" s="3">
         <v>734200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>774900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>615200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>602400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>489000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1763700</v>
+        <v>1721800</v>
       </c>
       <c r="E48" s="3">
-        <v>1791900</v>
+        <v>1768800</v>
       </c>
       <c r="F48" s="3">
-        <v>1825400</v>
+        <v>1797100</v>
       </c>
       <c r="G48" s="3">
-        <v>1677200</v>
+        <v>1830700</v>
       </c>
       <c r="H48" s="3">
-        <v>1624400</v>
+        <v>1682100</v>
       </c>
       <c r="I48" s="3">
-        <v>1527500</v>
+        <v>1629100</v>
       </c>
       <c r="J48" s="3">
+        <v>1532000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1694000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1671000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1741700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1616600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1617800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>240100</v>
+        <v>238900</v>
       </c>
       <c r="E49" s="3">
-        <v>243600</v>
+        <v>240800</v>
       </c>
       <c r="F49" s="3">
-        <v>245400</v>
+        <v>244300</v>
       </c>
       <c r="G49" s="3">
-        <v>247200</v>
+        <v>246100</v>
       </c>
       <c r="H49" s="3">
-        <v>249600</v>
+        <v>247900</v>
       </c>
       <c r="I49" s="3">
-        <v>336200</v>
+        <v>250300</v>
       </c>
       <c r="J49" s="3">
+        <v>337200</v>
+      </c>
+      <c r="K49" s="3">
         <v>494700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>503800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>513600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>520400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>539500</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2210,9 +2323,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2249,48 +2365,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>525500</v>
+        <v>239700</v>
       </c>
       <c r="E52" s="3">
-        <v>3653700</v>
+        <v>527100</v>
       </c>
       <c r="F52" s="3">
-        <v>204100</v>
+        <v>3664300</v>
       </c>
       <c r="G52" s="3">
-        <v>148900</v>
+        <v>204700</v>
       </c>
       <c r="H52" s="3">
-        <v>136100</v>
+        <v>149400</v>
       </c>
       <c r="I52" s="3">
-        <v>738500</v>
+        <v>136500</v>
       </c>
       <c r="J52" s="3">
+        <v>740700</v>
+      </c>
+      <c r="K52" s="3">
         <v>23100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>18400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>48300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2327,48 +2449,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115612000</v>
+        <v>112799000</v>
       </c>
       <c r="E54" s="3">
-        <v>112675000</v>
+        <v>115947000</v>
       </c>
       <c r="F54" s="3">
-        <v>110226000</v>
+        <v>113002000</v>
       </c>
       <c r="G54" s="3">
-        <v>106946000</v>
+        <v>110546000</v>
       </c>
       <c r="H54" s="3">
-        <v>103059000</v>
+        <v>107257000</v>
       </c>
       <c r="I54" s="3">
-        <v>97550900</v>
+        <v>103359000</v>
       </c>
       <c r="J54" s="3">
+        <v>97834300</v>
+      </c>
+      <c r="K54" s="3">
         <v>99545800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>101389000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>97056500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89137400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78259500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,8 +2512,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2401,125 +2530,135 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>241300</v>
+        <v>530900</v>
       </c>
       <c r="E57" s="3">
-        <v>235900</v>
+        <v>242000</v>
       </c>
       <c r="F57" s="3">
-        <v>456700</v>
+        <v>236600</v>
       </c>
       <c r="G57" s="3">
-        <v>417700</v>
+        <v>458100</v>
       </c>
       <c r="H57" s="3">
-        <v>406000</v>
+        <v>419000</v>
       </c>
       <c r="I57" s="3">
-        <v>485600</v>
+        <v>407200</v>
       </c>
       <c r="J57" s="3">
+        <v>487100</v>
+      </c>
+      <c r="K57" s="3">
         <v>543900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>618200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>531800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>452800</v>
+        <v>293400</v>
       </c>
       <c r="E58" s="3">
-        <v>541200</v>
+        <v>454100</v>
       </c>
       <c r="F58" s="3">
-        <v>663100</v>
+        <v>542800</v>
       </c>
       <c r="G58" s="3">
-        <v>51900</v>
+        <v>665000</v>
       </c>
       <c r="H58" s="3">
-        <v>69800</v>
+        <v>52000</v>
       </c>
       <c r="I58" s="3">
-        <v>1731400</v>
+        <v>70000</v>
       </c>
       <c r="J58" s="3">
+        <v>1736400</v>
+      </c>
+      <c r="K58" s="3">
         <v>989100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1747800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>443900</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>437600</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>122000</v>
+        <v>160000</v>
       </c>
       <c r="E59" s="3">
-        <v>79500</v>
+        <v>122400</v>
       </c>
       <c r="F59" s="3">
-        <v>267900</v>
+        <v>79700</v>
       </c>
       <c r="G59" s="3">
-        <v>183100</v>
+        <v>268700</v>
       </c>
       <c r="H59" s="3">
-        <v>147800</v>
+        <v>183600</v>
       </c>
       <c r="I59" s="3">
-        <v>204500</v>
+        <v>148200</v>
       </c>
       <c r="J59" s="3">
+        <v>205100</v>
+      </c>
+      <c r="K59" s="3">
         <v>168800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>149300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>174200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>127200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>60500</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2556,87 +2695,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1231300</v>
+        <v>1699000</v>
       </c>
       <c r="E61" s="3">
-        <v>1535900</v>
+        <v>1234900</v>
       </c>
       <c r="F61" s="3">
-        <v>1187500</v>
+        <v>1540400</v>
       </c>
       <c r="G61" s="3">
-        <v>1594400</v>
+        <v>1190900</v>
       </c>
       <c r="H61" s="3">
-        <v>1639900</v>
+        <v>1599000</v>
       </c>
       <c r="I61" s="3">
-        <v>1805500</v>
+        <v>1644700</v>
       </c>
       <c r="J61" s="3">
+        <v>1810800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2908400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3317100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1919600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2951900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2554400</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>71200</v>
+        <v>28900</v>
       </c>
       <c r="E62" s="3">
-        <v>58600</v>
+        <v>71400</v>
       </c>
       <c r="F62" s="3">
-        <v>74400</v>
+        <v>58800</v>
       </c>
       <c r="G62" s="3">
-        <v>61500</v>
+        <v>74600</v>
       </c>
       <c r="H62" s="3">
-        <v>70200</v>
+        <v>61700</v>
       </c>
       <c r="I62" s="3">
-        <v>58900</v>
+        <v>70400</v>
       </c>
       <c r="J62" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K62" s="3">
         <v>68000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>87400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>83300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>59000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,9 +2821,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2712,9 +2863,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,48 +2905,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100866000</v>
+        <v>99245100</v>
       </c>
       <c r="E66" s="3">
-        <v>98297600</v>
+        <v>101159000</v>
       </c>
       <c r="F66" s="3">
-        <v>96305200</v>
+        <v>98583100</v>
       </c>
       <c r="G66" s="3">
-        <v>94114300</v>
+        <v>96584900</v>
       </c>
       <c r="H66" s="3">
-        <v>90526100</v>
+        <v>94387700</v>
       </c>
       <c r="I66" s="3">
-        <v>86919800</v>
+        <v>90789000</v>
       </c>
       <c r="J66" s="3">
+        <v>87172200</v>
+      </c>
+      <c r="K66" s="3">
         <v>89044300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>92613900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>88858700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>81776600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72164600</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2808,8 +2968,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2846,9 +3007,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2885,9 +3049,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2924,9 +3091,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2963,48 +3133,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7038200</v>
+        <v>6795800</v>
       </c>
       <c r="E72" s="3">
-        <v>6709800</v>
+        <v>7058700</v>
       </c>
       <c r="F72" s="3">
-        <v>6545400</v>
+        <v>6729300</v>
       </c>
       <c r="G72" s="3">
-        <v>6484200</v>
+        <v>6564400</v>
       </c>
       <c r="H72" s="3">
-        <v>6146500</v>
+        <v>6503000</v>
       </c>
       <c r="I72" s="3">
-        <v>5367200</v>
+        <v>6164400</v>
       </c>
       <c r="J72" s="3">
+        <v>5382800</v>
+      </c>
+      <c r="K72" s="3">
         <v>5190000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4890600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6753700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6013600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4971100</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,9 +3217,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3080,9 +3259,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3119,48 +3301,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14746000</v>
+        <v>13553500</v>
       </c>
       <c r="E76" s="3">
-        <v>14377500</v>
+        <v>14788900</v>
       </c>
       <c r="F76" s="3">
-        <v>13921000</v>
+        <v>14419200</v>
       </c>
       <c r="G76" s="3">
-        <v>12831700</v>
+        <v>13961400</v>
       </c>
       <c r="H76" s="3">
-        <v>12533100</v>
+        <v>12869000</v>
       </c>
       <c r="I76" s="3">
-        <v>10631100</v>
+        <v>12569500</v>
       </c>
       <c r="J76" s="3">
+        <v>10662000</v>
+      </c>
+      <c r="K76" s="3">
         <v>10501500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8774600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8197800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7360700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6094800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3197,92 +3385,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>568100</v>
+        <v>466500</v>
       </c>
       <c r="E81" s="3">
-        <v>359500</v>
+        <v>569700</v>
       </c>
       <c r="F81" s="3">
-        <v>328700</v>
+        <v>360600</v>
       </c>
       <c r="G81" s="3">
-        <v>738400</v>
+        <v>329600</v>
       </c>
       <c r="H81" s="3">
-        <v>1114400</v>
+        <v>740600</v>
       </c>
       <c r="I81" s="3">
-        <v>411200</v>
+        <v>1117600</v>
       </c>
       <c r="J81" s="3">
+        <v>412400</v>
+      </c>
+      <c r="K81" s="3">
         <v>635900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>806500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>808800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>737300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>515800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,31 +3495,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>126800</v>
+        <v>111800</v>
       </c>
       <c r="E83" s="3">
-        <v>119900</v>
+        <v>123800</v>
       </c>
       <c r="F83" s="3">
-        <v>62000</v>
+        <v>127100</v>
       </c>
       <c r="G83" s="3">
-        <v>63400</v>
+        <v>120200</v>
       </c>
       <c r="H83" s="3">
-        <v>67800</v>
+        <v>62200</v>
       </c>
       <c r="I83" s="3">
-        <v>70700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+        <v>63600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>68000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3330,15 +3528,18 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>88900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>85600</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3375,9 +3576,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3414,9 +3618,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,9 +3660,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3492,9 +3702,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3531,48 +3744,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2250400</v>
+        <v>139800</v>
       </c>
       <c r="E89" s="3">
-        <v>1138200</v>
+        <v>1236300</v>
       </c>
       <c r="F89" s="3">
-        <v>335700</v>
+        <v>2256900</v>
       </c>
       <c r="G89" s="3">
-        <v>1613500</v>
+        <v>1141500</v>
       </c>
       <c r="H89" s="3">
-        <v>-2387900</v>
+        <v>336700</v>
       </c>
       <c r="I89" s="3">
-        <v>6542900</v>
+        <v>1618200</v>
       </c>
       <c r="J89" s="3">
+        <v>-2394800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4688100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2322300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2346700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>532200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1907700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3588,47 +3807,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-76300</v>
+        <v>-70900</v>
       </c>
       <c r="E91" s="3">
-        <v>-128700</v>
+        <v>-77300</v>
       </c>
       <c r="F91" s="3">
-        <v>-83700</v>
+        <v>-76500</v>
       </c>
       <c r="G91" s="3">
-        <v>-52100</v>
+        <v>-129000</v>
       </c>
       <c r="H91" s="3">
-        <v>-57100</v>
+        <v>-83900</v>
       </c>
       <c r="I91" s="3">
-        <v>-56800</v>
+        <v>-52300</v>
       </c>
       <c r="J91" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-38900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-95500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-96500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-73900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3665,9 +3888,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3704,32 +3930,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>46900</v>
+        <v>272700</v>
       </c>
       <c r="E94" s="3">
+        <v>341400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G94" s="3">
         <v>-14700</v>
       </c>
-      <c r="F94" s="3">
-        <v>-80600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>531900</v>
-      </c>
       <c r="H94" s="3">
-        <v>230200</v>
+        <v>-80900</v>
       </c>
       <c r="I94" s="3">
-        <v>-68400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+        <v>533400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>230900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -3737,15 +3966,18 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>84400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>72300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3761,47 +3993,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-173000</v>
+        <v>-330200</v>
       </c>
       <c r="E96" s="3">
-        <v>-104900</v>
+        <v>-215400</v>
       </c>
       <c r="F96" s="3">
-        <v>-106000</v>
+        <v>-173500</v>
       </c>
       <c r="G96" s="3">
-        <v>-268300</v>
+        <v>-105200</v>
       </c>
       <c r="H96" s="3">
-        <v>-59600</v>
+        <v>-106300</v>
       </c>
       <c r="I96" s="3">
-        <v>-104100</v>
+        <v>-269100</v>
       </c>
       <c r="J96" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-126300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-95200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-96200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-120000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-148100</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3838,9 +4074,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3877,9 +4116,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3916,32 +4158,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-204500</v>
+        <v>-1020200</v>
       </c>
       <c r="E100" s="3">
-        <v>51500</v>
+        <v>-844700</v>
       </c>
       <c r="F100" s="3">
-        <v>-325600</v>
+        <v>-205100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1055900</v>
+        <v>51600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1683700</v>
+        <v>-326600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1033000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+        <v>-1059000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1688600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -3949,38 +4194,41 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>2031000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1043700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>336000</v>
+        <v>-477900</v>
       </c>
       <c r="E101" s="3">
-        <v>-77100</v>
+        <v>154200</v>
       </c>
       <c r="F101" s="3">
-        <v>-433900</v>
+        <v>336900</v>
       </c>
       <c r="G101" s="3">
-        <v>711800</v>
+        <v>-77300</v>
       </c>
       <c r="H101" s="3">
-        <v>-633600</v>
+        <v>-435200</v>
       </c>
       <c r="I101" s="3">
-        <v>-475500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+        <v>713900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-635400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -3994,46 +4242,52 @@
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2428800</v>
+        <v>-1085700</v>
       </c>
       <c r="E102" s="3">
-        <v>1097900</v>
+        <v>887200</v>
       </c>
       <c r="F102" s="3">
-        <v>-504500</v>
+        <v>2435800</v>
       </c>
       <c r="G102" s="3">
-        <v>1801300</v>
+        <v>1101100</v>
       </c>
       <c r="H102" s="3">
-        <v>-4474900</v>
+        <v>-506000</v>
       </c>
       <c r="I102" s="3">
-        <v>4966100</v>
+        <v>1806500</v>
       </c>
       <c r="J102" s="3">
+        <v>-4487900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2295900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1239600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1252700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2647500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-791700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -729,25 +729,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3174800</v>
+        <v>3168600</v>
       </c>
       <c r="E8" s="3">
-        <v>2306900</v>
+        <v>2302400</v>
       </c>
       <c r="F8" s="3">
-        <v>2696800</v>
+        <v>2691600</v>
       </c>
       <c r="G8" s="3">
-        <v>3651000</v>
+        <v>3643900</v>
       </c>
       <c r="H8" s="3">
-        <v>3270700</v>
+        <v>3264300</v>
       </c>
       <c r="I8" s="3">
-        <v>2763500</v>
+        <v>2758100</v>
       </c>
       <c r="J8" s="3">
-        <v>2601800</v>
+        <v>2596700</v>
       </c>
       <c r="K8" s="3">
         <v>3004200</v>
@@ -999,25 +999,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-111800</v>
+        <v>-111600</v>
       </c>
       <c r="E15" s="3">
-        <v>-123800</v>
+        <v>-123600</v>
       </c>
       <c r="F15" s="3">
-        <v>-127100</v>
+        <v>-126900</v>
       </c>
       <c r="G15" s="3">
-        <v>-120200</v>
+        <v>-120000</v>
       </c>
       <c r="H15" s="3">
-        <v>-62200</v>
+        <v>-62100</v>
       </c>
       <c r="I15" s="3">
-        <v>-63600</v>
+        <v>-63500</v>
       </c>
       <c r="J15" s="3">
-        <v>-63900</v>
+        <v>-63800</v>
       </c>
       <c r="K15" s="3">
         <v>-67100</v>
@@ -1056,25 +1056,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2140900</v>
+        <v>2136700</v>
       </c>
       <c r="E17" s="3">
-        <v>1065700</v>
+        <v>1063600</v>
       </c>
       <c r="F17" s="3">
-        <v>1826000</v>
+        <v>1822400</v>
       </c>
       <c r="G17" s="3">
-        <v>2716300</v>
+        <v>2710900</v>
       </c>
       <c r="H17" s="3">
-        <v>1763000</v>
+        <v>1759500</v>
       </c>
       <c r="I17" s="3">
-        <v>1474300</v>
+        <v>1471500</v>
       </c>
       <c r="J17" s="3">
-        <v>1626100</v>
+        <v>1622900</v>
       </c>
       <c r="K17" s="3">
         <v>1743200</v>
@@ -1098,25 +1098,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1033900</v>
+        <v>1031900</v>
       </c>
       <c r="E18" s="3">
-        <v>1241200</v>
+        <v>1238700</v>
       </c>
       <c r="F18" s="3">
-        <v>870900</v>
+        <v>869200</v>
       </c>
       <c r="G18" s="3">
-        <v>934800</v>
+        <v>932900</v>
       </c>
       <c r="H18" s="3">
-        <v>1507700</v>
+        <v>1504700</v>
       </c>
       <c r="I18" s="3">
-        <v>1289200</v>
+        <v>1286700</v>
       </c>
       <c r="J18" s="3">
-        <v>975700</v>
+        <v>973700</v>
       </c>
       <c r="K18" s="3">
         <v>1261000</v>
@@ -1158,25 +1158,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-402600</v>
+        <v>-401800</v>
       </c>
       <c r="E20" s="3">
-        <v>-457200</v>
+        <v>-456300</v>
       </c>
       <c r="F20" s="3">
-        <v>-410100</v>
+        <v>-409300</v>
       </c>
       <c r="G20" s="3">
-        <v>-526200</v>
+        <v>-525100</v>
       </c>
       <c r="H20" s="3">
-        <v>-477900</v>
+        <v>-476900</v>
       </c>
       <c r="I20" s="3">
-        <v>-322600</v>
+        <v>-322000</v>
       </c>
       <c r="J20" s="3">
-        <v>-388900</v>
+        <v>-388200</v>
       </c>
       <c r="K20" s="3">
         <v>-447600</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>743100</v>
+        <v>741700</v>
       </c>
       <c r="E21" s="3">
-        <v>907700</v>
+        <v>906000</v>
       </c>
       <c r="F21" s="3">
-        <v>587800</v>
+        <v>586700</v>
       </c>
       <c r="G21" s="3">
-        <v>528800</v>
+        <v>527800</v>
       </c>
       <c r="H21" s="3">
-        <v>1092000</v>
+        <v>1089900</v>
       </c>
       <c r="I21" s="3">
-        <v>1030200</v>
+        <v>1028200</v>
       </c>
       <c r="J21" s="3">
-        <v>654700</v>
+        <v>653400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1284,25 +1284,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>631300</v>
+        <v>630100</v>
       </c>
       <c r="E23" s="3">
-        <v>784000</v>
+        <v>782500</v>
       </c>
       <c r="F23" s="3">
-        <v>460700</v>
+        <v>459800</v>
       </c>
       <c r="G23" s="3">
-        <v>408600</v>
+        <v>407800</v>
       </c>
       <c r="H23" s="3">
-        <v>1029800</v>
+        <v>1027800</v>
       </c>
       <c r="I23" s="3">
-        <v>966600</v>
+        <v>964700</v>
       </c>
       <c r="J23" s="3">
-        <v>586700</v>
+        <v>585600</v>
       </c>
       <c r="K23" s="3">
         <v>813400</v>
@@ -1326,10 +1326,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71900</v>
+        <v>71800</v>
       </c>
       <c r="E24" s="3">
-        <v>105200</v>
+        <v>104900</v>
       </c>
       <c r="F24" s="3">
         <v>-10100</v>
@@ -1338,13 +1338,13 @@
         <v>-17600</v>
       </c>
       <c r="H24" s="3">
-        <v>192400</v>
+        <v>192000</v>
       </c>
       <c r="I24" s="3">
-        <v>152700</v>
+        <v>152400</v>
       </c>
       <c r="J24" s="3">
-        <v>136300</v>
+        <v>136100</v>
       </c>
       <c r="K24" s="3">
         <v>133600</v>
@@ -1410,25 +1410,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>559400</v>
+        <v>558300</v>
       </c>
       <c r="E26" s="3">
-        <v>678800</v>
+        <v>677500</v>
       </c>
       <c r="F26" s="3">
-        <v>470800</v>
+        <v>469900</v>
       </c>
       <c r="G26" s="3">
-        <v>426200</v>
+        <v>425400</v>
       </c>
       <c r="H26" s="3">
-        <v>837400</v>
+        <v>835800</v>
       </c>
       <c r="I26" s="3">
-        <v>813900</v>
+        <v>812300</v>
       </c>
       <c r="J26" s="3">
-        <v>450400</v>
+        <v>449500</v>
       </c>
       <c r="K26" s="3">
         <v>679800</v>
@@ -1452,25 +1452,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>466500</v>
+        <v>465600</v>
       </c>
       <c r="E27" s="3">
-        <v>569700</v>
+        <v>568600</v>
       </c>
       <c r="F27" s="3">
-        <v>360600</v>
+        <v>359900</v>
       </c>
       <c r="G27" s="3">
-        <v>329600</v>
+        <v>329000</v>
       </c>
       <c r="H27" s="3">
-        <v>740600</v>
+        <v>739100</v>
       </c>
       <c r="I27" s="3">
-        <v>588000</v>
+        <v>586800</v>
       </c>
       <c r="J27" s="3">
-        <v>373600</v>
+        <v>372900</v>
       </c>
       <c r="K27" s="3">
         <v>597400</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>529600</v>
+        <v>528600</v>
       </c>
       <c r="J29" s="3">
         <v>38800</v>
@@ -1662,25 +1662,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>402600</v>
+        <v>401800</v>
       </c>
       <c r="E32" s="3">
-        <v>457200</v>
+        <v>456300</v>
       </c>
       <c r="F32" s="3">
-        <v>410100</v>
+        <v>409300</v>
       </c>
       <c r="G32" s="3">
-        <v>526200</v>
+        <v>525100</v>
       </c>
       <c r="H32" s="3">
-        <v>477900</v>
+        <v>476900</v>
       </c>
       <c r="I32" s="3">
-        <v>322600</v>
+        <v>322000</v>
       </c>
       <c r="J32" s="3">
-        <v>388900</v>
+        <v>388200</v>
       </c>
       <c r="K32" s="3">
         <v>447600</v>
@@ -1704,25 +1704,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>466500</v>
+        <v>465600</v>
       </c>
       <c r="E33" s="3">
-        <v>569700</v>
+        <v>568600</v>
       </c>
       <c r="F33" s="3">
-        <v>360600</v>
+        <v>359900</v>
       </c>
       <c r="G33" s="3">
-        <v>329600</v>
+        <v>329000</v>
       </c>
       <c r="H33" s="3">
-        <v>740600</v>
+        <v>739100</v>
       </c>
       <c r="I33" s="3">
-        <v>1117600</v>
+        <v>1115400</v>
       </c>
       <c r="J33" s="3">
-        <v>412400</v>
+        <v>411600</v>
       </c>
       <c r="K33" s="3">
         <v>635900</v>
@@ -1788,25 +1788,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>466500</v>
+        <v>465600</v>
       </c>
       <c r="E35" s="3">
-        <v>569700</v>
+        <v>568600</v>
       </c>
       <c r="F35" s="3">
-        <v>360600</v>
+        <v>359900</v>
       </c>
       <c r="G35" s="3">
-        <v>329600</v>
+        <v>329000</v>
       </c>
       <c r="H35" s="3">
-        <v>740600</v>
+        <v>739100</v>
       </c>
       <c r="I35" s="3">
-        <v>1117600</v>
+        <v>1115400</v>
       </c>
       <c r="J35" s="3">
-        <v>412400</v>
+        <v>411600</v>
       </c>
       <c r="K35" s="3">
         <v>635900</v>
@@ -1913,25 +1913,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6973600</v>
+        <v>6959900</v>
       </c>
       <c r="E41" s="3">
-        <v>7038600</v>
+        <v>7024800</v>
       </c>
       <c r="F41" s="3">
-        <v>7203300</v>
+        <v>7189200</v>
       </c>
       <c r="G41" s="3">
-        <v>6583300</v>
+        <v>6570500</v>
       </c>
       <c r="H41" s="3">
-        <v>6146500</v>
+        <v>6134500</v>
       </c>
       <c r="I41" s="3">
-        <v>7751800</v>
+        <v>7736600</v>
       </c>
       <c r="J41" s="3">
-        <v>8386100</v>
+        <v>8369600</v>
       </c>
       <c r="K41" s="3">
         <v>8810000</v>
@@ -1955,25 +1955,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28155500</v>
+        <v>28100400</v>
       </c>
       <c r="E42" s="3">
-        <v>30522300</v>
+        <v>30462600</v>
       </c>
       <c r="F42" s="3">
-        <v>29650600</v>
+        <v>29592500</v>
       </c>
       <c r="G42" s="3">
-        <v>31283300</v>
+        <v>31222100</v>
       </c>
       <c r="H42" s="3">
-        <v>29826900</v>
+        <v>29768500</v>
       </c>
       <c r="I42" s="3">
-        <v>11513500</v>
+        <v>11491000</v>
       </c>
       <c r="J42" s="3">
-        <v>9312800</v>
+        <v>9294600</v>
       </c>
       <c r="K42" s="3">
         <v>14808500</v>
@@ -2165,25 +2165,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1157700</v>
+        <v>1155500</v>
       </c>
       <c r="E47" s="3">
-        <v>1143200</v>
+        <v>1140900</v>
       </c>
       <c r="F47" s="3">
-        <v>1173200</v>
+        <v>1170900</v>
       </c>
       <c r="G47" s="3">
-        <v>1273900</v>
+        <v>1271400</v>
       </c>
       <c r="H47" s="3">
-        <v>1166400</v>
+        <v>1164100</v>
       </c>
       <c r="I47" s="3">
-        <v>1204700</v>
+        <v>1202400</v>
       </c>
       <c r="J47" s="3">
-        <v>768000</v>
+        <v>766500</v>
       </c>
       <c r="K47" s="3">
         <v>734200</v>
@@ -2207,25 +2207,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1721800</v>
+        <v>1718500</v>
       </c>
       <c r="E48" s="3">
-        <v>1768800</v>
+        <v>1765400</v>
       </c>
       <c r="F48" s="3">
-        <v>1797100</v>
+        <v>1793600</v>
       </c>
       <c r="G48" s="3">
-        <v>1830700</v>
+        <v>1827100</v>
       </c>
       <c r="H48" s="3">
-        <v>1682100</v>
+        <v>1678800</v>
       </c>
       <c r="I48" s="3">
-        <v>1629100</v>
+        <v>1625900</v>
       </c>
       <c r="J48" s="3">
-        <v>1532000</v>
+        <v>1529000</v>
       </c>
       <c r="K48" s="3">
         <v>1694000</v>
@@ -2249,25 +2249,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>238900</v>
+        <v>238500</v>
       </c>
       <c r="E49" s="3">
-        <v>240800</v>
+        <v>240400</v>
       </c>
       <c r="F49" s="3">
-        <v>244300</v>
+        <v>243800</v>
       </c>
       <c r="G49" s="3">
-        <v>246100</v>
+        <v>245600</v>
       </c>
       <c r="H49" s="3">
-        <v>247900</v>
+        <v>247400</v>
       </c>
       <c r="I49" s="3">
-        <v>250300</v>
+        <v>249800</v>
       </c>
       <c r="J49" s="3">
-        <v>337200</v>
+        <v>336500</v>
       </c>
       <c r="K49" s="3">
         <v>494700</v>
@@ -2375,25 +2375,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>239700</v>
+        <v>239200</v>
       </c>
       <c r="E52" s="3">
-        <v>527100</v>
+        <v>526000</v>
       </c>
       <c r="F52" s="3">
-        <v>3664300</v>
+        <v>3657100</v>
       </c>
       <c r="G52" s="3">
-        <v>204700</v>
+        <v>204300</v>
       </c>
       <c r="H52" s="3">
-        <v>149400</v>
+        <v>149100</v>
       </c>
       <c r="I52" s="3">
-        <v>136500</v>
+        <v>136200</v>
       </c>
       <c r="J52" s="3">
-        <v>740700</v>
+        <v>739200</v>
       </c>
       <c r="K52" s="3">
         <v>23100</v>
@@ -2459,25 +2459,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112799000</v>
+        <v>112578000</v>
       </c>
       <c r="E54" s="3">
-        <v>115947000</v>
+        <v>115721000</v>
       </c>
       <c r="F54" s="3">
-        <v>113002000</v>
+        <v>112781000</v>
       </c>
       <c r="G54" s="3">
-        <v>110546000</v>
+        <v>110330000</v>
       </c>
       <c r="H54" s="3">
-        <v>107257000</v>
+        <v>107047000</v>
       </c>
       <c r="I54" s="3">
-        <v>103359000</v>
+        <v>103156000</v>
       </c>
       <c r="J54" s="3">
-        <v>97834300</v>
+        <v>97642800</v>
       </c>
       <c r="K54" s="3">
         <v>99545800</v>
@@ -2537,25 +2537,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>530900</v>
+        <v>529800</v>
       </c>
       <c r="E57" s="3">
-        <v>242000</v>
+        <v>241500</v>
       </c>
       <c r="F57" s="3">
-        <v>236600</v>
+        <v>236200</v>
       </c>
       <c r="G57" s="3">
-        <v>458100</v>
+        <v>457200</v>
       </c>
       <c r="H57" s="3">
-        <v>419000</v>
+        <v>418100</v>
       </c>
       <c r="I57" s="3">
-        <v>407200</v>
+        <v>406400</v>
       </c>
       <c r="J57" s="3">
-        <v>487100</v>
+        <v>486100</v>
       </c>
       <c r="K57" s="3">
         <v>543900</v>
@@ -2579,25 +2579,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>293400</v>
+        <v>292800</v>
       </c>
       <c r="E58" s="3">
-        <v>454100</v>
+        <v>453200</v>
       </c>
       <c r="F58" s="3">
-        <v>542800</v>
+        <v>541700</v>
       </c>
       <c r="G58" s="3">
-        <v>665000</v>
+        <v>663700</v>
       </c>
       <c r="H58" s="3">
-        <v>52000</v>
+        <v>51900</v>
       </c>
       <c r="I58" s="3">
-        <v>70000</v>
+        <v>69900</v>
       </c>
       <c r="J58" s="3">
-        <v>1736400</v>
+        <v>1733000</v>
       </c>
       <c r="K58" s="3">
         <v>989100</v>
@@ -2621,25 +2621,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>160000</v>
+        <v>159700</v>
       </c>
       <c r="E59" s="3">
-        <v>122400</v>
+        <v>122200</v>
       </c>
       <c r="F59" s="3">
-        <v>79700</v>
+        <v>79600</v>
       </c>
       <c r="G59" s="3">
-        <v>268700</v>
+        <v>268200</v>
       </c>
       <c r="H59" s="3">
-        <v>183600</v>
+        <v>183200</v>
       </c>
       <c r="I59" s="3">
-        <v>148200</v>
+        <v>147900</v>
       </c>
       <c r="J59" s="3">
-        <v>205100</v>
+        <v>204700</v>
       </c>
       <c r="K59" s="3">
         <v>168800</v>
@@ -2705,25 +2705,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1699000</v>
+        <v>1695600</v>
       </c>
       <c r="E61" s="3">
-        <v>1234900</v>
+        <v>1232500</v>
       </c>
       <c r="F61" s="3">
-        <v>1540400</v>
+        <v>1537400</v>
       </c>
       <c r="G61" s="3">
-        <v>1190900</v>
+        <v>1188600</v>
       </c>
       <c r="H61" s="3">
-        <v>1599000</v>
+        <v>1595900</v>
       </c>
       <c r="I61" s="3">
-        <v>1644700</v>
+        <v>1641400</v>
       </c>
       <c r="J61" s="3">
-        <v>1810800</v>
+        <v>1807200</v>
       </c>
       <c r="K61" s="3">
         <v>2908400</v>
@@ -2747,25 +2747,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28900</v>
+        <v>28800</v>
       </c>
       <c r="E62" s="3">
-        <v>71400</v>
+        <v>71300</v>
       </c>
       <c r="F62" s="3">
-        <v>58800</v>
+        <v>58700</v>
       </c>
       <c r="G62" s="3">
-        <v>74600</v>
+        <v>74500</v>
       </c>
       <c r="H62" s="3">
-        <v>61700</v>
+        <v>61600</v>
       </c>
       <c r="I62" s="3">
-        <v>70400</v>
+        <v>70300</v>
       </c>
       <c r="J62" s="3">
-        <v>59000</v>
+        <v>58900</v>
       </c>
       <c r="K62" s="3">
         <v>68000</v>
@@ -2915,25 +2915,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99245100</v>
+        <v>99050900</v>
       </c>
       <c r="E66" s="3">
-        <v>101159000</v>
+        <v>100961000</v>
       </c>
       <c r="F66" s="3">
-        <v>98583100</v>
+        <v>98390200</v>
       </c>
       <c r="G66" s="3">
-        <v>96584900</v>
+        <v>96395900</v>
       </c>
       <c r="H66" s="3">
-        <v>94387700</v>
+        <v>94203000</v>
       </c>
       <c r="I66" s="3">
-        <v>90789000</v>
+        <v>90611400</v>
       </c>
       <c r="J66" s="3">
-        <v>87172200</v>
+        <v>87001700</v>
       </c>
       <c r="K66" s="3">
         <v>89044300</v>
@@ -3143,25 +3143,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6795800</v>
+        <v>6782500</v>
       </c>
       <c r="E72" s="3">
-        <v>7058700</v>
+        <v>7044800</v>
       </c>
       <c r="F72" s="3">
-        <v>6729300</v>
+        <v>6716100</v>
       </c>
       <c r="G72" s="3">
-        <v>6564400</v>
+        <v>6551600</v>
       </c>
       <c r="H72" s="3">
-        <v>6503000</v>
+        <v>6490300</v>
       </c>
       <c r="I72" s="3">
-        <v>6164400</v>
+        <v>6152300</v>
       </c>
       <c r="J72" s="3">
-        <v>5382800</v>
+        <v>5372300</v>
       </c>
       <c r="K72" s="3">
         <v>5190000</v>
@@ -3311,25 +3311,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13553500</v>
+        <v>13526900</v>
       </c>
       <c r="E76" s="3">
-        <v>14788900</v>
+        <v>14759900</v>
       </c>
       <c r="F76" s="3">
-        <v>14419200</v>
+        <v>14391000</v>
       </c>
       <c r="G76" s="3">
-        <v>13961400</v>
+        <v>13934100</v>
       </c>
       <c r="H76" s="3">
-        <v>12869000</v>
+        <v>12843800</v>
       </c>
       <c r="I76" s="3">
-        <v>12569500</v>
+        <v>12544900</v>
       </c>
       <c r="J76" s="3">
-        <v>10662000</v>
+        <v>10641200</v>
       </c>
       <c r="K76" s="3">
         <v>10501500</v>
@@ -3442,25 +3442,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>466500</v>
+        <v>465600</v>
       </c>
       <c r="E81" s="3">
-        <v>569700</v>
+        <v>568600</v>
       </c>
       <c r="F81" s="3">
-        <v>360600</v>
+        <v>359900</v>
       </c>
       <c r="G81" s="3">
-        <v>329600</v>
+        <v>329000</v>
       </c>
       <c r="H81" s="3">
-        <v>740600</v>
+        <v>739100</v>
       </c>
       <c r="I81" s="3">
-        <v>1117600</v>
+        <v>1115400</v>
       </c>
       <c r="J81" s="3">
-        <v>412400</v>
+        <v>411600</v>
       </c>
       <c r="K81" s="3">
         <v>635900</v>
@@ -3502,25 +3502,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>111800</v>
+        <v>111600</v>
       </c>
       <c r="E83" s="3">
-        <v>123800</v>
+        <v>123600</v>
       </c>
       <c r="F83" s="3">
-        <v>127100</v>
+        <v>126900</v>
       </c>
       <c r="G83" s="3">
-        <v>120200</v>
+        <v>120000</v>
       </c>
       <c r="H83" s="3">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="I83" s="3">
-        <v>63600</v>
+        <v>63500</v>
       </c>
       <c r="J83" s="3">
-        <v>68000</v>
+        <v>67800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3754,25 +3754,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>139800</v>
+        <v>139500</v>
       </c>
       <c r="E89" s="3">
-        <v>1236300</v>
+        <v>1233900</v>
       </c>
       <c r="F89" s="3">
-        <v>2256900</v>
+        <v>2252500</v>
       </c>
       <c r="G89" s="3">
-        <v>1141500</v>
+        <v>1139300</v>
       </c>
       <c r="H89" s="3">
-        <v>336700</v>
+        <v>336000</v>
       </c>
       <c r="I89" s="3">
-        <v>1618200</v>
+        <v>1615000</v>
       </c>
       <c r="J89" s="3">
-        <v>-2394800</v>
+        <v>-2390100</v>
       </c>
       <c r="K89" s="3">
         <v>-4688100</v>
@@ -3814,25 +3814,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-70900</v>
+        <v>-70800</v>
       </c>
       <c r="E91" s="3">
-        <v>-77300</v>
+        <v>-77100</v>
       </c>
       <c r="F91" s="3">
-        <v>-76500</v>
+        <v>-76400</v>
       </c>
       <c r="G91" s="3">
-        <v>-129000</v>
+        <v>-128800</v>
       </c>
       <c r="H91" s="3">
-        <v>-83900</v>
+        <v>-83800</v>
       </c>
       <c r="I91" s="3">
-        <v>-52300</v>
+        <v>-52200</v>
       </c>
       <c r="J91" s="3">
-        <v>-57200</v>
+        <v>-57100</v>
       </c>
       <c r="K91" s="3">
         <v>-38900</v>
@@ -3940,25 +3940,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>272700</v>
+        <v>272100</v>
       </c>
       <c r="E94" s="3">
-        <v>341400</v>
+        <v>340700</v>
       </c>
       <c r="F94" s="3">
-        <v>47000</v>
+        <v>46900</v>
       </c>
       <c r="G94" s="3">
         <v>-14700</v>
       </c>
       <c r="H94" s="3">
-        <v>-80900</v>
+        <v>-80700</v>
       </c>
       <c r="I94" s="3">
-        <v>533400</v>
+        <v>532400</v>
       </c>
       <c r="J94" s="3">
-        <v>230900</v>
+        <v>230400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -4000,25 +4000,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-330200</v>
+        <v>-329500</v>
       </c>
       <c r="E96" s="3">
-        <v>-215400</v>
+        <v>-215000</v>
       </c>
       <c r="F96" s="3">
-        <v>-173500</v>
+        <v>-173200</v>
       </c>
       <c r="G96" s="3">
-        <v>-105200</v>
+        <v>-104900</v>
       </c>
       <c r="H96" s="3">
-        <v>-106300</v>
+        <v>-106100</v>
       </c>
       <c r="I96" s="3">
-        <v>-269100</v>
+        <v>-268600</v>
       </c>
       <c r="J96" s="3">
-        <v>-59800</v>
+        <v>-59700</v>
       </c>
       <c r="K96" s="3">
         <v>-126300</v>
@@ -4168,25 +4168,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1020200</v>
+        <v>-1018200</v>
       </c>
       <c r="E100" s="3">
-        <v>-844700</v>
+        <v>-843000</v>
       </c>
       <c r="F100" s="3">
-        <v>-205100</v>
+        <v>-204700</v>
       </c>
       <c r="G100" s="3">
-        <v>51600</v>
+        <v>51500</v>
       </c>
       <c r="H100" s="3">
-        <v>-326600</v>
+        <v>-325900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1059000</v>
+        <v>-1056900</v>
       </c>
       <c r="J100" s="3">
-        <v>-1688600</v>
+        <v>-1685300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4210,25 +4210,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-477900</v>
+        <v>-476900</v>
       </c>
       <c r="E101" s="3">
-        <v>154200</v>
+        <v>153900</v>
       </c>
       <c r="F101" s="3">
-        <v>336900</v>
+        <v>336300</v>
       </c>
       <c r="G101" s="3">
-        <v>-77300</v>
+        <v>-77100</v>
       </c>
       <c r="H101" s="3">
-        <v>-435200</v>
+        <v>-434300</v>
       </c>
       <c r="I101" s="3">
-        <v>713900</v>
+        <v>712500</v>
       </c>
       <c r="J101" s="3">
-        <v>-635400</v>
+        <v>-634200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4252,25 +4252,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1085700</v>
+        <v>-1083500</v>
       </c>
       <c r="E102" s="3">
-        <v>887200</v>
+        <v>885500</v>
       </c>
       <c r="F102" s="3">
-        <v>2435800</v>
+        <v>2431000</v>
       </c>
       <c r="G102" s="3">
-        <v>1101100</v>
+        <v>1099000</v>
       </c>
       <c r="H102" s="3">
-        <v>-506000</v>
+        <v>-505000</v>
       </c>
       <c r="I102" s="3">
-        <v>1806500</v>
+        <v>1803000</v>
       </c>
       <c r="J102" s="3">
-        <v>-4487900</v>
+        <v>-4479100</v>
       </c>
       <c r="K102" s="3">
         <v>-2295900</v>

--- a/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BKEAY_YR_FIN.xlsx
@@ -729,25 +729,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3168600</v>
+        <v>3185300</v>
       </c>
       <c r="E8" s="3">
-        <v>2302400</v>
+        <v>2314500</v>
       </c>
       <c r="F8" s="3">
-        <v>2691600</v>
+        <v>2705700</v>
       </c>
       <c r="G8" s="3">
-        <v>3643900</v>
+        <v>3663000</v>
       </c>
       <c r="H8" s="3">
-        <v>3264300</v>
+        <v>3281400</v>
       </c>
       <c r="I8" s="3">
-        <v>2758100</v>
+        <v>2772600</v>
       </c>
       <c r="J8" s="3">
-        <v>2596700</v>
+        <v>2610300</v>
       </c>
       <c r="K8" s="3">
         <v>3004200</v>
@@ -999,25 +999,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-111600</v>
+        <v>-112200</v>
       </c>
       <c r="E15" s="3">
-        <v>-123600</v>
+        <v>-124200</v>
       </c>
       <c r="F15" s="3">
-        <v>-126900</v>
+        <v>-127500</v>
       </c>
       <c r="G15" s="3">
-        <v>-120000</v>
+        <v>-120600</v>
       </c>
       <c r="H15" s="3">
-        <v>-62100</v>
+        <v>-62400</v>
       </c>
       <c r="I15" s="3">
-        <v>-63500</v>
+        <v>-63800</v>
       </c>
       <c r="J15" s="3">
-        <v>-63800</v>
+        <v>-64100</v>
       </c>
       <c r="K15" s="3">
         <v>-67100</v>
@@ -1056,25 +1056,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2136700</v>
+        <v>2148000</v>
       </c>
       <c r="E17" s="3">
-        <v>1063600</v>
+        <v>1069200</v>
       </c>
       <c r="F17" s="3">
-        <v>1822400</v>
+        <v>1832000</v>
       </c>
       <c r="G17" s="3">
-        <v>2710900</v>
+        <v>2725200</v>
       </c>
       <c r="H17" s="3">
-        <v>1759500</v>
+        <v>1768800</v>
       </c>
       <c r="I17" s="3">
-        <v>1471500</v>
+        <v>1479200</v>
       </c>
       <c r="J17" s="3">
-        <v>1622900</v>
+        <v>1631500</v>
       </c>
       <c r="K17" s="3">
         <v>1743200</v>
@@ -1098,25 +1098,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1031900</v>
+        <v>1037300</v>
       </c>
       <c r="E18" s="3">
-        <v>1238700</v>
+        <v>1245200</v>
       </c>
       <c r="F18" s="3">
-        <v>869200</v>
+        <v>873700</v>
       </c>
       <c r="G18" s="3">
-        <v>932900</v>
+        <v>937800</v>
       </c>
       <c r="H18" s="3">
-        <v>1504700</v>
+        <v>1512600</v>
       </c>
       <c r="I18" s="3">
-        <v>1286700</v>
+        <v>1293400</v>
       </c>
       <c r="J18" s="3">
-        <v>973700</v>
+        <v>978900</v>
       </c>
       <c r="K18" s="3">
         <v>1261000</v>
@@ -1158,25 +1158,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-401800</v>
+        <v>-403900</v>
       </c>
       <c r="E20" s="3">
-        <v>-456300</v>
+        <v>-458700</v>
       </c>
       <c r="F20" s="3">
-        <v>-409300</v>
+        <v>-411500</v>
       </c>
       <c r="G20" s="3">
-        <v>-525100</v>
+        <v>-527900</v>
       </c>
       <c r="H20" s="3">
-        <v>-476900</v>
+        <v>-479400</v>
       </c>
       <c r="I20" s="3">
-        <v>-322000</v>
+        <v>-323700</v>
       </c>
       <c r="J20" s="3">
-        <v>-388200</v>
+        <v>-390200</v>
       </c>
       <c r="K20" s="3">
         <v>-447600</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>741700</v>
+        <v>745500</v>
       </c>
       <c r="E21" s="3">
-        <v>906000</v>
+        <v>910700</v>
       </c>
       <c r="F21" s="3">
-        <v>586700</v>
+        <v>589700</v>
       </c>
       <c r="G21" s="3">
-        <v>527800</v>
+        <v>530500</v>
       </c>
       <c r="H21" s="3">
-        <v>1089900</v>
+        <v>1095600</v>
       </c>
       <c r="I21" s="3">
-        <v>1028200</v>
+        <v>1033600</v>
       </c>
       <c r="J21" s="3">
-        <v>653400</v>
+        <v>656800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
@@ -1284,25 +1284,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>630100</v>
+        <v>633400</v>
       </c>
       <c r="E23" s="3">
-        <v>782500</v>
+        <v>786600</v>
       </c>
       <c r="F23" s="3">
-        <v>459800</v>
+        <v>462300</v>
       </c>
       <c r="G23" s="3">
-        <v>407800</v>
+        <v>410000</v>
       </c>
       <c r="H23" s="3">
-        <v>1027800</v>
+        <v>1033200</v>
       </c>
       <c r="I23" s="3">
-        <v>964700</v>
+        <v>969800</v>
       </c>
       <c r="J23" s="3">
-        <v>585600</v>
+        <v>588600</v>
       </c>
       <c r="K23" s="3">
         <v>813400</v>
@@ -1326,25 +1326,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71800</v>
+        <v>72200</v>
       </c>
       <c r="E24" s="3">
-        <v>104900</v>
+        <v>105500</v>
       </c>
       <c r="F24" s="3">
         <v>-10100</v>
       </c>
       <c r="G24" s="3">
-        <v>-17600</v>
+        <v>-17700</v>
       </c>
       <c r="H24" s="3">
-        <v>192000</v>
+        <v>193100</v>
       </c>
       <c r="I24" s="3">
-        <v>152400</v>
+        <v>153200</v>
       </c>
       <c r="J24" s="3">
-        <v>136100</v>
+        <v>136800</v>
       </c>
       <c r="K24" s="3">
         <v>133600</v>
@@ -1410,25 +1410,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>558300</v>
+        <v>561200</v>
       </c>
       <c r="E26" s="3">
-        <v>677500</v>
+        <v>681100</v>
       </c>
       <c r="F26" s="3">
-        <v>469900</v>
+        <v>472400</v>
       </c>
       <c r="G26" s="3">
-        <v>425400</v>
+        <v>427600</v>
       </c>
       <c r="H26" s="3">
-        <v>835800</v>
+        <v>840200</v>
       </c>
       <c r="I26" s="3">
-        <v>812300</v>
+        <v>816600</v>
       </c>
       <c r="J26" s="3">
-        <v>449500</v>
+        <v>451900</v>
       </c>
       <c r="K26" s="3">
         <v>679800</v>
@@ -1452,25 +1452,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>465600</v>
+        <v>468000</v>
       </c>
       <c r="E27" s="3">
-        <v>568600</v>
+        <v>571600</v>
       </c>
       <c r="F27" s="3">
-        <v>359900</v>
+        <v>361800</v>
       </c>
       <c r="G27" s="3">
-        <v>329000</v>
+        <v>330700</v>
       </c>
       <c r="H27" s="3">
-        <v>739100</v>
+        <v>743000</v>
       </c>
       <c r="I27" s="3">
-        <v>586800</v>
+        <v>589900</v>
       </c>
       <c r="J27" s="3">
-        <v>372900</v>
+        <v>374800</v>
       </c>
       <c r="K27" s="3">
         <v>597400</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>528600</v>
+        <v>531300</v>
       </c>
       <c r="J29" s="3">
-        <v>38800</v>
+        <v>39000</v>
       </c>
       <c r="K29" s="3">
         <v>38500</v>
@@ -1662,25 +1662,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>401800</v>
+        <v>403900</v>
       </c>
       <c r="E32" s="3">
-        <v>456300</v>
+        <v>458700</v>
       </c>
       <c r="F32" s="3">
-        <v>409300</v>
+        <v>411500</v>
       </c>
       <c r="G32" s="3">
-        <v>525100</v>
+        <v>527900</v>
       </c>
       <c r="H32" s="3">
-        <v>476900</v>
+        <v>479400</v>
       </c>
       <c r="I32" s="3">
-        <v>322000</v>
+        <v>323700</v>
       </c>
       <c r="J32" s="3">
-        <v>388200</v>
+        <v>390200</v>
       </c>
       <c r="K32" s="3">
         <v>447600</v>
@@ -1704,25 +1704,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>465600</v>
+        <v>468000</v>
       </c>
       <c r="E33" s="3">
-        <v>568600</v>
+        <v>571600</v>
       </c>
       <c r="F33" s="3">
-        <v>359900</v>
+        <v>361800</v>
       </c>
       <c r="G33" s="3">
-        <v>329000</v>
+        <v>330700</v>
       </c>
       <c r="H33" s="3">
-        <v>739100</v>
+        <v>743000</v>
       </c>
       <c r="I33" s="3">
-        <v>1115400</v>
+        <v>1121300</v>
       </c>
       <c r="J33" s="3">
-        <v>411600</v>
+        <v>413800</v>
       </c>
       <c r="K33" s="3">
         <v>635900</v>
@@ -1788,25 +1788,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>465600</v>
+        <v>468000</v>
       </c>
       <c r="E35" s="3">
-        <v>568600</v>
+        <v>571600</v>
       </c>
       <c r="F35" s="3">
-        <v>359900</v>
+        <v>361800</v>
       </c>
       <c r="G35" s="3">
-        <v>329000</v>
+        <v>330700</v>
       </c>
       <c r="H35" s="3">
-        <v>739100</v>
+        <v>743000</v>
       </c>
       <c r="I35" s="3">
-        <v>1115400</v>
+        <v>1121300</v>
       </c>
       <c r="J35" s="3">
-        <v>411600</v>
+        <v>413800</v>
       </c>
       <c r="K35" s="3">
         <v>635900</v>
@@ -1913,25 +1913,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6959900</v>
+        <v>6996500</v>
       </c>
       <c r="E41" s="3">
-        <v>7024800</v>
+        <v>7061700</v>
       </c>
       <c r="F41" s="3">
-        <v>7189200</v>
+        <v>7227000</v>
       </c>
       <c r="G41" s="3">
-        <v>6570500</v>
+        <v>6605000</v>
       </c>
       <c r="H41" s="3">
-        <v>6134500</v>
+        <v>6166700</v>
       </c>
       <c r="I41" s="3">
-        <v>7736600</v>
+        <v>7777300</v>
       </c>
       <c r="J41" s="3">
-        <v>8369600</v>
+        <v>8413600</v>
       </c>
       <c r="K41" s="3">
         <v>8810000</v>
@@ -1955,25 +1955,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28100400</v>
+        <v>28248100</v>
       </c>
       <c r="E42" s="3">
-        <v>30462600</v>
+        <v>30622700</v>
       </c>
       <c r="F42" s="3">
-        <v>29592500</v>
+        <v>29748000</v>
       </c>
       <c r="G42" s="3">
-        <v>31222100</v>
+        <v>31386200</v>
       </c>
       <c r="H42" s="3">
-        <v>29768500</v>
+        <v>29924900</v>
       </c>
       <c r="I42" s="3">
-        <v>11491000</v>
+        <v>11551300</v>
       </c>
       <c r="J42" s="3">
-        <v>9294600</v>
+        <v>9343400</v>
       </c>
       <c r="K42" s="3">
         <v>14808500</v>
@@ -2165,25 +2165,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1155500</v>
+        <v>1161500</v>
       </c>
       <c r="E47" s="3">
-        <v>1140900</v>
+        <v>1146900</v>
       </c>
       <c r="F47" s="3">
-        <v>1170900</v>
+        <v>1177000</v>
       </c>
       <c r="G47" s="3">
-        <v>1271400</v>
+        <v>1278100</v>
       </c>
       <c r="H47" s="3">
-        <v>1164100</v>
+        <v>1170200</v>
       </c>
       <c r="I47" s="3">
-        <v>1202400</v>
+        <v>1208700</v>
       </c>
       <c r="J47" s="3">
-        <v>766500</v>
+        <v>770600</v>
       </c>
       <c r="K47" s="3">
         <v>734200</v>
@@ -2207,25 +2207,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1718500</v>
+        <v>1727500</v>
       </c>
       <c r="E48" s="3">
-        <v>1765400</v>
+        <v>1774700</v>
       </c>
       <c r="F48" s="3">
-        <v>1793600</v>
+        <v>1803000</v>
       </c>
       <c r="G48" s="3">
-        <v>1827100</v>
+        <v>1836700</v>
       </c>
       <c r="H48" s="3">
-        <v>1678800</v>
+        <v>1687600</v>
       </c>
       <c r="I48" s="3">
-        <v>1625900</v>
+        <v>1634400</v>
       </c>
       <c r="J48" s="3">
-        <v>1529000</v>
+        <v>1537000</v>
       </c>
       <c r="K48" s="3">
         <v>1694000</v>
@@ -2249,25 +2249,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>238500</v>
+        <v>239700</v>
       </c>
       <c r="E49" s="3">
-        <v>240400</v>
+        <v>241600</v>
       </c>
       <c r="F49" s="3">
-        <v>243800</v>
+        <v>245100</v>
       </c>
       <c r="G49" s="3">
-        <v>245600</v>
+        <v>246900</v>
       </c>
       <c r="H49" s="3">
-        <v>247400</v>
+        <v>248700</v>
       </c>
       <c r="I49" s="3">
-        <v>249800</v>
+        <v>251100</v>
       </c>
       <c r="J49" s="3">
-        <v>336500</v>
+        <v>338300</v>
       </c>
       <c r="K49" s="3">
         <v>494700</v>
@@ -2375,25 +2375,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>239200</v>
+        <v>240500</v>
       </c>
       <c r="E52" s="3">
-        <v>526000</v>
+        <v>528800</v>
       </c>
       <c r="F52" s="3">
-        <v>3657100</v>
+        <v>3676400</v>
       </c>
       <c r="G52" s="3">
-        <v>204300</v>
+        <v>205400</v>
       </c>
       <c r="H52" s="3">
-        <v>149100</v>
+        <v>149900</v>
       </c>
       <c r="I52" s="3">
-        <v>136200</v>
+        <v>136900</v>
       </c>
       <c r="J52" s="3">
-        <v>739200</v>
+        <v>743100</v>
       </c>
       <c r="K52" s="3">
         <v>23100</v>
@@ -2459,25 +2459,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>112578000</v>
+        <v>113169000</v>
       </c>
       <c r="E54" s="3">
-        <v>115721000</v>
+        <v>116329000</v>
       </c>
       <c r="F54" s="3">
-        <v>112781000</v>
+        <v>113374000</v>
       </c>
       <c r="G54" s="3">
-        <v>110330000</v>
+        <v>110910000</v>
       </c>
       <c r="H54" s="3">
-        <v>107047000</v>
+        <v>107609000</v>
       </c>
       <c r="I54" s="3">
-        <v>103156000</v>
+        <v>103698000</v>
       </c>
       <c r="J54" s="3">
-        <v>97642800</v>
+        <v>98155900</v>
       </c>
       <c r="K54" s="3">
         <v>99545800</v>
@@ -2537,25 +2537,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>529800</v>
+        <v>532600</v>
       </c>
       <c r="E57" s="3">
-        <v>241500</v>
+        <v>242800</v>
       </c>
       <c r="F57" s="3">
-        <v>236200</v>
+        <v>237400</v>
       </c>
       <c r="G57" s="3">
-        <v>457200</v>
+        <v>459600</v>
       </c>
       <c r="H57" s="3">
-        <v>418100</v>
+        <v>420300</v>
       </c>
       <c r="I57" s="3">
-        <v>406400</v>
+        <v>408500</v>
       </c>
       <c r="J57" s="3">
-        <v>486100</v>
+        <v>488700</v>
       </c>
       <c r="K57" s="3">
         <v>543900</v>
@@ -2579,25 +2579,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>292800</v>
+        <v>294300</v>
       </c>
       <c r="E58" s="3">
-        <v>453200</v>
+        <v>455600</v>
       </c>
       <c r="F58" s="3">
-        <v>541700</v>
+        <v>544600</v>
       </c>
       <c r="G58" s="3">
-        <v>663700</v>
+        <v>667200</v>
       </c>
       <c r="H58" s="3">
-        <v>51900</v>
+        <v>52200</v>
       </c>
       <c r="I58" s="3">
-        <v>69900</v>
+        <v>70200</v>
       </c>
       <c r="J58" s="3">
-        <v>1733000</v>
+        <v>1742100</v>
       </c>
       <c r="K58" s="3">
         <v>989100</v>
@@ -2621,25 +2621,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>159700</v>
+        <v>160500</v>
       </c>
       <c r="E59" s="3">
-        <v>122200</v>
+        <v>122800</v>
       </c>
       <c r="F59" s="3">
-        <v>79600</v>
+        <v>80000</v>
       </c>
       <c r="G59" s="3">
-        <v>268200</v>
+        <v>269600</v>
       </c>
       <c r="H59" s="3">
-        <v>183200</v>
+        <v>184200</v>
       </c>
       <c r="I59" s="3">
-        <v>147900</v>
+        <v>148700</v>
       </c>
       <c r="J59" s="3">
-        <v>204700</v>
+        <v>205700</v>
       </c>
       <c r="K59" s="3">
         <v>168800</v>
@@ -2705,25 +2705,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1695600</v>
+        <v>1704500</v>
       </c>
       <c r="E61" s="3">
-        <v>1232500</v>
+        <v>1239000</v>
       </c>
       <c r="F61" s="3">
-        <v>1537400</v>
+        <v>1545500</v>
       </c>
       <c r="G61" s="3">
-        <v>1188600</v>
+        <v>1194900</v>
       </c>
       <c r="H61" s="3">
-        <v>1595900</v>
+        <v>1604300</v>
       </c>
       <c r="I61" s="3">
-        <v>1641400</v>
+        <v>1650100</v>
       </c>
       <c r="J61" s="3">
-        <v>1807200</v>
+        <v>1816700</v>
       </c>
       <c r="K61" s="3">
         <v>2908400</v>
@@ -2747,25 +2747,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="E62" s="3">
-        <v>71300</v>
+        <v>71700</v>
       </c>
       <c r="F62" s="3">
-        <v>58700</v>
+        <v>59000</v>
       </c>
       <c r="G62" s="3">
-        <v>74500</v>
+        <v>74900</v>
       </c>
       <c r="H62" s="3">
-        <v>61600</v>
+        <v>61900</v>
       </c>
       <c r="I62" s="3">
-        <v>70300</v>
+        <v>70600</v>
       </c>
       <c r="J62" s="3">
-        <v>58900</v>
+        <v>59200</v>
       </c>
       <c r="K62" s="3">
         <v>68000</v>
@@ -2915,25 +2915,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>99050900</v>
+        <v>99571300</v>
       </c>
       <c r="E66" s="3">
-        <v>100961000</v>
+        <v>101491000</v>
       </c>
       <c r="F66" s="3">
-        <v>98390200</v>
+        <v>98907200</v>
       </c>
       <c r="G66" s="3">
-        <v>96395900</v>
+        <v>96902400</v>
       </c>
       <c r="H66" s="3">
-        <v>94203000</v>
+        <v>94697900</v>
       </c>
       <c r="I66" s="3">
-        <v>90611400</v>
+        <v>91087500</v>
       </c>
       <c r="J66" s="3">
-        <v>87001700</v>
+        <v>87458800</v>
       </c>
       <c r="K66" s="3">
         <v>89044300</v>
@@ -3143,25 +3143,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6782500</v>
+        <v>6818200</v>
       </c>
       <c r="E72" s="3">
-        <v>7044800</v>
+        <v>7081900</v>
       </c>
       <c r="F72" s="3">
-        <v>6716100</v>
+        <v>6751400</v>
       </c>
       <c r="G72" s="3">
-        <v>6551600</v>
+        <v>6586000</v>
       </c>
       <c r="H72" s="3">
-        <v>6490300</v>
+        <v>6524400</v>
       </c>
       <c r="I72" s="3">
-        <v>6152300</v>
+        <v>6184700</v>
       </c>
       <c r="J72" s="3">
-        <v>5372300</v>
+        <v>5400500</v>
       </c>
       <c r="K72" s="3">
         <v>5190000</v>
@@ -3311,25 +3311,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13526900</v>
+        <v>13598000</v>
       </c>
       <c r="E76" s="3">
-        <v>14759900</v>
+        <v>14837500</v>
       </c>
       <c r="F76" s="3">
-        <v>14391000</v>
+        <v>14466600</v>
       </c>
       <c r="G76" s="3">
-        <v>13934100</v>
+        <v>14007300</v>
       </c>
       <c r="H76" s="3">
-        <v>12843800</v>
+        <v>12911300</v>
       </c>
       <c r="I76" s="3">
-        <v>12544900</v>
+        <v>12610800</v>
       </c>
       <c r="J76" s="3">
-        <v>10641200</v>
+        <v>10697100</v>
       </c>
       <c r="K76" s="3">
         <v>10501500</v>
@@ -3442,25 +3442,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>465600</v>
+        <v>468000</v>
       </c>
       <c r="E81" s="3">
-        <v>568600</v>
+        <v>571600</v>
       </c>
       <c r="F81" s="3">
-        <v>359900</v>
+        <v>361800</v>
       </c>
       <c r="G81" s="3">
-        <v>329000</v>
+        <v>330700</v>
       </c>
       <c r="H81" s="3">
-        <v>739100</v>
+        <v>743000</v>
       </c>
       <c r="I81" s="3">
-        <v>1115400</v>
+        <v>1121300</v>
       </c>
       <c r="J81" s="3">
-        <v>411600</v>
+        <v>413800</v>
       </c>
       <c r="K81" s="3">
         <v>635900</v>
@@ -3502,25 +3502,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>111600</v>
+        <v>112200</v>
       </c>
       <c r="E83" s="3">
-        <v>123600</v>
+        <v>124200</v>
       </c>
       <c r="F83" s="3">
-        <v>126900</v>
+        <v>127500</v>
       </c>
       <c r="G83" s="3">
-        <v>120000</v>
+        <v>120600</v>
       </c>
       <c r="H83" s="3">
-        <v>62100</v>
+        <v>62400</v>
       </c>
       <c r="I83" s="3">
-        <v>63500</v>
+        <v>63800</v>
       </c>
       <c r="J83" s="3">
-        <v>67800</v>
+        <v>68200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3754,25 +3754,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>139500</v>
+        <v>140200</v>
       </c>
       <c r="E89" s="3">
-        <v>1233900</v>
+        <v>1240400</v>
       </c>
       <c r="F89" s="3">
-        <v>2252500</v>
+        <v>2264300</v>
       </c>
       <c r="G89" s="3">
-        <v>1139300</v>
+        <v>1145200</v>
       </c>
       <c r="H89" s="3">
-        <v>336000</v>
+        <v>337800</v>
       </c>
       <c r="I89" s="3">
-        <v>1615000</v>
+        <v>1623500</v>
       </c>
       <c r="J89" s="3">
-        <v>-2390100</v>
+        <v>-2402700</v>
       </c>
       <c r="K89" s="3">
         <v>-4688100</v>
@@ -3814,25 +3814,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-70800</v>
+        <v>-71100</v>
       </c>
       <c r="E91" s="3">
-        <v>-77100</v>
+        <v>-77600</v>
       </c>
       <c r="F91" s="3">
-        <v>-76400</v>
+        <v>-76800</v>
       </c>
       <c r="G91" s="3">
-        <v>-128800</v>
+        <v>-129500</v>
       </c>
       <c r="H91" s="3">
-        <v>-83800</v>
+        <v>-84200</v>
       </c>
       <c r="I91" s="3">
-        <v>-52200</v>
+        <v>-52400</v>
       </c>
       <c r="J91" s="3">
-        <v>-57100</v>
+        <v>-57400</v>
       </c>
       <c r="K91" s="3">
         <v>-38900</v>
@@ -3940,25 +3940,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>272100</v>
+        <v>273600</v>
       </c>
       <c r="E94" s="3">
-        <v>340700</v>
+        <v>342500</v>
       </c>
       <c r="F94" s="3">
-        <v>46900</v>
+        <v>47200</v>
       </c>
       <c r="G94" s="3">
         <v>-14700</v>
       </c>
       <c r="H94" s="3">
-        <v>-80700</v>
+        <v>-81100</v>
       </c>
       <c r="I94" s="3">
-        <v>532400</v>
+        <v>535200</v>
       </c>
       <c r="J94" s="3">
-        <v>230400</v>
+        <v>231600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -4000,25 +4000,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-329500</v>
+        <v>-331200</v>
       </c>
       <c r="E96" s="3">
-        <v>-215000</v>
+        <v>-216100</v>
       </c>
       <c r="F96" s="3">
-        <v>-173200</v>
+        <v>-174100</v>
       </c>
       <c r="G96" s="3">
-        <v>-104900</v>
+        <v>-105500</v>
       </c>
       <c r="H96" s="3">
-        <v>-106100</v>
+        <v>-106700</v>
       </c>
       <c r="I96" s="3">
-        <v>-268600</v>
+        <v>-270000</v>
       </c>
       <c r="J96" s="3">
-        <v>-59700</v>
+        <v>-60000</v>
       </c>
       <c r="K96" s="3">
         <v>-126300</v>
@@ -4168,25 +4168,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1018200</v>
+        <v>-1023600</v>
       </c>
       <c r="E100" s="3">
-        <v>-843000</v>
+        <v>-847500</v>
       </c>
       <c r="F100" s="3">
-        <v>-204700</v>
+        <v>-205700</v>
       </c>
       <c r="G100" s="3">
-        <v>51500</v>
+        <v>51800</v>
       </c>
       <c r="H100" s="3">
-        <v>-325900</v>
+        <v>-327700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1056900</v>
+        <v>-1062400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1685300</v>
+        <v>-1694200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4210,25 +4210,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-476900</v>
+        <v>-479400</v>
       </c>
       <c r="E101" s="3">
-        <v>153900</v>
+        <v>154700</v>
       </c>
       <c r="F101" s="3">
-        <v>336300</v>
+        <v>338000</v>
       </c>
       <c r="G101" s="3">
-        <v>-77100</v>
+        <v>-77600</v>
       </c>
       <c r="H101" s="3">
-        <v>-434300</v>
+        <v>-436600</v>
       </c>
       <c r="I101" s="3">
-        <v>712500</v>
+        <v>716200</v>
       </c>
       <c r="J101" s="3">
-        <v>-634200</v>
+        <v>-637500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4252,25 +4252,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1083500</v>
+        <v>-1089200</v>
       </c>
       <c r="E102" s="3">
-        <v>885500</v>
+        <v>890200</v>
       </c>
       <c r="F102" s="3">
-        <v>2431000</v>
+        <v>2443800</v>
       </c>
       <c r="G102" s="3">
-        <v>1099000</v>
+        <v>1104700</v>
       </c>
       <c r="H102" s="3">
-        <v>-505000</v>
+        <v>-507600</v>
       </c>
       <c r="I102" s="3">
-        <v>1803000</v>
+        <v>1812500</v>
       </c>
       <c r="J102" s="3">
-        <v>-4479100</v>
+        <v>-4502700</v>
       </c>
       <c r="K102" s="3">
         <v>-2295900</v>
